--- a/prisma/seed/seed_data.xlsx
+++ b/prisma/seed/seed_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafly/Data/Dev/Project/monitoring-welding-body/prisma/seed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8FF63D-7E3C-C241-878F-486D64317714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B68DE60-A089-BE43-A7B3-BE0D305782AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="811">
   <si>
     <t>name</t>
   </si>
@@ -2082,6 +2082,381 @@
   </si>
   <si>
     <t>PART161</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>E-CAT COMM. NORMAL</t>
+  </si>
+  <si>
+    <t>DATA PL ID SP1_STOP</t>
+  </si>
+  <si>
+    <t>DATA PL ID SP2 STOP</t>
+  </si>
+  <si>
+    <t>DATA PL ID SP3 STOP</t>
+  </si>
+  <si>
+    <t>DATA PL ID SP4 STOP</t>
+  </si>
+  <si>
+    <t>DATA PL ID SP6 STOP</t>
+  </si>
+  <si>
+    <t>DATA PL ID SP7 STOP</t>
+  </si>
+  <si>
+    <t>DATA PL ID SP8 STOP</t>
+  </si>
+  <si>
+    <t>DATA PL ID SP10 STOP</t>
+  </si>
+  <si>
+    <t>DATA PL ID SP0 STOP</t>
+  </si>
+  <si>
+    <t>EIP OHC 1 FAULT</t>
+  </si>
+  <si>
+    <t>SET INPUT HMI_HIGH SPEED LIFTER</t>
+  </si>
+  <si>
+    <t>SET INPUT HMI_MEDIUM SPEED LIFTER</t>
+  </si>
+  <si>
+    <t>SET INPUT HMI_LOW SPEED LIFTER</t>
+  </si>
+  <si>
+    <t>EIP COMMUNCIATION FAULT_FLG HMI</t>
+  </si>
+  <si>
+    <t>PB DOLLY SET COMPLETE</t>
+  </si>
+  <si>
+    <t>SS4 (MOTRAIN DOWN)</t>
+  </si>
+  <si>
+    <t>SS4 (MOTRAIN UP)</t>
+  </si>
+  <si>
+    <t>SS5 (HANGER ARM OPEN)</t>
+  </si>
+  <si>
+    <t>SS5 (HANGER ARM CLOSE)</t>
+  </si>
+  <si>
+    <t>PB WORK FINISH</t>
+  </si>
+  <si>
+    <t>UNLOADING DOLLY LOCK OK</t>
+  </si>
+  <si>
+    <t>UNLOADING DOLLY OUT COMPLETE</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>ST1 OPEN END</t>
+  </si>
+  <si>
+    <t>ST1 CLOSE END</t>
+  </si>
+  <si>
+    <t>PS1 FOR END</t>
+  </si>
+  <si>
+    <t>PS1 REV END</t>
+  </si>
+  <si>
+    <t>MOTRAIN PRESENT</t>
+  </si>
+  <si>
+    <t>MOTRAIN CLEAR 1</t>
+  </si>
+  <si>
+    <t>MOTRAIN CLEAR 2</t>
+  </si>
+  <si>
+    <t>LOAD DWN END 1</t>
+  </si>
+  <si>
+    <t>LOAD DWN END 2</t>
+  </si>
+  <si>
+    <t>LOAD BODY DETECT</t>
+  </si>
+  <si>
+    <t>ST2 OPEN END</t>
+  </si>
+  <si>
+    <t>ST2 CLOSE END</t>
+  </si>
+  <si>
+    <t>PS2 FOR END</t>
+  </si>
+  <si>
+    <t>PS2 REV END</t>
+  </si>
+  <si>
+    <t>UNLOAD BODY DETECT</t>
+  </si>
+  <si>
+    <t>UNLOAD FL BODY DETECT 1</t>
+  </si>
+  <si>
+    <t>UNLOAD FL BODY DETECT 2</t>
+  </si>
+  <si>
+    <t>SW1-MAIN</t>
+  </si>
+  <si>
+    <t>SW1-REPAIR</t>
+  </si>
+  <si>
+    <t>SP5 DECEL</t>
+  </si>
+  <si>
+    <t>BODY DOLLY IN</t>
+  </si>
+  <si>
+    <t>BODY NG OUT</t>
+  </si>
+  <si>
+    <t>SKID READY</t>
+  </si>
+  <si>
+    <t>SKID OUT</t>
+  </si>
+  <si>
+    <t>BODY READY</t>
+  </si>
+  <si>
+    <t>UNLOADING ALARM 1</t>
+  </si>
+  <si>
+    <t>STOPPER-3 OPEN END</t>
+  </si>
+  <si>
+    <t>STOPPER-3 CLOSE END</t>
+  </si>
+  <si>
+    <t>POSITIONER-3 FORWARD END</t>
+  </si>
+  <si>
+    <t>POSITIONER-3 REVERSE END</t>
+  </si>
+  <si>
+    <t>MOTRAIN PRESENT ST6 (SP8 RFID)</t>
+  </si>
+  <si>
+    <t>MOTRAIN CLEAR 1 ST6 (SP8 RFID)</t>
+  </si>
+  <si>
+    <t>MOTRAIN CLEAR 2 ST6 (SP8 RFID)</t>
+  </si>
+  <si>
+    <t>UNLOADING DOWN END 1</t>
+  </si>
+  <si>
+    <t>UNLOADING DOWN END 2</t>
+  </si>
+  <si>
+    <t>BODY DETECT AT SP8</t>
+  </si>
+  <si>
+    <t>LS TIMING KANBAN DETECT AT LOADING</t>
+  </si>
+  <si>
+    <t>KANBAN DETECT AT LOADING POS</t>
+  </si>
+  <si>
+    <t>LOA LIG ON STABIL</t>
+  </si>
+  <si>
+    <t>UNLOADING DATA NORMAL SIGN</t>
+  </si>
+  <si>
+    <t>CB-C6 POS ST8 OPEN PL</t>
+  </si>
+  <si>
+    <t>CB-C6 POS ST8 CLOSE PL</t>
+  </si>
+  <si>
+    <t>CB-C6 POS ST8 FWD PL</t>
+  </si>
+  <si>
+    <t>CB-C6 POS ST8 RVS PL</t>
+  </si>
+  <si>
+    <t>6_SP1 STOP_1401</t>
+  </si>
+  <si>
+    <t>6_SP2 STOP_1402</t>
+  </si>
+  <si>
+    <t>6_SP3 STOP_1403</t>
+  </si>
+  <si>
+    <t>6_SP4 STOP_1404</t>
+  </si>
+  <si>
+    <t>6_SP5 STOP_1405</t>
+  </si>
+  <si>
+    <t>6_SP6 STOP_1406</t>
+  </si>
+  <si>
+    <t>6_SP7 STOP_1407</t>
+  </si>
+  <si>
+    <t>6_SP8 STOP_1408</t>
+  </si>
+  <si>
+    <t>6_SP9 STOP_ 1409</t>
+  </si>
+  <si>
+    <t>6_SP10 STOP_1410</t>
+  </si>
+  <si>
+    <t>6_SP11 STOP_1411</t>
+  </si>
+  <si>
+    <t>6_SP0 STOP_1420</t>
+  </si>
+  <si>
+    <t>EIP COMM FAULT</t>
+  </si>
+  <si>
+    <t>E-CAT COMM FAULT</t>
+  </si>
+  <si>
+    <t>EMG STOP NORMAL CPC</t>
+  </si>
+  <si>
+    <t>EMG STOP NORMAL MAIN PANEL CPC NORMAL</t>
+  </si>
+  <si>
+    <t>1_SP1 STOP_1401</t>
+  </si>
+  <si>
+    <t>1_SP2 STOP_1402</t>
+  </si>
+  <si>
+    <t>1_SP3 STOP_1403</t>
+  </si>
+  <si>
+    <t>1_SP4 STOP_1404</t>
+  </si>
+  <si>
+    <t>1_SP5 STOP_1405</t>
+  </si>
+  <si>
+    <t>1_SP6 STOP_1405</t>
+  </si>
+  <si>
+    <t>1_SP7 STOP_1407</t>
+  </si>
+  <si>
+    <t>1_SP8 STOP_1408</t>
+  </si>
+  <si>
+    <t>1_SP9 STOP_ 1409</t>
+  </si>
+  <si>
+    <t>1_SP10 STOP_1410</t>
+  </si>
+  <si>
+    <t>1_SP11 STOP_1411</t>
+  </si>
+  <si>
+    <t>1_SP0 STOP_1420</t>
+  </si>
+  <si>
+    <t>PV FREQ MOTOR TRAVEL</t>
+  </si>
+  <si>
+    <t>PV CURRENT MOTOR TRAVEL</t>
+  </si>
+  <si>
+    <t>PV FREQ MOTOR LIFTER</t>
+  </si>
+  <si>
+    <t>PV CURRENT MOTOR LIFTER</t>
+  </si>
+  <si>
+    <t>PV TEMP MOTOR TRAVEL</t>
+  </si>
+  <si>
+    <t>PV TEMP MOTOR LIFTER</t>
+  </si>
+  <si>
+    <t>STOPPER-1 OPEN END</t>
+  </si>
+  <si>
+    <t>STOPPER-1 CLOSE END</t>
+  </si>
+  <si>
+    <t>STOPPER-2 OPEN END</t>
+  </si>
+  <si>
+    <t>STOPPER-2 CLOSE END</t>
+  </si>
+  <si>
+    <t>STOPPER-1 CLOSE</t>
+  </si>
+  <si>
+    <t>STOPPER-1 OPEN</t>
+  </si>
+  <si>
+    <t>POSITIONER-1 FORWARD</t>
+  </si>
+  <si>
+    <t>POSITIONER-1 REVERSE</t>
+  </si>
+  <si>
+    <t>STOPPER-3 CLOSE</t>
+  </si>
+  <si>
+    <t>STOPPER-3 OPEN</t>
+  </si>
+  <si>
+    <t>POSITIONER-3 FORWARD</t>
+  </si>
+  <si>
+    <t>POSITIONER-3 REVERSE</t>
+  </si>
+  <si>
+    <t>GUIDE CYL FWD RH</t>
+  </si>
+  <si>
+    <t>GUIDE CYL RVS RH</t>
+  </si>
+  <si>
+    <t>GUIDE CYL FWD LH</t>
+  </si>
+  <si>
+    <t>GUIDE CYL RVS LH</t>
+  </si>
+  <si>
+    <t>SOL GATE OPEN 1</t>
+  </si>
+  <si>
+    <t>SOL GATE CLOSE 1</t>
+  </si>
+  <si>
+    <t>SOL GATE CLOSE 2</t>
   </si>
 </sst>
 </file>
@@ -2128,8 +2503,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2838,15 +3216,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -2860,10 +3242,16 @@
         <v>30</v>
       </c>
       <c r="E1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F1" t="s">
+        <v>687</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -2876,11 +3264,17 @@
       <c r="D2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E2" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2893,11 +3287,17 @@
       <c r="D3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="G3" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2910,11 +3310,17 @@
       <c r="D4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="G4" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -2927,11 +3333,17 @@
       <c r="D5" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="G5" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2944,11 +3356,17 @@
       <c r="D6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="G6" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -2961,11 +3379,17 @@
       <c r="D7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="G7" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -2978,11 +3402,17 @@
       <c r="D8" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="G8" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -2995,11 +3425,17 @@
       <c r="D9" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="G9" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -3012,11 +3448,17 @@
       <c r="D10" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="G10" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -3029,11 +3471,17 @@
       <c r="D11" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="G11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -3046,11 +3494,17 @@
       <c r="D12" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="G12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -3063,11 +3517,17 @@
       <c r="D13" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="G13" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3080,11 +3540,17 @@
       <c r="D14" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="G14" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3097,11 +3563,17 @@
       <c r="D15" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="G15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -3114,11 +3586,17 @@
       <c r="D16" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="G16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -3131,11 +3609,17 @@
       <c r="D17" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E17" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -3148,11 +3632,17 @@
       <c r="D18" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="G18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -3165,11 +3655,17 @@
       <c r="D19" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E19" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -3182,11 +3678,17 @@
       <c r="D20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="G20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -3199,11 +3701,17 @@
       <c r="D21" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E21" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -3216,11 +3724,17 @@
       <c r="D22" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E22" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -3233,11 +3747,17 @@
       <c r="D23" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -3250,11 +3770,17 @@
       <c r="D24" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E24" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -3267,11 +3793,17 @@
       <c r="D25" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E25" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -3284,11 +3816,17 @@
       <c r="D26" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E26" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -3301,11 +3839,17 @@
       <c r="D27" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="G27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -3318,11 +3862,17 @@
       <c r="D28" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E28" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -3335,11 +3885,17 @@
       <c r="D29" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E29" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -3352,11 +3908,17 @@
       <c r="D30" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="G30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -3369,11 +3931,17 @@
       <c r="D31" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E31" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>293</v>
       </c>
@@ -3386,11 +3954,17 @@
       <c r="D32" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E32" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>296</v>
       </c>
@@ -3403,11 +3977,17 @@
       <c r="D33" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E33" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>299</v>
       </c>
@@ -3420,11 +4000,17 @@
       <c r="D34" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="G34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>302</v>
       </c>
@@ -3437,11 +4023,17 @@
       <c r="D35" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="G35" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>305</v>
       </c>
@@ -3454,11 +4046,17 @@
       <c r="D36" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E36" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>308</v>
       </c>
@@ -3471,11 +4069,17 @@
       <c r="D37" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G37" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>311</v>
       </c>
@@ -3488,11 +4092,17 @@
       <c r="D38" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="G38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>314</v>
       </c>
@@ -3505,11 +4115,17 @@
       <c r="D39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="G39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>317</v>
       </c>
@@ -3522,11 +4138,17 @@
       <c r="D40" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E40" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>320</v>
       </c>
@@ -3539,11 +4161,17 @@
       <c r="D41" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E41" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>323</v>
       </c>
@@ -3556,11 +4184,17 @@
       <c r="D42" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E42" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>326</v>
       </c>
@@ -3573,11 +4207,17 @@
       <c r="D43" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E43" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>329</v>
       </c>
@@ -3590,11 +4230,17 @@
       <c r="D44" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E44" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>332</v>
       </c>
@@ -3607,11 +4253,17 @@
       <c r="D45" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="G45" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>335</v>
       </c>
@@ -3624,11 +4276,17 @@
       <c r="D46" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="G46" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>338</v>
       </c>
@@ -3641,11 +4299,17 @@
       <c r="D47" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E47" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>341</v>
       </c>
@@ -3658,11 +4322,17 @@
       <c r="D48" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="G48" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>344</v>
       </c>
@@ -3675,11 +4345,17 @@
       <c r="D49" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="G49" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>347</v>
       </c>
@@ -3692,11 +4368,17 @@
       <c r="D50" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E50" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>350</v>
       </c>
@@ -3709,11 +4391,17 @@
       <c r="D51" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E51" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>353</v>
       </c>
@@ -3726,11 +4414,17 @@
       <c r="D52" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E52" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>356</v>
       </c>
@@ -3743,11 +4437,17 @@
       <c r="D53" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E53" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>359</v>
       </c>
@@ -3760,11 +4460,17 @@
       <c r="D54" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="G54" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>362</v>
       </c>
@@ -3777,11 +4483,17 @@
       <c r="D55" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E55" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>365</v>
       </c>
@@ -3794,11 +4506,17 @@
       <c r="D56" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E56" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>368</v>
       </c>
@@ -3811,11 +4529,17 @@
       <c r="D57" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="G57" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>371</v>
       </c>
@@ -3828,11 +4552,17 @@
       <c r="D58" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="G58" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>374</v>
       </c>
@@ -3845,11 +4575,17 @@
       <c r="D59" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E59" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>377</v>
       </c>
@@ -3862,11 +4598,17 @@
       <c r="D60" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="G60" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>380</v>
       </c>
@@ -3879,11 +4621,17 @@
       <c r="D61" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E61" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>383</v>
       </c>
@@ -3896,11 +4644,17 @@
       <c r="D62" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="G62" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>386</v>
       </c>
@@ -3913,11 +4667,17 @@
       <c r="D63" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="G63" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>389</v>
       </c>
@@ -3930,11 +4690,17 @@
       <c r="D64" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E64" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>392</v>
       </c>
@@ -3947,11 +4713,17 @@
       <c r="D65" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="G65" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>395</v>
       </c>
@@ -3964,11 +4736,17 @@
       <c r="D66" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E66" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>398</v>
       </c>
@@ -3981,11 +4759,17 @@
       <c r="D67" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E67" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>401</v>
       </c>
@@ -3998,11 +4782,17 @@
       <c r="D68" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="G68" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>404</v>
       </c>
@@ -4015,11 +4805,17 @@
       <c r="D69" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="G69" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>407</v>
       </c>
@@ -4032,11 +4828,17 @@
       <c r="D70" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E70" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>410</v>
       </c>
@@ -4049,11 +4851,17 @@
       <c r="D71" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E71" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>413</v>
       </c>
@@ -4066,11 +4874,17 @@
       <c r="D72" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="G72" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>416</v>
       </c>
@@ -4083,11 +4897,17 @@
       <c r="D73" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E73" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>419</v>
       </c>
@@ -4100,11 +4920,17 @@
       <c r="D74" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="G74" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>422</v>
       </c>
@@ -4117,11 +4943,17 @@
       <c r="D75" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E75" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>425</v>
       </c>
@@ -4134,11 +4966,17 @@
       <c r="D76" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E76" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>428</v>
       </c>
@@ -4151,11 +4989,17 @@
       <c r="D77" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E77" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E77" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>431</v>
       </c>
@@ -4168,11 +5012,17 @@
       <c r="D78" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="G78" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>434</v>
       </c>
@@ -4185,11 +5035,17 @@
       <c r="D79" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E79" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E79" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>437</v>
       </c>
@@ -4202,11 +5058,17 @@
       <c r="D80" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E80" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E80" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>440</v>
       </c>
@@ -4219,11 +5081,17 @@
       <c r="D81" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E81" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E81" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>443</v>
       </c>
@@ -4236,11 +5104,17 @@
       <c r="D82" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="G82" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>446</v>
       </c>
@@ -4253,11 +5127,17 @@
       <c r="D83" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E83" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E83" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>449</v>
       </c>
@@ -4270,11 +5150,17 @@
       <c r="D84" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E84" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E84" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>452</v>
       </c>
@@ -4287,11 +5173,17 @@
       <c r="D85" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E85" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>455</v>
       </c>
@@ -4304,11 +5196,17 @@
       <c r="D86" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="G86" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>458</v>
       </c>
@@ -4321,11 +5219,17 @@
       <c r="D87" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E87" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E87" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>461</v>
       </c>
@@ -4338,11 +5242,17 @@
       <c r="D88" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E88" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E88" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>464</v>
       </c>
@@ -4355,11 +5265,17 @@
       <c r="D89" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E89" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E89" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>467</v>
       </c>
@@ -4372,11 +5288,17 @@
       <c r="D90" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E90" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E90" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>470</v>
       </c>
@@ -4389,11 +5311,17 @@
       <c r="D91" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E91" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E91" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>473</v>
       </c>
@@ -4406,11 +5334,17 @@
       <c r="D92" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E92" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E92" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>476</v>
       </c>
@@ -4423,11 +5357,17 @@
       <c r="D93" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="G93" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>479</v>
       </c>
@@ -4440,11 +5380,17 @@
       <c r="D94" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E94" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E94" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>482</v>
       </c>
@@ -4457,11 +5403,17 @@
       <c r="D95" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E95" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E95" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>485</v>
       </c>
@@ -4474,11 +5426,17 @@
       <c r="D96" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="G96" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>488</v>
       </c>
@@ -4491,11 +5449,17 @@
       <c r="D97" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E97" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E97" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>491</v>
       </c>
@@ -4508,11 +5472,17 @@
       <c r="D98" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E98" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E98" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>494</v>
       </c>
@@ -4525,11 +5495,17 @@
       <c r="D99" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E99" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>497</v>
       </c>
@@ -4542,11 +5518,17 @@
       <c r="D100" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E100" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E100" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>500</v>
       </c>
@@ -4559,11 +5541,17 @@
       <c r="D101" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="G101" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>503</v>
       </c>
@@ -4576,11 +5564,17 @@
       <c r="D102" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G102" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>506</v>
       </c>
@@ -4593,11 +5587,17 @@
       <c r="D103" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="G103" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>509</v>
       </c>
@@ -4610,11 +5610,17 @@
       <c r="D104" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="G104" s="1">
         <v>1.2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>512</v>
       </c>
@@ -4627,11 +5633,17 @@
       <c r="D105" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="G105" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>515</v>
       </c>
@@ -4644,11 +5656,17 @@
       <c r="D106" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="G106" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>518</v>
       </c>
@@ -4661,11 +5679,17 @@
       <c r="D107" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G107" s="1">
         <v>2.46</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>521</v>
       </c>
@@ -4678,11 +5702,17 @@
       <c r="D108" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G108" s="1">
         <v>2.92</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>524</v>
       </c>
@@ -4695,11 +5725,17 @@
       <c r="D109" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="G109" s="1">
         <v>3.38</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>527</v>
       </c>
@@ -4712,11 +5748,17 @@
       <c r="D110" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="G110" s="1">
         <v>3.84</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>530</v>
       </c>
@@ -4729,11 +5771,17 @@
       <c r="D111" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="G111" s="1">
         <v>4.3</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>533</v>
       </c>
@@ -4746,11 +5794,17 @@
       <c r="D112" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="G112" s="1">
         <v>4.76</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>536</v>
       </c>
@@ -4763,11 +5817,17 @@
       <c r="D113" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G113" s="1">
         <v>5.22</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>539</v>
       </c>
@@ -4780,11 +5840,17 @@
       <c r="D114" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G114" s="1">
         <v>5.68</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>542</v>
       </c>
@@ -4797,11 +5863,17 @@
       <c r="D115" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="G115" s="1">
         <v>6.14</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>545</v>
       </c>
@@ -4814,11 +5886,17 @@
       <c r="D116" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="G116" s="1">
         <v>6.6</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>548</v>
       </c>
@@ -4831,11 +5909,17 @@
       <c r="D117" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="G117" s="1">
         <v>7.06</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>551</v>
       </c>
@@ -4848,11 +5932,17 @@
       <c r="D118" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="G118" s="1">
         <v>7.52</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>554</v>
       </c>
@@ -4865,11 +5955,17 @@
       <c r="D119" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G119" s="1">
         <v>7.98</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>557</v>
       </c>
@@ -4882,11 +5978,17 @@
       <c r="D120" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E120" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G120" s="1">
         <v>8.44</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>560</v>
       </c>
@@ -4899,11 +6001,17 @@
       <c r="D121" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E121" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="G121" s="1">
         <v>8.9</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>563</v>
       </c>
@@ -4916,11 +6024,17 @@
       <c r="D122" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="G122" s="1">
         <v>9.36</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>566</v>
       </c>
@@ -4933,11 +6047,17 @@
       <c r="D123" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="G123" s="1">
         <v>9.82</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>569</v>
       </c>
@@ -4950,11 +6070,17 @@
       <c r="D124" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="G124" s="1">
         <v>2.46</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>572</v>
       </c>
@@ -4967,11 +6093,17 @@
       <c r="D125" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G125" s="1">
         <v>2.92</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>575</v>
       </c>
@@ -4984,11 +6116,17 @@
       <c r="D126" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G126" s="1">
         <v>3.38</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>578</v>
       </c>
@@ -5001,11 +6139,17 @@
       <c r="D127" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="G127" s="1">
         <v>3.84</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>581</v>
       </c>
@@ -5018,11 +6162,17 @@
       <c r="D128" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="G128" s="1">
         <v>4.3</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>584</v>
       </c>
@@ -5035,11 +6185,17 @@
       <c r="D129" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="G129" s="1">
         <v>4.76</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>587</v>
       </c>
@@ -5052,11 +6208,17 @@
       <c r="D130" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="G130" s="1">
         <v>5.22</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>590</v>
       </c>
@@ -5069,11 +6231,17 @@
       <c r="D131" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G131" s="1">
         <v>5.68</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>593</v>
       </c>
@@ -5086,11 +6254,17 @@
       <c r="D132" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G132" s="1">
         <v>6.14</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>596</v>
       </c>
@@ -5103,11 +6277,17 @@
       <c r="D133" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="G133" s="1">
         <v>6.6</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>599</v>
       </c>
@@ -5120,11 +6300,17 @@
       <c r="D134" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="G134" s="1">
         <v>7.06</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>602</v>
       </c>
@@ -5137,11 +6323,17 @@
       <c r="D135" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="G135" s="1">
         <v>7.52</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>605</v>
       </c>
@@ -5154,11 +6346,17 @@
       <c r="D136" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="G136" s="1">
         <v>7.98</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>608</v>
       </c>
@@ -5171,11 +6369,17 @@
       <c r="D137" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G137" s="1">
         <v>8.44</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>611</v>
       </c>
@@ -5188,11 +6392,17 @@
       <c r="D138" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E138" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E138" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>614</v>
       </c>
@@ -5205,11 +6415,17 @@
       <c r="D139" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="G139" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>617</v>
       </c>
@@ -5222,11 +6438,17 @@
       <c r="D140" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E140" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E140" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>620</v>
       </c>
@@ -5239,11 +6461,17 @@
       <c r="D141" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E141" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E141" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>623</v>
       </c>
@@ -5256,11 +6484,17 @@
       <c r="D142" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E142" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E142" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>626</v>
       </c>
@@ -5273,11 +6507,17 @@
       <c r="D143" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="G143" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>629</v>
       </c>
@@ -5290,11 +6530,17 @@
       <c r="D144" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E144" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E144" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>632</v>
       </c>
@@ -5307,11 +6553,17 @@
       <c r="D145" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="G145" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>635</v>
       </c>
@@ -5324,11 +6576,17 @@
       <c r="D146" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E146" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E146" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>638</v>
       </c>
@@ -5341,11 +6599,17 @@
       <c r="D147" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E147" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="G147" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>641</v>
       </c>
@@ -5358,11 +6622,17 @@
       <c r="D148" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E148" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="G148" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>644</v>
       </c>
@@ -5375,11 +6645,17 @@
       <c r="D149" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E149" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E149" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="G149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>647</v>
       </c>
@@ -5392,11 +6668,17 @@
       <c r="D150" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="G150" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>650</v>
       </c>
@@ -5409,11 +6691,17 @@
       <c r="D151" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="G151" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>653</v>
       </c>
@@ -5426,11 +6714,17 @@
       <c r="D152" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="G152" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>656</v>
       </c>
@@ -5443,11 +6737,17 @@
       <c r="D153" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E153" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E153" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="G153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>659</v>
       </c>
@@ -5460,11 +6760,17 @@
       <c r="D154" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E154" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E154" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="G154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>662</v>
       </c>
@@ -5477,11 +6783,17 @@
       <c r="D155" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E155" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E155" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="G155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>665</v>
       </c>
@@ -5494,11 +6806,17 @@
       <c r="D156" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="G156" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>668</v>
       </c>
@@ -5511,11 +6829,17 @@
       <c r="D157" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E157" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E157" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="G157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>671</v>
       </c>
@@ -5528,11 +6852,17 @@
       <c r="D158" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E158" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E158" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="G158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>674</v>
       </c>
@@ -5545,11 +6875,17 @@
       <c r="D159" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E159" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E159" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="G159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>677</v>
       </c>
@@ -5562,11 +6898,17 @@
       <c r="D160" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E160" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="G160" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>680</v>
       </c>
@@ -5579,11 +6921,17 @@
       <c r="D161" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E161" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E161" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="G161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>683</v>
       </c>
@@ -5596,7 +6944,13 @@
       <c r="D162" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="G162" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5604,7 +6958,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1 A2:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="G1 A2:C2 A1:D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/prisma/seed/seed_data.xlsx
+++ b/prisma/seed/seed_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafly/Data/Dev/Project/monitoring-welding-body/prisma/seed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\pr\monitoring-welding-body\prisma\seed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B4F59B-7845-CE42-94DF-81ABF8F3A03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E183BE2B-3D18-483F-A9A2-A3D84482BC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Permissions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Users" sheetId="4" r:id="rId4"/>
     <sheet name="Assets" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1036,7 +1037,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0000"/>
+    <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1096,7 +1097,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1438,19 +1439,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.35546875" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1458,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1466,7 +1468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1474,7 +1476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1482,7 +1484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1490,7 +1492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1498,7 +1500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1506,7 +1508,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1514,7 +1516,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1522,7 +1524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1530,7 +1532,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1548,19 +1550,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.640625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1568,7 +1571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1576,7 +1579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1584,7 +1587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1608,7 +1611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1624,7 +1627,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1632,7 +1635,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1640,7 +1643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1664,7 +1667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1690,13 +1693,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1704,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1712,7 +1716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1730,20 +1734,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.35546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +1765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1777,7 +1782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1804,21 +1809,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="41.83203125" customWidth="1"/>
+    <col min="1" max="1" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" style="1"/>
+    <col min="5" max="5" width="17.35546875" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -1841,7 +1847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>328</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>328</v>
       </c>
@@ -1887,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>328</v>
       </c>
@@ -1910,7 +1916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>328</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>328</v>
       </c>
@@ -1956,7 +1962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>328</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>328</v>
       </c>
@@ -2002,7 +2008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>328</v>
       </c>
@@ -2025,7 +2031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>328</v>
       </c>
@@ -2048,7 +2054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>328</v>
       </c>
@@ -2071,7 +2077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>328</v>
       </c>
@@ -2094,7 +2100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>328</v>
       </c>
@@ -2117,7 +2123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>328</v>
       </c>
@@ -2140,7 +2146,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>328</v>
       </c>
@@ -2163,7 +2169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>328</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>328</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>328</v>
       </c>
@@ -2232,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>328</v>
       </c>
@@ -2255,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>328</v>
       </c>
@@ -2278,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>328</v>
       </c>
@@ -2301,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>328</v>
       </c>
@@ -2324,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>328</v>
       </c>
@@ -2347,7 +2353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>328</v>
       </c>
@@ -2370,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>328</v>
       </c>
@@ -2393,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>328</v>
       </c>
@@ -2416,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>328</v>
       </c>
@@ -2439,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>328</v>
       </c>
@@ -2462,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>328</v>
       </c>
@@ -2485,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>328</v>
       </c>
@@ -2508,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>328</v>
       </c>
@@ -2531,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>328</v>
       </c>
@@ -2554,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>328</v>
       </c>
@@ -2577,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>328</v>
       </c>
@@ -2600,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>328</v>
       </c>
@@ -2623,7 +2629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>328</v>
       </c>
@@ -2646,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>328</v>
       </c>
@@ -2669,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>328</v>
       </c>
@@ -2692,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>328</v>
       </c>
@@ -2715,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>328</v>
       </c>
@@ -2738,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>328</v>
       </c>
@@ -2761,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>328</v>
       </c>
@@ -2784,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>328</v>
       </c>
@@ -2807,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>328</v>
       </c>
@@ -2830,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>328</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>328</v>
       </c>
@@ -2876,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>328</v>
       </c>
@@ -2899,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>328</v>
       </c>
@@ -2922,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>328</v>
       </c>
@@ -2945,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>328</v>
       </c>
@@ -2968,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>328</v>
       </c>
@@ -2991,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>328</v>
       </c>
@@ -3014,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>328</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>328</v>
       </c>
@@ -3060,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>328</v>
       </c>
@@ -3083,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>328</v>
       </c>
@@ -3106,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>328</v>
       </c>
@@ -3129,7 +3135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>328</v>
       </c>
@@ -3152,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>328</v>
       </c>
@@ -3175,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>328</v>
       </c>
@@ -3198,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>328</v>
       </c>
@@ -3221,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>328</v>
       </c>
@@ -3244,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>328</v>
       </c>
@@ -3267,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>328</v>
       </c>
@@ -3290,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>328</v>
       </c>
@@ -3313,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>328</v>
       </c>
@@ -3336,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>328</v>
       </c>
@@ -3359,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>328</v>
       </c>
@@ -3382,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>328</v>
       </c>
@@ -3405,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>328</v>
       </c>
@@ -3428,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>328</v>
       </c>
@@ -3451,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>328</v>
       </c>
@@ -3474,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>328</v>
       </c>
@@ -3497,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>328</v>
       </c>
@@ -3520,7 +3526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>328</v>
       </c>
@@ -3543,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>328</v>
       </c>
@@ -3566,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>328</v>
       </c>
@@ -3589,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>328</v>
       </c>
@@ -3612,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>328</v>
       </c>
@@ -3635,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>328</v>
       </c>
@@ -3658,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>328</v>
       </c>
@@ -3681,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>328</v>
       </c>
@@ -3704,7 +3710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>328</v>
       </c>
@@ -3727,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>328</v>
       </c>
@@ -3750,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>328</v>
       </c>
@@ -3773,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>328</v>
       </c>
@@ -3796,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>328</v>
       </c>
@@ -3819,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>328</v>
       </c>
@@ -3842,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>328</v>
       </c>
@@ -3865,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>328</v>
       </c>
@@ -3888,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>328</v>
       </c>
@@ -3911,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>328</v>
       </c>
@@ -3934,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>328</v>
       </c>
@@ -3957,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>328</v>
       </c>
@@ -3980,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>328</v>
       </c>
@@ -4003,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>328</v>
       </c>
@@ -4026,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>328</v>
       </c>
@@ -4049,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>328</v>
       </c>
@@ -4072,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>328</v>
       </c>
@@ -4095,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>328</v>
       </c>
@@ -4118,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>328</v>
       </c>
@@ -4141,7 +4147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>328</v>
       </c>
@@ -4164,7 +4170,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>328</v>
       </c>
@@ -4187,7 +4193,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>328</v>
       </c>
@@ -4210,7 +4216,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>328</v>
       </c>
@@ -4233,7 +4239,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>328</v>
       </c>
@@ -4256,7 +4262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>328</v>
       </c>
@@ -4279,7 +4285,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>328</v>
       </c>
@@ -4302,7 +4308,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>328</v>
       </c>
@@ -4325,7 +4331,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>328</v>
       </c>
@@ -4348,7 +4354,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>328</v>
       </c>
@@ -4371,7 +4377,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>328</v>
       </c>
@@ -4394,7 +4400,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>328</v>
       </c>
@@ -4417,7 +4423,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>328</v>
       </c>
@@ -4440,7 +4446,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>328</v>
       </c>
@@ -4463,7 +4469,7 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>328</v>
       </c>
@@ -4486,7 +4492,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>328</v>
       </c>
@@ -4509,7 +4515,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>328</v>
       </c>
@@ -4532,7 +4538,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>328</v>
       </c>
@@ -4555,7 +4561,7 @@
         <v>7.98</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>328</v>
       </c>
@@ -4578,7 +4584,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>328</v>
       </c>
@@ -4601,7 +4607,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>328</v>
       </c>
@@ -4624,7 +4630,7 @@
         <v>9.36</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>328</v>
       </c>
@@ -4647,7 +4653,7 @@
         <v>9.82</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>328</v>
       </c>
@@ -4670,7 +4676,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>328</v>
       </c>
@@ -4693,7 +4699,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>328</v>
       </c>
@@ -4716,7 +4722,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>328</v>
       </c>
@@ -4739,7 +4745,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>328</v>
       </c>
@@ -4762,7 +4768,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>328</v>
       </c>
@@ -4785,7 +4791,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>328</v>
       </c>
@@ -4808,7 +4814,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>328</v>
       </c>
@@ -4831,7 +4837,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>328</v>
       </c>
@@ -4854,7 +4860,7 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>328</v>
       </c>
@@ -4877,7 +4883,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>328</v>
       </c>
@@ -4900,7 +4906,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>328</v>
       </c>
@@ -4923,7 +4929,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>328</v>
       </c>
@@ -4946,7 +4952,7 @@
         <v>7.98</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>328</v>
       </c>
@@ -4969,7 +4975,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>328</v>
       </c>
@@ -4992,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
         <v>328</v>
       </c>
@@ -5015,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>328</v>
       </c>
@@ -5038,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>328</v>
       </c>
@@ -5061,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>328</v>
       </c>
@@ -5084,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>328</v>
       </c>
@@ -5107,7 +5113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>328</v>
       </c>
@@ -5130,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>328</v>
       </c>
@@ -5153,7 +5159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>328</v>
       </c>
@@ -5176,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>328</v>
       </c>
@@ -5199,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>328</v>
       </c>
@@ -5222,7 +5228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
         <v>328</v>
       </c>
@@ -5245,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>328</v>
       </c>
@@ -5268,7 +5274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>328</v>
       </c>
@@ -5291,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>328</v>
       </c>
@@ -5314,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>328</v>
       </c>
@@ -5337,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>328</v>
       </c>
@@ -5360,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>328</v>
       </c>
@@ -5383,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>328</v>
       </c>
@@ -5406,7 +5412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>328</v>
       </c>
@@ -5429,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>328</v>
       </c>
@@ -5452,7 +5458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
         <v>328</v>
       </c>
@@ -5475,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
         <v>328</v>
       </c>
@@ -5498,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" s="3" t="s">
         <v>328</v>
       </c>
@@ -5521,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
         <v>328</v>
       </c>
@@ -5547,6 +5553,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="G1 A1:D1" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/prisma/seed/seed_data.xlsx
+++ b/prisma/seed/seed_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\pr\monitoring-welding-body\prisma\seed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafly/Data/Dev/Project/monitoring-welding-body/prisma/seed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E183BE2B-3D18-483F-A9A2-A3D84482BC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD03C06-365E-D447-B4F5-9546022786E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="33600" windowHeight="19100" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Permissions" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,19 @@
     <sheet name="Roles" sheetId="3" r:id="rId3"/>
     <sheet name="Users" sheetId="4" r:id="rId4"/>
     <sheet name="Assets" sheetId="5" r:id="rId5"/>
+    <sheet name="Sp" sheetId="10" r:id="rId6"/>
+    <sheet name="SpDescriptions" sheetId="9" r:id="rId7"/>
+    <sheet name="Ohc" sheetId="8" r:id="rId8"/>
+    <sheet name="OhcDescriptions" sheetId="7" r:id="rId9"/>
+    <sheet name="Cycles" sheetId="6" r:id="rId10"/>
+    <sheet name="CycleDescriptions" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="468">
   <si>
     <t>name</t>
   </si>
@@ -63,6 +68,36 @@
     <t>user.delete</t>
   </si>
   <si>
+    <t>Create Asset</t>
+  </si>
+  <si>
+    <t>asset.create</t>
+  </si>
+  <si>
+    <t>Read Assets</t>
+  </si>
+  <si>
+    <t>asset.read</t>
+  </si>
+  <si>
+    <t>Show Asset</t>
+  </si>
+  <si>
+    <t>asset.show</t>
+  </si>
+  <si>
+    <t>Update Asset</t>
+  </si>
+  <si>
+    <t>asset.update</t>
+  </si>
+  <si>
+    <t>Delete Asset</t>
+  </si>
+  <si>
+    <t>asset.delete</t>
+  </si>
+  <si>
     <t>roleCode</t>
   </si>
   <si>
@@ -120,150 +155,264 @@
     <t>tagCd</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
-    <t>Create Asset</t>
-  </si>
-  <si>
-    <t>Read Assets</t>
-  </si>
-  <si>
-    <t>Show Asset</t>
-  </si>
-  <si>
-    <t>Update Asset</t>
-  </si>
-  <si>
-    <t>Delete Asset</t>
-  </si>
-  <si>
-    <t>asset.create</t>
-  </si>
-  <si>
-    <t>asset.read</t>
-  </si>
-  <si>
-    <t>asset.show</t>
-  </si>
-  <si>
-    <t>asset.update</t>
-  </si>
-  <si>
-    <t>asset.delete</t>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1001</t>
+  </si>
+  <si>
+    <t>001</t>
   </si>
   <si>
     <t>EM082</t>
   </si>
   <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>E-CAT COMM. NORMAL</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
     <t>EM1001</t>
   </si>
   <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>DATA PL ID SP1_STOP</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
     <t>EM1004</t>
   </si>
   <si>
+    <t>DATA PL ID SP2 STOP</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
     <t>EM1007</t>
   </si>
   <si>
+    <t>DATA PL ID SP3 STOP</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
     <t>EM100B</t>
   </si>
   <si>
+    <t>DATA PL ID SP4 STOP</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
     <t>EM100F</t>
   </si>
   <si>
+    <t>DATA PL ID SP6 STOP</t>
+  </si>
+  <si>
     <t>EM1011</t>
   </si>
   <si>
+    <t>DATA PL ID SP7 STOP</t>
+  </si>
+  <si>
     <t>EM1015</t>
   </si>
   <si>
+    <t>DATA PL ID SP8 STOP</t>
+  </si>
+  <si>
     <t>EM101C</t>
   </si>
   <si>
+    <t>DATA PL ID SP10 STOP</t>
+  </si>
+  <si>
     <t>EM1021</t>
   </si>
   <si>
+    <t>DATA PL ID SP0 STOP</t>
+  </si>
+  <si>
     <t>EM1031</t>
   </si>
   <si>
+    <t>EIP OHC 1 FAULT</t>
+  </si>
+  <si>
     <t>EM110</t>
   </si>
   <si>
+    <t>SET INPUT HMI_HIGH SPEED LIFTER</t>
+  </si>
+  <si>
     <t>EM111</t>
   </si>
   <si>
+    <t>SET INPUT HMI_MEDIUM SPEED LIFTER</t>
+  </si>
+  <si>
     <t>EM112</t>
   </si>
   <si>
+    <t>SET INPUT HMI_LOW SPEED LIFTER</t>
+  </si>
+  <si>
     <t>EM125</t>
   </si>
   <si>
+    <t>EIP COMMUNCIATION FAULT_FLG HMI</t>
+  </si>
+  <si>
     <t>EM3100</t>
   </si>
   <si>
+    <t>PB DOLLY SET COMPLETE</t>
+  </si>
+  <si>
     <t>EM3101</t>
   </si>
   <si>
+    <t>SS4 (MOTRAIN DOWN)</t>
+  </si>
+  <si>
     <t>EM3102</t>
   </si>
   <si>
+    <t>SS4 (MOTRAIN UP)</t>
+  </si>
+  <si>
     <t>EM3103</t>
   </si>
   <si>
+    <t>SS5 (HANGER ARM OPEN)</t>
+  </si>
+  <si>
     <t>EM3104</t>
   </si>
   <si>
+    <t>SS5 (HANGER ARM CLOSE)</t>
+  </si>
+  <si>
     <t>EM3105</t>
   </si>
   <si>
+    <t>PB WORK FINISH</t>
+  </si>
+  <si>
     <t>EM3106</t>
   </si>
   <si>
+    <t>UNLOADING DOLLY LOCK OK</t>
+  </si>
+  <si>
     <t>EM3107</t>
   </si>
   <si>
+    <t>UNLOADING DOLLY OUT COMPLETE</t>
+  </si>
+  <si>
     <t>EM4180</t>
   </si>
   <si>
+    <t>ST1 OPEN END</t>
+  </si>
+  <si>
     <t>EM4181</t>
   </si>
   <si>
+    <t>ST1 CLOSE END</t>
+  </si>
+  <si>
     <t>EM4182</t>
   </si>
   <si>
+    <t>PS1 FOR END</t>
+  </si>
+  <si>
     <t>EM4183</t>
   </si>
   <si>
+    <t>PS1 REV END</t>
+  </si>
+  <si>
     <t>EM4184</t>
   </si>
   <si>
+    <t>MOTRAIN PRESENT</t>
+  </si>
+  <si>
     <t>EM4185</t>
   </si>
   <si>
+    <t>MOTRAIN CLEAR 1</t>
+  </si>
+  <si>
     <t>EM4186</t>
   </si>
   <si>
+    <t>MOTRAIN CLEAR 2</t>
+  </si>
+  <si>
     <t>EM4187</t>
   </si>
   <si>
+    <t>LOAD DWN END 1</t>
+  </si>
+  <si>
     <t>EM4188</t>
   </si>
   <si>
+    <t>LOAD DWN END 2</t>
+  </si>
+  <si>
     <t>EM4189</t>
   </si>
   <si>
+    <t>LOAD BODY DETECT</t>
+  </si>
+  <si>
     <t>EM418B</t>
   </si>
   <si>
+    <t>ST2 OPEN END</t>
+  </si>
+  <si>
     <t>EM418C</t>
   </si>
   <si>
+    <t>ST2 CLOSE END</t>
+  </si>
+  <si>
     <t>EM418D</t>
   </si>
   <si>
+    <t>PS2 FOR END</t>
+  </si>
+  <si>
     <t>EM418E</t>
   </si>
   <si>
+    <t>PS2 REV END</t>
+  </si>
+  <si>
     <t>EM418F</t>
   </si>
   <si>
@@ -276,6 +425,9 @@
     <t>EM4202</t>
   </si>
   <si>
+    <t>UNLOAD BODY DETECT</t>
+  </si>
+  <si>
     <t>EM4203</t>
   </si>
   <si>
@@ -285,192 +437,384 @@
     <t>EM4205</t>
   </si>
   <si>
+    <t>UNLOAD FL BODY DETECT 1</t>
+  </si>
+  <si>
     <t>EM4206</t>
   </si>
   <si>
+    <t>UNLOAD FL BODY DETECT 2</t>
+  </si>
+  <si>
     <t>EM4209</t>
   </si>
   <si>
+    <t>SW1-MAIN</t>
+  </si>
+  <si>
     <t>EM420A</t>
   </si>
   <si>
+    <t>SW1-REPAIR</t>
+  </si>
+  <si>
     <t>EM420B</t>
   </si>
   <si>
+    <t>SP5 DECEL</t>
+  </si>
+  <si>
     <t>EM4229</t>
   </si>
   <si>
+    <t>BODY DOLLY IN</t>
+  </si>
+  <si>
     <t>EM422A</t>
   </si>
   <si>
+    <t>BODY NG OUT</t>
+  </si>
+  <si>
     <t>EM422B</t>
   </si>
   <si>
+    <t>SKID READY</t>
+  </si>
+  <si>
     <t>EM422C</t>
   </si>
   <si>
+    <t>SKID OUT</t>
+  </si>
+  <si>
     <t>EM422D</t>
   </si>
   <si>
+    <t>BODY READY</t>
+  </si>
+  <si>
     <t>EM422E</t>
   </si>
   <si>
+    <t>UNLOADING ALARM 1</t>
+  </si>
+  <si>
     <t>EM4242</t>
   </si>
   <si>
+    <t>STOPPER-3 OPEN END</t>
+  </si>
+  <si>
     <t>EM4243</t>
   </si>
   <si>
+    <t>STOPPER-3 CLOSE END</t>
+  </si>
+  <si>
     <t>EM4244</t>
   </si>
   <si>
+    <t>POSITIONER-3 FORWARD END</t>
+  </si>
+  <si>
     <t>EM4245</t>
   </si>
   <si>
+    <t>POSITIONER-3 REVERSE END</t>
+  </si>
+  <si>
     <t>EM4246</t>
   </si>
   <si>
+    <t>MOTRAIN PRESENT ST6 (SP8 RFID)</t>
+  </si>
+  <si>
     <t>EM4247</t>
   </si>
   <si>
+    <t>MOTRAIN CLEAR 1 ST6 (SP8 RFID)</t>
+  </si>
+  <si>
     <t>EM4248</t>
   </si>
   <si>
+    <t>MOTRAIN CLEAR 2 ST6 (SP8 RFID)</t>
+  </si>
+  <si>
     <t>EM4249</t>
   </si>
   <si>
+    <t>UNLOADING DOWN END 1</t>
+  </si>
+  <si>
     <t>EM424A</t>
   </si>
   <si>
+    <t>UNLOADING DOWN END 2</t>
+  </si>
+  <si>
     <t>EM424B</t>
   </si>
   <si>
+    <t>BODY DETECT AT SP8</t>
+  </si>
+  <si>
     <t>EM424C</t>
   </si>
   <si>
+    <t>LS TIMING KANBAN DETECT AT LOADING</t>
+  </si>
+  <si>
     <t>EM424D</t>
   </si>
   <si>
+    <t>KANBAN DETECT AT LOADING POS</t>
+  </si>
+  <si>
     <t>EM424E</t>
   </si>
   <si>
+    <t>LOA LIG ON STABIL</t>
+  </si>
+  <si>
     <t>EM424F</t>
   </si>
   <si>
+    <t>UNLOADING DATA NORMAL SIGN</t>
+  </si>
+  <si>
     <t>EM4284</t>
   </si>
   <si>
+    <t>CB-C6 POS ST8 OPEN PL</t>
+  </si>
+  <si>
     <t>EM4285</t>
   </si>
   <si>
+    <t>CB-C6 POS ST8 CLOSE PL</t>
+  </si>
+  <si>
     <t>EM4286</t>
   </si>
   <si>
+    <t>CB-C6 POS ST8 FWD PL</t>
+  </si>
+  <si>
     <t>EM4287</t>
   </si>
   <si>
+    <t>CB-C6 POS ST8 RVS PL</t>
+  </si>
+  <si>
     <t>EM4601</t>
   </si>
   <si>
+    <t>6_SP1 STOP_1401</t>
+  </si>
+  <si>
     <t>EM4604</t>
   </si>
   <si>
+    <t>6_SP2 STOP_1402</t>
+  </si>
+  <si>
     <t>EM4607</t>
   </si>
   <si>
+    <t>6_SP3 STOP_1403</t>
+  </si>
+  <si>
     <t>EM460B</t>
   </si>
   <si>
+    <t>6_SP4 STOP_1404</t>
+  </si>
+  <si>
     <t>EM460D</t>
   </si>
   <si>
+    <t>6_SP5 STOP_1405</t>
+  </si>
+  <si>
     <t>EM460F</t>
   </si>
   <si>
+    <t>6_SP6 STOP_1406</t>
+  </si>
+  <si>
     <t>EM4611</t>
   </si>
   <si>
+    <t>6_SP7 STOP_1407</t>
+  </si>
+  <si>
     <t>EM4615</t>
   </si>
   <si>
+    <t>6_SP8 STOP_1408</t>
+  </si>
+  <si>
     <t>EM461A</t>
   </si>
   <si>
+    <t>6_SP9 STOP_ 1409</t>
+  </si>
+  <si>
     <t>EM461C</t>
   </si>
   <si>
+    <t>6_SP10 STOP_1410</t>
+  </si>
+  <si>
     <t>EM461E</t>
   </si>
   <si>
+    <t>6_SP11 STOP_1411</t>
+  </si>
+  <si>
     <t>EM4621</t>
   </si>
   <si>
+    <t>6_SP0 STOP_1420</t>
+  </si>
+  <si>
     <t>M0A1</t>
   </si>
   <si>
+    <t>EIP COMM FAULT</t>
+  </si>
+  <si>
     <t>M0A2</t>
   </si>
   <si>
+    <t>E-CAT COMM FAULT</t>
+  </si>
+  <si>
     <t>M0B0</t>
   </si>
   <si>
+    <t>EMG STOP NORMAL CPC</t>
+  </si>
+  <si>
     <t>M0B2</t>
   </si>
   <si>
+    <t>EMG STOP NORMAL MAIN PANEL CPC NORMAL</t>
+  </si>
+  <si>
     <t>M4101</t>
   </si>
   <si>
+    <t>1_SP1 STOP_1401</t>
+  </si>
+  <si>
     <t>M4104</t>
   </si>
   <si>
+    <t>1_SP2 STOP_1402</t>
+  </si>
+  <si>
     <t>M4107</t>
   </si>
   <si>
+    <t>1_SP3 STOP_1403</t>
+  </si>
+  <si>
     <t>M410B</t>
   </si>
   <si>
+    <t>1_SP4 STOP_1404</t>
+  </si>
+  <si>
     <t>M410D</t>
   </si>
   <si>
+    <t>1_SP5 STOP_1405</t>
+  </si>
+  <si>
     <t>M410F</t>
   </si>
   <si>
+    <t>1_SP6 STOP_1405</t>
+  </si>
+  <si>
     <t>M4111</t>
   </si>
   <si>
+    <t>1_SP7 STOP_1407</t>
+  </si>
+  <si>
     <t>M4115</t>
   </si>
   <si>
+    <t>1_SP8 STOP_1408</t>
+  </si>
+  <si>
     <t>M411A</t>
   </si>
   <si>
+    <t>1_SP9 STOP_ 1409</t>
+  </si>
+  <si>
     <t>M411C</t>
   </si>
   <si>
+    <t>1_SP10 STOP_1410</t>
+  </si>
+  <si>
     <t>M411E</t>
   </si>
   <si>
+    <t>1_SP11 STOP_1411</t>
+  </si>
+  <si>
     <t>M4121</t>
   </si>
   <si>
+    <t>1_SP0 STOP_1420</t>
+  </si>
+  <si>
     <t>M7B11</t>
   </si>
   <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>PV FREQ MOTOR TRAVEL</t>
+  </si>
+  <si>
     <t>M7B12</t>
   </si>
   <si>
+    <t>PV CURRENT MOTOR TRAVEL</t>
+  </si>
+  <si>
     <t>M7B13</t>
   </si>
   <si>
+    <t>PV FREQ MOTOR LIFTER</t>
+  </si>
+  <si>
     <t>M7B14</t>
   </si>
   <si>
+    <t>PV CURRENT MOTOR LIFTER</t>
+  </si>
+  <si>
     <t>M7B15</t>
   </si>
   <si>
+    <t>PV TEMP MOTOR TRAVEL</t>
+  </si>
+  <si>
     <t>M7B16</t>
   </si>
   <si>
+    <t>PV TEMP MOTOR LIFTER</t>
+  </si>
+  <si>
     <t>M7B21</t>
   </si>
   <si>
@@ -564,15 +908,27 @@
     <t>X700</t>
   </si>
   <si>
+    <t>STOPPER-1 OPEN END</t>
+  </si>
+  <si>
     <t>X701</t>
   </si>
   <si>
+    <t>STOPPER-1 CLOSE END</t>
+  </si>
+  <si>
     <t>X740</t>
   </si>
   <si>
+    <t>STOPPER-2 OPEN END</t>
+  </si>
+  <si>
     <t>X741</t>
   </si>
   <si>
+    <t>STOPPER-2 CLOSE END</t>
+  </si>
+  <si>
     <t>X7A8</t>
   </si>
   <si>
@@ -582,27 +938,51 @@
     <t>Y720</t>
   </si>
   <si>
+    <t>STOPPER-1 CLOSE</t>
+  </si>
+  <si>
     <t>Y721</t>
   </si>
   <si>
+    <t>STOPPER-1 OPEN</t>
+  </si>
+  <si>
     <t>Y722</t>
   </si>
   <si>
+    <t>POSITIONER-1 FORWARD</t>
+  </si>
+  <si>
     <t>Y723</t>
   </si>
   <si>
+    <t>POSITIONER-1 REVERSE</t>
+  </si>
+  <si>
     <t>Y724</t>
   </si>
   <si>
+    <t>STOPPER-3 CLOSE</t>
+  </si>
+  <si>
     <t>Y725</t>
   </si>
   <si>
+    <t>STOPPER-3 OPEN</t>
+  </si>
+  <si>
     <t>Y726</t>
   </si>
   <si>
+    <t>POSITIONER-3 FORWARD</t>
+  </si>
+  <si>
     <t>Y727</t>
   </si>
   <si>
+    <t>POSITIONER-3 REVERSE</t>
+  </si>
+  <si>
     <t>Y7E0</t>
   </si>
   <si>
@@ -618,418 +998,442 @@
     <t>Y7E4</t>
   </si>
   <si>
+    <t>GUIDE CYL FWD RH</t>
+  </si>
+  <si>
     <t>Y7E5</t>
   </si>
   <si>
+    <t>GUIDE CYL RVS RH</t>
+  </si>
+  <si>
     <t>Y7E6</t>
   </si>
   <si>
+    <t>GUIDE CYL FWD LH</t>
+  </si>
+  <si>
     <t>Y7E7</t>
   </si>
   <si>
+    <t>GUIDE CYL RVS LH</t>
+  </si>
+  <si>
     <t>Y7E8</t>
   </si>
   <si>
+    <t>SOL GATE OPEN 1</t>
+  </si>
+  <si>
     <t>Y7E9</t>
   </si>
   <si>
+    <t>SOL GATE CLOSE 1</t>
+  </si>
+  <si>
     <t>Y7EB</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>E-CAT COMM. NORMAL</t>
-  </si>
-  <si>
-    <t>DATA PL ID SP1_STOP</t>
-  </si>
-  <si>
-    <t>DATA PL ID SP2 STOP</t>
-  </si>
-  <si>
-    <t>DATA PL ID SP3 STOP</t>
-  </si>
-  <si>
-    <t>DATA PL ID SP4 STOP</t>
-  </si>
-  <si>
-    <t>DATA PL ID SP6 STOP</t>
-  </si>
-  <si>
-    <t>DATA PL ID SP7 STOP</t>
-  </si>
-  <si>
-    <t>DATA PL ID SP8 STOP</t>
-  </si>
-  <si>
-    <t>DATA PL ID SP10 STOP</t>
-  </si>
-  <si>
-    <t>DATA PL ID SP0 STOP</t>
-  </si>
-  <si>
-    <t>EIP OHC 1 FAULT</t>
-  </si>
-  <si>
-    <t>SET INPUT HMI_HIGH SPEED LIFTER</t>
-  </si>
-  <si>
-    <t>SET INPUT HMI_MEDIUM SPEED LIFTER</t>
-  </si>
-  <si>
-    <t>SET INPUT HMI_LOW SPEED LIFTER</t>
-  </si>
-  <si>
-    <t>EIP COMMUNCIATION FAULT_FLG HMI</t>
-  </si>
-  <si>
-    <t>PB DOLLY SET COMPLETE</t>
-  </si>
-  <si>
-    <t>SS4 (MOTRAIN DOWN)</t>
-  </si>
-  <si>
-    <t>SS4 (MOTRAIN UP)</t>
-  </si>
-  <si>
-    <t>SS5 (HANGER ARM OPEN)</t>
-  </si>
-  <si>
-    <t>SS5 (HANGER ARM CLOSE)</t>
-  </si>
-  <si>
-    <t>PB WORK FINISH</t>
-  </si>
-  <si>
-    <t>UNLOADING DOLLY LOCK OK</t>
-  </si>
-  <si>
-    <t>UNLOADING DOLLY OUT COMPLETE</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>REAL</t>
-  </si>
-  <si>
-    <t>ST1 OPEN END</t>
-  </si>
-  <si>
-    <t>ST1 CLOSE END</t>
-  </si>
-  <si>
-    <t>PS1 FOR END</t>
-  </si>
-  <si>
-    <t>PS1 REV END</t>
-  </si>
-  <si>
-    <t>MOTRAIN PRESENT</t>
-  </si>
-  <si>
-    <t>MOTRAIN CLEAR 1</t>
-  </si>
-  <si>
-    <t>MOTRAIN CLEAR 2</t>
-  </si>
-  <si>
-    <t>LOAD DWN END 1</t>
-  </si>
-  <si>
-    <t>LOAD DWN END 2</t>
-  </si>
-  <si>
-    <t>LOAD BODY DETECT</t>
-  </si>
-  <si>
-    <t>ST2 OPEN END</t>
-  </si>
-  <si>
-    <t>ST2 CLOSE END</t>
-  </si>
-  <si>
-    <t>PS2 FOR END</t>
-  </si>
-  <si>
-    <t>PS2 REV END</t>
-  </si>
-  <si>
-    <t>UNLOAD BODY DETECT</t>
-  </si>
-  <si>
-    <t>UNLOAD FL BODY DETECT 1</t>
-  </si>
-  <si>
-    <t>UNLOAD FL BODY DETECT 2</t>
-  </si>
-  <si>
-    <t>SW1-MAIN</t>
-  </si>
-  <si>
-    <t>SW1-REPAIR</t>
-  </si>
-  <si>
-    <t>SP5 DECEL</t>
-  </si>
-  <si>
-    <t>BODY DOLLY IN</t>
-  </si>
-  <si>
-    <t>BODY NG OUT</t>
-  </si>
-  <si>
-    <t>SKID READY</t>
-  </si>
-  <si>
-    <t>SKID OUT</t>
-  </si>
-  <si>
-    <t>BODY READY</t>
-  </si>
-  <si>
-    <t>UNLOADING ALARM 1</t>
-  </si>
-  <si>
-    <t>STOPPER-3 OPEN END</t>
-  </si>
-  <si>
-    <t>STOPPER-3 CLOSE END</t>
-  </si>
-  <si>
-    <t>POSITIONER-3 FORWARD END</t>
-  </si>
-  <si>
-    <t>POSITIONER-3 REVERSE END</t>
-  </si>
-  <si>
-    <t>MOTRAIN PRESENT ST6 (SP8 RFID)</t>
-  </si>
-  <si>
-    <t>MOTRAIN CLEAR 1 ST6 (SP8 RFID)</t>
-  </si>
-  <si>
-    <t>MOTRAIN CLEAR 2 ST6 (SP8 RFID)</t>
-  </si>
-  <si>
-    <t>UNLOADING DOWN END 1</t>
-  </si>
-  <si>
-    <t>UNLOADING DOWN END 2</t>
-  </si>
-  <si>
-    <t>BODY DETECT AT SP8</t>
-  </si>
-  <si>
-    <t>LS TIMING KANBAN DETECT AT LOADING</t>
-  </si>
-  <si>
-    <t>KANBAN DETECT AT LOADING POS</t>
-  </si>
-  <si>
-    <t>LOA LIG ON STABIL</t>
-  </si>
-  <si>
-    <t>UNLOADING DATA NORMAL SIGN</t>
-  </si>
-  <si>
-    <t>CB-C6 POS ST8 OPEN PL</t>
-  </si>
-  <si>
-    <t>CB-C6 POS ST8 CLOSE PL</t>
-  </si>
-  <si>
-    <t>CB-C6 POS ST8 FWD PL</t>
-  </si>
-  <si>
-    <t>CB-C6 POS ST8 RVS PL</t>
-  </si>
-  <si>
-    <t>6_SP1 STOP_1401</t>
-  </si>
-  <si>
-    <t>6_SP2 STOP_1402</t>
-  </si>
-  <si>
-    <t>6_SP3 STOP_1403</t>
-  </si>
-  <si>
-    <t>6_SP4 STOP_1404</t>
-  </si>
-  <si>
-    <t>6_SP5 STOP_1405</t>
-  </si>
-  <si>
-    <t>6_SP6 STOP_1406</t>
-  </si>
-  <si>
-    <t>6_SP7 STOP_1407</t>
-  </si>
-  <si>
-    <t>6_SP8 STOP_1408</t>
-  </si>
-  <si>
-    <t>6_SP9 STOP_ 1409</t>
-  </si>
-  <si>
-    <t>6_SP10 STOP_1410</t>
-  </si>
-  <si>
-    <t>6_SP11 STOP_1411</t>
-  </si>
-  <si>
-    <t>6_SP0 STOP_1420</t>
-  </si>
-  <si>
-    <t>EIP COMM FAULT</t>
-  </si>
-  <si>
-    <t>E-CAT COMM FAULT</t>
-  </si>
-  <si>
-    <t>EMG STOP NORMAL CPC</t>
-  </si>
-  <si>
-    <t>EMG STOP NORMAL MAIN PANEL CPC NORMAL</t>
-  </si>
-  <si>
-    <t>1_SP1 STOP_1401</t>
-  </si>
-  <si>
-    <t>1_SP2 STOP_1402</t>
-  </si>
-  <si>
-    <t>1_SP3 STOP_1403</t>
-  </si>
-  <si>
-    <t>1_SP4 STOP_1404</t>
-  </si>
-  <si>
-    <t>1_SP5 STOP_1405</t>
-  </si>
-  <si>
-    <t>1_SP6 STOP_1405</t>
-  </si>
-  <si>
-    <t>1_SP7 STOP_1407</t>
-  </si>
-  <si>
-    <t>1_SP8 STOP_1408</t>
-  </si>
-  <si>
-    <t>1_SP9 STOP_ 1409</t>
-  </si>
-  <si>
-    <t>1_SP10 STOP_1410</t>
-  </si>
-  <si>
-    <t>1_SP11 STOP_1411</t>
-  </si>
-  <si>
-    <t>1_SP0 STOP_1420</t>
-  </si>
-  <si>
-    <t>PV FREQ MOTOR TRAVEL</t>
-  </si>
-  <si>
-    <t>PV CURRENT MOTOR TRAVEL</t>
-  </si>
-  <si>
-    <t>PV FREQ MOTOR LIFTER</t>
-  </si>
-  <si>
-    <t>PV CURRENT MOTOR LIFTER</t>
-  </si>
-  <si>
-    <t>PV TEMP MOTOR TRAVEL</t>
-  </si>
-  <si>
-    <t>PV TEMP MOTOR LIFTER</t>
-  </si>
-  <si>
-    <t>STOPPER-1 OPEN END</t>
-  </si>
-  <si>
-    <t>STOPPER-1 CLOSE END</t>
-  </si>
-  <si>
-    <t>STOPPER-2 OPEN END</t>
-  </si>
-  <si>
-    <t>STOPPER-2 CLOSE END</t>
-  </si>
-  <si>
-    <t>STOPPER-1 CLOSE</t>
-  </si>
-  <si>
-    <t>STOPPER-1 OPEN</t>
-  </si>
-  <si>
-    <t>POSITIONER-1 FORWARD</t>
-  </si>
-  <si>
-    <t>POSITIONER-1 REVERSE</t>
-  </si>
-  <si>
-    <t>STOPPER-3 CLOSE</t>
-  </si>
-  <si>
-    <t>STOPPER-3 OPEN</t>
-  </si>
-  <si>
-    <t>POSITIONER-3 FORWARD</t>
-  </si>
-  <si>
-    <t>POSITIONER-3 REVERSE</t>
-  </si>
-  <si>
-    <t>GUIDE CYL FWD RH</t>
-  </si>
-  <si>
-    <t>GUIDE CYL RVS RH</t>
-  </si>
-  <si>
-    <t>GUIDE CYL FWD LH</t>
-  </si>
-  <si>
-    <t>GUIDE CYL RVS LH</t>
-  </si>
-  <si>
-    <t>SOL GATE OPEN 1</t>
-  </si>
-  <si>
-    <t>SOL GATE CLOSE 1</t>
-  </si>
-  <si>
     <t>SOL GATE CLOSE 2</t>
   </si>
   <si>
-    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1001</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>006</t>
+    <t>assetTagCd</t>
+  </si>
+  <si>
+    <t>cycleName</t>
+  </si>
+  <si>
+    <t>ohcName</t>
+  </si>
+  <si>
+    <t>actualValue</t>
+  </si>
+  <si>
+    <t>standardValue</t>
+  </si>
+  <si>
+    <t>SP1</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
+    <t>SP3</t>
+  </si>
+  <si>
+    <t>SP4</t>
+  </si>
+  <si>
+    <t>SP6</t>
+  </si>
+  <si>
+    <t>SP7</t>
+  </si>
+  <si>
+    <t>SP8</t>
+  </si>
+  <si>
+    <t>SP10</t>
+  </si>
+  <si>
+    <t>SP0</t>
+  </si>
+  <si>
+    <t>OHC1</t>
+  </si>
+  <si>
+    <t>OHC2</t>
+  </si>
+  <si>
+    <t>OHC3</t>
+  </si>
+  <si>
+    <t>OHC4</t>
+  </si>
+  <si>
+    <t>OHC5</t>
+  </si>
+  <si>
+    <t>OHC6</t>
+  </si>
+  <si>
+    <t>Cycle OHC1</t>
+  </si>
+  <si>
+    <t>Cycle OHC2</t>
+  </si>
+  <si>
+    <t>Cycle OHC3</t>
+  </si>
+  <si>
+    <t>Cycle OHC4</t>
+  </si>
+  <si>
+    <t>Cycle OHC5</t>
+  </si>
+  <si>
+    <t>Cycle OHC6</t>
+  </si>
+  <si>
+    <t>Cycle SP1</t>
+  </si>
+  <si>
+    <t>Cycle SP2</t>
+  </si>
+  <si>
+    <t>Cycle SP3</t>
+  </si>
+  <si>
+    <t>Cycle SP4</t>
+  </si>
+  <si>
+    <t>Cycle SP6</t>
+  </si>
+  <si>
+    <t>Cycle SP7</t>
+  </si>
+  <si>
+    <t>Cycle SP8</t>
+  </si>
+  <si>
+    <t>Cycle SP10</t>
+  </si>
+  <si>
+    <t>Cycle SP0</t>
+  </si>
+  <si>
+    <t>spName</t>
+  </si>
+  <si>
+    <t>X702</t>
+  </si>
+  <si>
+    <t>X703</t>
+  </si>
+  <si>
+    <t>X742</t>
+  </si>
+  <si>
+    <t>X743</t>
+  </si>
+  <si>
+    <t>X750</t>
+  </si>
+  <si>
+    <t>X751</t>
+  </si>
+  <si>
+    <t>X752</t>
+  </si>
+  <si>
+    <t>X7AA</t>
+  </si>
+  <si>
+    <t>X7AB</t>
+  </si>
+  <si>
+    <t>X7B1</t>
+  </si>
+  <si>
+    <t>X7B2</t>
+  </si>
+  <si>
+    <t>X020</t>
+  </si>
+  <si>
+    <t>X021</t>
+  </si>
+  <si>
+    <t>X022</t>
+  </si>
+  <si>
+    <t>X023</t>
+  </si>
+  <si>
+    <t>X024</t>
+  </si>
+  <si>
+    <t>X025</t>
+  </si>
+  <si>
+    <t>X026</t>
+  </si>
+  <si>
+    <t>X027</t>
+  </si>
+  <si>
+    <t>X028</t>
+  </si>
+  <si>
+    <t>X029</t>
+  </si>
+  <si>
+    <t>X02A</t>
+  </si>
+  <si>
+    <t>X02B</t>
+  </si>
+  <si>
+    <t>X02C</t>
+  </si>
+  <si>
+    <t>X02D</t>
+  </si>
+  <si>
+    <t>X02E</t>
+  </si>
+  <si>
+    <t>X02F</t>
+  </si>
+  <si>
+    <t>Lift Up</t>
+  </si>
+  <si>
+    <t>Lift Down</t>
+  </si>
+  <si>
+    <t>Collision</t>
+  </si>
+  <si>
+    <t>Hanger L Close</t>
+  </si>
+  <si>
+    <t>Hanger L Open</t>
+  </si>
+  <si>
+    <t>Hanger R Close</t>
+  </si>
+  <si>
+    <t>Hanger R Open</t>
+  </si>
+  <si>
+    <t>Chain Fault FL</t>
+  </si>
+  <si>
+    <t>Chain Fault FR</t>
+  </si>
+  <si>
+    <t>Chain Fault RL</t>
+  </si>
+  <si>
+    <t>Chain Fault RR</t>
+  </si>
+  <si>
+    <t>STOPPER</t>
+  </si>
+  <si>
+    <t>POSITIONER</t>
+  </si>
+  <si>
+    <t>Pusher</t>
+  </si>
+  <si>
+    <t>Spare</t>
+  </si>
+  <si>
+    <t>LIFT_UP_END1</t>
+  </si>
+  <si>
+    <t>COLLISION</t>
+  </si>
+  <si>
+    <t>LIFT_UP_OVERRUN</t>
+  </si>
+  <si>
+    <t>LIFT_UP_END 2</t>
+  </si>
+  <si>
+    <t>LIFT_DOWN_OVERRUN</t>
+  </si>
+  <si>
+    <t>HANGER_ARM_L_OPEN_END</t>
+  </si>
+  <si>
+    <t>HANGER_ARM_L_CLOSED_END</t>
+  </si>
+  <si>
+    <t>HANGER_ARM_R_OPEN_END</t>
+  </si>
+  <si>
+    <t>HANGER_ARM_R_CLOSED_END</t>
+  </si>
+  <si>
+    <t>LIFT_CHAIN_FAULT_FL</t>
+  </si>
+  <si>
+    <t>LIFT_CHAIN_FAULT_FR</t>
+  </si>
+  <si>
+    <t>LIFT_CHAIN_FAULT_RL</t>
+  </si>
+  <si>
+    <t>LIFT_CHAIN_FAULT_RR</t>
+  </si>
+  <si>
+    <t>spare</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1002</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1003</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1004</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1005</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1006</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1007</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1008</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1009</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1010</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1011</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1012</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1013</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1014</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1015</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1016</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1017</t>
+  </si>
+  <si>
+    <t>POSITIONER-1 FORWARD END</t>
+  </si>
+  <si>
+    <t>POSITIONER-1 REVERSE END</t>
+  </si>
+  <si>
+    <t>POSITIONER-2 forward END</t>
+  </si>
+  <si>
+    <t>POSITIONER-2 reverse END</t>
+  </si>
+  <si>
+    <t>LS Doly Present</t>
+  </si>
+  <si>
+    <t>LS Pusher forward END</t>
+  </si>
+  <si>
+    <t>LS Unpush reverse END</t>
+  </si>
+  <si>
+    <t>0716</t>
+  </si>
+  <si>
+    <t>0717</t>
+  </si>
+  <si>
+    <t>0718</t>
+  </si>
+  <si>
+    <t>0719</t>
+  </si>
+  <si>
+    <t>0720</t>
+  </si>
+  <si>
+    <t>UNLOADING DOWN END LH</t>
+  </si>
+  <si>
+    <t>UNLOADING DOWN END RH</t>
+  </si>
+  <si>
+    <t>0763</t>
+  </si>
+  <si>
+    <t>0764</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1018</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1019</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1020</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1021</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1022</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1023</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1024</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1025</t>
+  </si>
+  <si>
+    <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1026</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1501,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1446,13 +1850,13 @@
       <selection activeCell="B7" sqref="B7:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.35546875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1468,7 +1872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1476,7 +1880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1484,7 +1888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1492,7 +1896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1500,51 +1904,433 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B6" numberStoredAsText="1"/>
-  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>409</v>
+      </c>
+      <c r="B13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>409</v>
+      </c>
+      <c r="B15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>410</v>
+      </c>
+      <c r="B16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>409</v>
+      </c>
+      <c r="B18" t="s">
+        <v>367</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>410</v>
+      </c>
+      <c r="B19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1557,137 +2343,134 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.640625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B6" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1698,37 +2481,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B3" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1739,3740 +2519,3737 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.35546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:E3" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.85546875" style="1"/>
-    <col min="5" max="5" width="17.35546875" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="65.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>208</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C6" s="5">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C7" s="5">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>210</v>
+        <v>64</v>
       </c>
       <c r="G7" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C9" s="5">
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>212</v>
+        <v>68</v>
       </c>
       <c r="G9" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C10" s="5">
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="G10" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5">
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="G11" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5">
         <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="G12" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C13" s="5">
         <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="G13" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C14" s="5">
         <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="G14" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C15" s="5">
         <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="G15" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C16" s="5">
         <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C17" s="5">
         <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C18" s="5">
         <v>45</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>221</v>
+        <v>86</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C19" s="5">
         <v>46</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>222</v>
+        <v>88</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C20" s="5">
         <v>47</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C21" s="5">
         <v>48</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C22" s="5">
         <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>225</v>
+        <v>94</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C23" s="5">
         <v>50</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C24" s="5">
         <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>227</v>
+        <v>98</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C25" s="5">
         <v>86</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>231</v>
+        <v>100</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C26" s="5">
         <v>87</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C27" s="5">
         <v>88</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C28" s="5">
         <v>89</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>234</v>
+        <v>106</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C29" s="5">
         <v>90</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C30" s="5">
         <v>91</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C31" s="5">
         <v>92</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C32" s="5">
         <v>93</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C33" s="5">
         <v>94</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>239</v>
+        <v>116</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C34" s="5">
         <v>95</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>240</v>
+        <v>118</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C35" s="5">
         <v>97</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C36" s="5">
         <v>98</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>242</v>
+        <v>122</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C37" s="5">
         <v>99</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C38" s="5">
         <v>100</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C39" s="5">
         <v>101</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C40" s="5">
         <v>102</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5">
         <v>103</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C42" s="5">
         <v>104</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C43" s="5">
         <v>105</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C44" s="5">
         <v>106</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>239</v>
+        <v>116</v>
       </c>
       <c r="G44" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C45" s="5">
         <v>107</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C46" s="5">
         <v>108</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>247</v>
+        <v>137</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C47" s="5">
         <v>111</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>248</v>
+        <v>139</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C48" s="5">
         <v>112</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>249</v>
+        <v>141</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C49" s="5">
         <v>113</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>250</v>
+        <v>143</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C50" s="5">
         <v>127</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>251</v>
+        <v>145</v>
       </c>
       <c r="G50" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C51" s="5">
         <v>128</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>252</v>
+        <v>147</v>
       </c>
       <c r="G51" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C52" s="5">
         <v>129</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="G52" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C53" s="5">
         <v>130</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>254</v>
+        <v>151</v>
       </c>
       <c r="G53" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C54" s="5">
         <v>131</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C55" s="5">
         <v>132</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>256</v>
+        <v>155</v>
       </c>
       <c r="G55" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C56" s="5">
         <v>136</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>257</v>
+        <v>157</v>
       </c>
       <c r="G56" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C57" s="5">
         <v>137</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C58" s="5">
         <v>138</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C59" s="5">
         <v>139</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>260</v>
+        <v>163</v>
       </c>
       <c r="G59" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C60" s="5">
         <v>140</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>261</v>
+        <v>165</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C61" s="5">
         <v>141</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="G61" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C62" s="5">
         <v>142</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="G62" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C63" s="5">
         <v>143</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C64" s="5">
         <v>144</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="G64" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C65" s="5">
         <v>145</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C66" s="5">
         <v>146</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>267</v>
+        <v>177</v>
       </c>
       <c r="G66" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C67" s="5">
         <v>147</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>268</v>
+        <v>179</v>
       </c>
       <c r="G67" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C68" s="5">
         <v>148</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>269</v>
+        <v>181</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C69" s="5">
         <v>149</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>270</v>
+        <v>183</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C70" s="5">
         <v>170</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>271</v>
+        <v>185</v>
       </c>
       <c r="G70" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C71" s="5">
         <v>171</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>272</v>
+        <v>187</v>
       </c>
       <c r="G71" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C72" s="5">
         <v>172</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>273</v>
+        <v>189</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C73" s="5">
         <v>173</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>274</v>
+        <v>191</v>
       </c>
       <c r="G73" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C74" s="5">
         <v>318</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>275</v>
+        <v>193</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C75" s="5">
         <v>321</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="G75" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C76" s="5">
         <v>324</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>277</v>
+        <v>197</v>
       </c>
       <c r="G76" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C77" s="5">
         <v>328</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>278</v>
+        <v>199</v>
       </c>
       <c r="G77" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C78" s="5">
         <v>330</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>279</v>
+        <v>201</v>
       </c>
       <c r="G78" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C79" s="5">
         <v>332</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="G79" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C80" s="5">
         <v>334</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="G80" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C81" s="5">
         <v>338</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="G81" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C82" s="5">
         <v>343</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C83" s="5">
         <v>345</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>284</v>
+        <v>211</v>
       </c>
       <c r="G83" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C84" s="5">
         <v>347</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="G84" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C85" s="5">
         <v>350</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>286</v>
+        <v>215</v>
       </c>
       <c r="G85" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C86" s="5">
         <v>393</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C87" s="5">
         <v>394</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="G87" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C88" s="5">
         <v>397</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>289</v>
+        <v>221</v>
       </c>
       <c r="G88" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C89" s="5">
         <v>399</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="G89" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C90" s="5">
         <v>428</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>291</v>
+        <v>225</v>
       </c>
       <c r="G90" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C91" s="5">
         <v>431</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="G91" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C92" s="5">
         <v>434</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>293</v>
+        <v>229</v>
       </c>
       <c r="G92" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C93" s="5">
         <v>438</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="G93" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C94" s="5">
         <v>440</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="G94" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C95" s="5">
         <v>442</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="G95" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C96" s="5">
         <v>444</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>297</v>
+        <v>237</v>
       </c>
       <c r="G96" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C97" s="5">
         <v>448</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>137</v>
+        <v>238</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="G97" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C98" s="5">
         <v>453</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="G98" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C99" s="5">
         <v>455</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="G99" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C100" s="5">
         <v>457</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
       <c r="G100" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C101" s="5">
         <v>459</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>141</v>
+        <v>246</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="G101" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C102" s="5">
         <v>475</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>142</v>
+        <v>248</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="G102" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C103" s="5">
         <v>476</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>143</v>
+        <v>251</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="G103" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C104" s="5">
         <v>477</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="G104" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C105" s="5">
         <v>478</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="G105" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C106" s="5">
         <v>479</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>146</v>
+        <v>257</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G106" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C107" s="5">
         <v>480</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="G107" s="2">
         <v>2.46</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C108" s="5">
         <v>481</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>148</v>
+        <v>261</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="G108" s="2">
         <v>2.92</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C109" s="5">
         <v>482</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>149</v>
+        <v>262</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="G109" s="2">
         <v>3.38</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C110" s="5">
         <v>483</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>150</v>
+        <v>263</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="G110" s="2">
         <v>3.84</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C111" s="5">
         <v>484</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>151</v>
+        <v>264</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="G111" s="2">
         <v>4.3</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C112" s="5">
         <v>485</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>152</v>
+        <v>265</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G112" s="2">
         <v>4.76</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C113" s="5">
         <v>486</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>153</v>
+        <v>266</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="G113" s="2">
         <v>5.22</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C114" s="5">
         <v>487</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>154</v>
+        <v>267</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="G114" s="2">
         <v>5.68</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C115" s="5">
         <v>488</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>155</v>
+        <v>268</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="G115" s="2">
         <v>6.14</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C116" s="5">
         <v>489</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="G116" s="2">
         <v>6.6</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C117" s="5">
         <v>490</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="G117" s="2">
         <v>7.06</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C118" s="5">
         <v>491</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>158</v>
+        <v>271</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G118" s="2">
         <v>7.52</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C119" s="5">
         <v>492</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="G119" s="2">
         <v>7.98</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C120" s="5">
         <v>493</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="G120" s="2">
         <v>8.44</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C121" s="5">
         <v>494</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="G121" s="2">
         <v>8.9</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C122" s="5">
         <v>495</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>162</v>
+        <v>275</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="G122" s="2">
         <v>9.36</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C123" s="5">
         <v>496</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>163</v>
+        <v>276</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="G123" s="2">
         <v>9.82</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C124" s="5">
         <v>497</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>164</v>
+        <v>277</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G124" s="2">
         <v>2.46</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C125" s="5">
         <v>498</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>165</v>
+        <v>278</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="G125" s="2">
         <v>2.92</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C126" s="5">
         <v>499</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="G126" s="2">
         <v>3.38</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C127" s="5">
         <v>500</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>167</v>
+        <v>280</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="G127" s="2">
         <v>3.84</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C128" s="5">
         <v>501</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="G128" s="2">
         <v>4.3</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C129" s="5">
         <v>502</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>169</v>
+        <v>282</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="G129" s="2">
         <v>4.76</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C130" s="5">
         <v>503</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G130" s="2">
         <v>5.22</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C131" s="5">
         <v>504</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="G131" s="2">
         <v>5.68</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C132" s="5">
         <v>505</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>172</v>
+        <v>285</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="G132" s="2">
         <v>6.14</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C133" s="5">
         <v>506</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>173</v>
+        <v>286</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="G133" s="2">
         <v>6.6</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C134" s="5">
         <v>507</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>174</v>
+        <v>287</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="G134" s="2">
         <v>7.06</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C135" s="5">
         <v>508</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>175</v>
+        <v>288</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="G135" s="2">
         <v>7.52</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="C136" s="5">
         <v>509</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>176</v>
+        <v>289</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="G136" s="2">
         <v>7.98</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="C137" s="5">
         <v>510</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>177</v>
+        <v>290</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="G137" s="2">
         <v>8.44</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C138" s="5">
         <v>683</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="G138" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C139" s="5">
         <v>684</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>179</v>
+        <v>293</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="G139" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>328</v>
+        <v>427</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>329</v>
+        <v>49</v>
       </c>
       <c r="C140" s="5">
+        <v>685</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C141" s="5">
+        <v>686</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="G141" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C142" s="5">
         <v>715</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G140" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A141" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C141" s="5">
+      <c r="D142" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G142" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C143" s="5">
         <v>716</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G141" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A142" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C142" s="5">
+      <c r="D143" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C144" s="5">
         <v>754</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G142" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A143" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C143" s="5">
+      <c r="D144" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C145" s="5">
         <v>755</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G143" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A144" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C144" s="5">
-        <v>881</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G144" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A145" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C145" s="5">
-        <v>882</v>
-      </c>
       <c r="D145" s="2" t="s">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>314</v>
+        <v>159</v>
       </c>
       <c r="G145" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>329</v>
+        <v>59</v>
       </c>
       <c r="C146" s="5">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="G146" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>330</v>
+        <v>62</v>
       </c>
       <c r="C147" s="5">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>187</v>
+        <v>303</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G147" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="C148" s="5">
+        <v>883</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G148" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C149" s="5">
+        <v>884</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G149" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C150" s="5">
         <v>885</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="G148" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A149" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C149" s="5">
-        <v>886</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="G149" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A150" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C150" s="5">
-        <v>887</v>
-      </c>
       <c r="D150" s="2" t="s">
-        <v>190</v>
+        <v>309</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="G150" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>334</v>
+        <v>56</v>
       </c>
       <c r="C151" s="5">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G151" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>329</v>
+        <v>59</v>
       </c>
       <c r="C152" s="5">
-        <v>915</v>
+        <v>887</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>192</v>
+        <v>313</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G152" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>330</v>
+        <v>62</v>
       </c>
       <c r="C153" s="5">
+        <v>888</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G153" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C154" s="5">
+        <v>915</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G154" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C155" s="5">
         <v>916</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F153" s="2" t="s">
+      <c r="D155" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="G153" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A154" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C154" s="5">
+      <c r="E155" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C156" s="5">
         <v>917</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F154" s="2" t="s">
+      <c r="D156" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G154" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A155" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C155" s="5">
+      <c r="E156" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G156" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C157" s="5">
         <v>918</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F155" s="2" t="s">
+      <c r="D157" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G155" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A156" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C156" s="5">
+      <c r="E157" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C158" s="5">
         <v>919</v>
       </c>
-      <c r="D156" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F156" s="2" t="s">
+      <c r="D158" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G156" s="2">
+      <c r="E158" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G158" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A157" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C157" s="5">
+    <row r="159" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C159" s="5">
         <v>920</v>
       </c>
-      <c r="D157" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G157" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A158" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C158" s="5">
-        <v>921</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F158" s="2" t="s">
+      <c r="D159" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G158" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A159" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C159" s="5">
-        <v>922</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>324</v>
@@ -5481,81 +6258,1259 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C160" s="5">
+        <v>921</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G160" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C161" s="5">
+        <v>922</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B160" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C160" s="5">
+      <c r="G161" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C162" s="5">
         <v>923</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G160" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A161" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C161" s="5">
-        <v>924</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G161" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A162" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C162" s="5">
-        <v>925</v>
-      </c>
       <c r="D162" s="2" t="s">
-        <v>202</v>
+        <v>329</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G162" s="2">
         <v>1</v>
       </c>
+    </row>
+    <row r="163" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C163" s="5">
+        <v>924</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C164" s="5">
+        <v>925</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G164" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C165" s="5">
+        <v>575</v>
+      </c>
+      <c r="D165" t="s">
+        <v>382</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F165" t="s">
+        <v>412</v>
+      </c>
+      <c r="G165" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C166" s="5">
+        <v>576</v>
+      </c>
+      <c r="D166" t="s">
+        <v>383</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F166" t="s">
+        <v>413</v>
+      </c>
+      <c r="G166" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C167" s="5">
+        <v>577</v>
+      </c>
+      <c r="D167" t="s">
+        <v>384</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F167" t="s">
+        <v>414</v>
+      </c>
+      <c r="G167" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C168" s="5">
+        <v>578</v>
+      </c>
+      <c r="D168" t="s">
+        <v>385</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F168" t="s">
+        <v>415</v>
+      </c>
+      <c r="G168" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C169" s="5">
+        <v>579</v>
+      </c>
+      <c r="D169" t="s">
+        <v>386</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F169" t="s">
+        <v>416</v>
+      </c>
+      <c r="G169" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C170" s="5">
+        <v>580</v>
+      </c>
+      <c r="D170" t="s">
+        <v>387</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F170" t="s">
+        <v>417</v>
+      </c>
+      <c r="G170" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C171" s="5">
+        <v>581</v>
+      </c>
+      <c r="D171" t="s">
+        <v>388</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F171" t="s">
+        <v>418</v>
+      </c>
+      <c r="G171" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C172" s="5">
+        <v>582</v>
+      </c>
+      <c r="D172" t="s">
+        <v>389</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F172" t="s">
+        <v>419</v>
+      </c>
+      <c r="G172" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C173" s="5">
+        <v>583</v>
+      </c>
+      <c r="D173" t="s">
+        <v>390</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F173" t="s">
+        <v>420</v>
+      </c>
+      <c r="G173" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C174" s="5">
+        <v>584</v>
+      </c>
+      <c r="D174" t="s">
+        <v>391</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F174" t="s">
+        <v>421</v>
+      </c>
+      <c r="G174" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C175" s="5">
+        <v>585</v>
+      </c>
+      <c r="D175" t="s">
+        <v>392</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F175" t="s">
+        <v>422</v>
+      </c>
+      <c r="G175" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C176" s="5">
+        <v>586</v>
+      </c>
+      <c r="D176" t="s">
+        <v>393</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F176" t="s">
+        <v>423</v>
+      </c>
+      <c r="G176" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C177" s="5">
+        <v>587</v>
+      </c>
+      <c r="D177" t="s">
+        <v>394</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F177" t="s">
+        <v>424</v>
+      </c>
+      <c r="G177" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C178" s="5">
+        <v>588</v>
+      </c>
+      <c r="D178" t="s">
+        <v>395</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F178" t="s">
+        <v>425</v>
+      </c>
+      <c r="G178" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C179" s="5">
+        <v>589</v>
+      </c>
+      <c r="D179" t="s">
+        <v>396</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F179" t="s">
+        <v>426</v>
+      </c>
+      <c r="G179" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C180" s="5">
+        <v>590</v>
+      </c>
+      <c r="D180" t="s">
+        <v>397</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F180" t="s">
+        <v>426</v>
+      </c>
+      <c r="G180" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D181" t="s">
+        <v>373</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F181" t="s">
+        <v>445</v>
+      </c>
+      <c r="G181" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D182" t="s">
+        <v>374</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F182" t="s">
+        <v>446</v>
+      </c>
+      <c r="G182" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D183" t="s">
+        <v>375</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F183" t="s">
+        <v>447</v>
+      </c>
+      <c r="G183" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D184" t="s">
+        <v>376</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F184" t="s">
+        <v>448</v>
+      </c>
+      <c r="G184" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A185" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D185" t="s">
+        <v>377</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F185" t="s">
+        <v>449</v>
+      </c>
+      <c r="G185" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C186" s="5">
+        <v>756</v>
+      </c>
+      <c r="D186" t="s">
+        <v>378</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F186" t="s">
+        <v>161</v>
+      </c>
+      <c r="G186" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C187" s="5">
+        <v>757</v>
+      </c>
+      <c r="D187" t="s">
+        <v>379</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F187" t="s">
+        <v>163</v>
+      </c>
+      <c r="G187" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D188" t="s">
+        <v>380</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F188" t="s">
+        <v>455</v>
+      </c>
+      <c r="G188" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D189" t="s">
+        <v>381</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F189" t="s">
+        <v>456</v>
+      </c>
+      <c r="G189" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="G1 A1:D1" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>345</v>
+      </c>
+      <c r="B11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>346</v>
+      </c>
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B16" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" t="s">
+        <v>381</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>349</v>
+      </c>
+      <c r="B16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>349</v>
+      </c>
+      <c r="B17" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/prisma/seed/seed_data.xlsx
+++ b/prisma/seed/seed_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafly/Data/Dev/Project/monitoring-welding-body/prisma/seed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD03C06-365E-D447-B4F5-9546022786E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0163BF25-683A-D945-8B42-FBE8F064132C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="33600" windowHeight="19100" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Permissions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="470">
   <si>
     <t>name</t>
   </si>
@@ -1434,6 +1434,12 @@
   </si>
   <si>
     <t>PT TMMIN KARAWANG-IMV-WELDING BODY #1-OHCIWT-SP1 STOP-EM1026</t>
+  </si>
+  <si>
+    <t>Read Ohcs</t>
+  </si>
+  <si>
+    <t>ohc.read</t>
   </si>
 </sst>
 </file>
@@ -1844,10 +1850,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1942,6 +1948,14 @@
       </c>
       <c r="B11" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>468</v>
+      </c>
+      <c r="B12" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +2065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -2337,10 +2351,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2467,6 +2481,22 @@
       </c>
       <c r="B15" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/prisma/seed/seed_data.xlsx
+++ b/prisma/seed/seed_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafly/Data/Dev/Project/monitoring-welding-body/prisma/seed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0163BF25-683A-D945-8B42-FBE8F064132C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7446B423-5E1D-0340-9B83-CACAFEBA100B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Permissions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="478">
   <si>
     <t>name</t>
   </si>
@@ -1440,6 +1440,30 @@
   </si>
   <si>
     <t>ohc.read</t>
+  </si>
+  <si>
+    <t>DATA PL ID SP9 STOP</t>
+  </si>
+  <si>
+    <t>EM101A</t>
+  </si>
+  <si>
+    <t>DATA PL ID SP11 STOP</t>
+  </si>
+  <si>
+    <t>EM101D</t>
+  </si>
+  <si>
+    <t>SP9</t>
+  </si>
+  <si>
+    <t>SP11</t>
+  </si>
+  <si>
+    <t>Cycle SP9</t>
+  </si>
+  <si>
+    <t>Cycle SP11</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1473,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1474,6 +1498,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6.5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1483,7 +1512,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1491,11 +1520,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1509,6 +1553,9 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1965,10 +2012,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2048,11 +2095,21 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>368</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>369</v>
       </c>
     </row>
@@ -2353,7 +2410,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2617,10 +2674,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G190"/>
+  <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="D195" sqref="D195"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2843,22 +2900,22 @@
         <v>44</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C10" s="5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>471</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="G10" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2866,22 +2923,22 @@
         <v>44</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="5">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2889,22 +2946,22 @@
         <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C12" s="5">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>473</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>74</v>
+        <v>472</v>
       </c>
       <c r="G12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2912,22 +2969,22 @@
         <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G13" s="2">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2935,22 +2992,22 @@
         <v>44</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C14" s="5">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G14" s="2">
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2958,22 +3015,22 @@
         <v>44</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C15" s="5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G15" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2981,22 +3038,22 @@
         <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G16" s="2">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3004,22 +3061,22 @@
         <v>44</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C17" s="5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3027,19 +3084,19 @@
         <v>44</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C18" s="5">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -3050,19 +3107,19 @@
         <v>44</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C19" s="5">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -3073,19 +3130,19 @@
         <v>44</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="5">
         <v>45</v>
       </c>
-      <c r="C20" s="5">
-        <v>47</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -3096,19 +3153,19 @@
         <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C21" s="5">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -3119,22 +3176,22 @@
         <v>44</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C22" s="5">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3142,22 +3199,22 @@
         <v>44</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C23" s="5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3165,19 +3222,19 @@
         <v>44</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C24" s="5">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
@@ -3188,22 +3245,22 @@
         <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C25" s="5">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3211,19 +3268,19 @@
         <v>44</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C26" s="5">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
@@ -3234,22 +3291,22 @@
         <v>44</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C27" s="5">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3257,19 +3314,19 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C28" s="5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
@@ -3280,22 +3337,22 @@
         <v>44</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C29" s="5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3303,22 +3360,22 @@
         <v>44</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C30" s="5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3326,19 +3383,19 @@
         <v>44</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C31" s="5">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
@@ -3349,22 +3406,22 @@
         <v>44</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C32" s="5">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3372,19 +3429,19 @@
         <v>44</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C33" s="5">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
@@ -3395,22 +3452,22 @@
         <v>44</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C34" s="5">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3418,22 +3475,22 @@
         <v>44</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3441,22 +3498,22 @@
         <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C36" s="5">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3464,19 +3521,19 @@
         <v>44</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C37" s="5">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -3487,22 +3544,22 @@
         <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C38" s="5">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3510,19 +3567,19 @@
         <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C39" s="5">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -3533,22 +3590,22 @@
         <v>44</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C40" s="5">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3556,22 +3613,22 @@
         <v>44</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C41" s="5">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3579,19 +3636,19 @@
         <v>44</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C42" s="5">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
@@ -3602,19 +3659,19 @@
         <v>44</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C43" s="5">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
@@ -3625,19 +3682,19 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C44" s="5">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G44" s="2">
         <v>0</v>
@@ -3648,22 +3705,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C45" s="5">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="G45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3671,22 +3728,22 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C46" s="5">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="G46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3694,22 +3751,22 @@
         <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C47" s="5">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3717,19 +3774,19 @@
         <v>44</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C48" s="5">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -3740,22 +3797,22 @@
         <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C49" s="5">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3763,22 +3820,22 @@
         <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C50" s="5">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3786,22 +3843,22 @@
         <v>44</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C51" s="5">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3809,19 +3866,19 @@
         <v>44</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C52" s="5">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G52" s="2">
         <v>0</v>
@@ -3832,19 +3889,19 @@
         <v>44</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C53" s="5">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G53" s="2">
         <v>0</v>
@@ -3855,22 +3912,22 @@
         <v>44</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C54" s="5">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3878,19 +3935,19 @@
         <v>44</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C55" s="5">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G55" s="2">
         <v>0</v>
@@ -3901,22 +3958,22 @@
         <v>44</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C56" s="5">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3924,22 +3981,22 @@
         <v>44</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C57" s="5">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3947,22 +4004,22 @@
         <v>44</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C58" s="5">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3970,22 +4027,22 @@
         <v>44</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C59" s="5">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3993,19 +4050,19 @@
         <v>44</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C60" s="5">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
@@ -4016,19 +4073,19 @@
         <v>44</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C61" s="5">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G61" s="2">
         <v>0</v>
@@ -4039,19 +4096,19 @@
         <v>44</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C62" s="5">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G62" s="2">
         <v>1</v>
@@ -4062,22 +4119,22 @@
         <v>44</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C63" s="5">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4085,22 +4142,22 @@
         <v>44</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C64" s="5">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4108,19 +4165,19 @@
         <v>44</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C65" s="5">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -4131,19 +4188,19 @@
         <v>44</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C66" s="5">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G66" s="2">
         <v>0</v>
@@ -4154,22 +4211,22 @@
         <v>44</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C67" s="5">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4177,22 +4234,22 @@
         <v>44</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C68" s="5">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4200,22 +4257,22 @@
         <v>44</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C69" s="5">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4223,22 +4280,22 @@
         <v>44</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C70" s="5">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4246,22 +4303,22 @@
         <v>44</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C71" s="5">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4269,22 +4326,22 @@
         <v>44</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C72" s="5">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4292,19 +4349,19 @@
         <v>44</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C73" s="5">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G73" s="2">
         <v>0</v>
@@ -4315,19 +4372,19 @@
         <v>44</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C74" s="5">
-        <v>318</v>
+        <v>172</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -4338,19 +4395,19 @@
         <v>44</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C75" s="5">
-        <v>321</v>
+        <v>173</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G75" s="2">
         <v>0</v>
@@ -4361,22 +4418,22 @@
         <v>44</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C76" s="5">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4384,19 +4441,19 @@
         <v>44</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C77" s="5">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G77" s="2">
         <v>0</v>
@@ -4407,22 +4464,22 @@
         <v>44</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C78" s="5">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G78" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4430,19 +4487,19 @@
         <v>44</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C79" s="5">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G79" s="2">
         <v>0</v>
@@ -4453,22 +4510,22 @@
         <v>44</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C80" s="5">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4476,19 +4533,19 @@
         <v>44</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C81" s="5">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G81" s="2">
         <v>0</v>
@@ -4499,22 +4556,22 @@
         <v>44</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C82" s="5">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4522,19 +4579,19 @@
         <v>44</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C83" s="5">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G83" s="2">
         <v>0</v>
@@ -4545,22 +4602,22 @@
         <v>44</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C84" s="5">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G84" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4568,19 +4625,19 @@
         <v>44</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C85" s="5">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G85" s="2">
         <v>0</v>
@@ -4591,22 +4648,22 @@
         <v>44</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C86" s="5">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G86" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4614,19 +4671,19 @@
         <v>44</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C87" s="5">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G87" s="2">
         <v>0</v>
@@ -4637,22 +4694,22 @@
         <v>44</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C88" s="5">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G88" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4660,19 +4717,19 @@
         <v>44</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C89" s="5">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G89" s="2">
         <v>0</v>
@@ -4683,19 +4740,19 @@
         <v>44</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C90" s="5">
-        <v>428</v>
+        <v>397</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G90" s="2">
         <v>0</v>
@@ -4706,19 +4763,19 @@
         <v>44</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C91" s="5">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G91" s="2">
         <v>0</v>
@@ -4729,19 +4786,19 @@
         <v>44</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C92" s="5">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G92" s="2">
         <v>0</v>
@@ -4752,22 +4809,22 @@
         <v>44</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C93" s="5">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G93" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4775,19 +4832,19 @@
         <v>44</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C94" s="5">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G94" s="2">
         <v>0</v>
@@ -4798,22 +4855,22 @@
         <v>44</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C95" s="5">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G95" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4821,22 +4878,22 @@
         <v>44</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C96" s="5">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G96" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4844,19 +4901,19 @@
         <v>44</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C97" s="5">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G97" s="2">
         <v>0</v>
@@ -4867,22 +4924,22 @@
         <v>44</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C98" s="5">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G98" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4890,19 +4947,19 @@
         <v>44</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C99" s="5">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G99" s="2">
         <v>0</v>
@@ -4913,19 +4970,19 @@
         <v>44</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C100" s="5">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G100" s="2">
         <v>0</v>
@@ -4936,22 +4993,22 @@
         <v>44</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C101" s="5">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G101" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4959,22 +5016,22 @@
         <v>44</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C102" s="5">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>249</v>
+        <v>47</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G102" s="2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4982,22 +5039,22 @@
         <v>44</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C103" s="5">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>249</v>
+        <v>47</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G103" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5005,22 +5062,22 @@
         <v>44</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C104" s="5">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G104" s="2">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5028,22 +5085,22 @@
         <v>44</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C105" s="5">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G105" s="2">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5051,22 +5108,22 @@
         <v>44</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C106" s="5">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G106" s="2">
-        <v>2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5074,22 +5131,22 @@
         <v>44</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C107" s="5">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G107" s="2">
-        <v>2.46</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5097,22 +5154,22 @@
         <v>44</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C108" s="5">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G108" s="2">
-        <v>2.92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5120,22 +5177,22 @@
         <v>44</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C109" s="5">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G109" s="2">
-        <v>3.38</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5143,22 +5200,22 @@
         <v>44</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C110" s="5">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G110" s="2">
-        <v>3.84</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5166,22 +5223,22 @@
         <v>44</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C111" s="5">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G111" s="2">
-        <v>4.3</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5189,22 +5246,22 @@
         <v>44</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C112" s="5">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G112" s="2">
-        <v>4.76</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5212,22 +5269,22 @@
         <v>44</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C113" s="5">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G113" s="2">
-        <v>5.22</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5235,22 +5292,22 @@
         <v>44</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C114" s="5">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G114" s="2">
-        <v>5.68</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5258,22 +5315,22 @@
         <v>44</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C115" s="5">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G115" s="2">
-        <v>6.14</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5281,22 +5338,22 @@
         <v>44</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C116" s="5">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G116" s="2">
-        <v>6.6</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5304,22 +5361,22 @@
         <v>44</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C117" s="5">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G117" s="2">
-        <v>7.06</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5327,22 +5384,22 @@
         <v>44</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C118" s="5">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G118" s="2">
-        <v>7.52</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5350,22 +5407,22 @@
         <v>44</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C119" s="5">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G119" s="2">
-        <v>7.98</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5373,22 +5430,22 @@
         <v>44</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C120" s="5">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G120" s="2">
-        <v>8.44</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5396,22 +5453,22 @@
         <v>44</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C121" s="5">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G121" s="2">
-        <v>8.9</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5419,22 +5476,22 @@
         <v>44</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C122" s="5">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G122" s="2">
-        <v>9.36</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5442,22 +5499,22 @@
         <v>44</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C123" s="5">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G123" s="2">
-        <v>9.82</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5465,22 +5522,22 @@
         <v>44</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C124" s="5">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G124" s="2">
-        <v>2.46</v>
+        <v>9.36</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5488,22 +5545,22 @@
         <v>44</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C125" s="5">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G125" s="2">
-        <v>2.92</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5511,22 +5568,22 @@
         <v>44</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C126" s="5">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G126" s="2">
-        <v>3.38</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5534,22 +5591,22 @@
         <v>44</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C127" s="5">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G127" s="2">
-        <v>3.84</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5557,22 +5614,22 @@
         <v>44</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C128" s="5">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G128" s="2">
-        <v>4.3</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5580,22 +5637,22 @@
         <v>44</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C129" s="5">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G129" s="2">
-        <v>4.76</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5603,22 +5660,22 @@
         <v>44</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C130" s="5">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G130" s="2">
-        <v>5.22</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5626,22 +5683,22 @@
         <v>44</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C131" s="5">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G131" s="2">
-        <v>5.68</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5649,22 +5706,22 @@
         <v>44</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C132" s="5">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G132" s="2">
-        <v>6.14</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5672,22 +5729,22 @@
         <v>44</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C133" s="5">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G133" s="2">
-        <v>6.6</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5695,22 +5752,22 @@
         <v>44</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C134" s="5">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G134" s="2">
-        <v>7.06</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5718,22 +5775,22 @@
         <v>44</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C135" s="5">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G135" s="2">
-        <v>7.52</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5741,22 +5798,22 @@
         <v>44</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C136" s="5">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G136" s="2">
-        <v>7.98</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5764,22 +5821,22 @@
         <v>44</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C137" s="5">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G137" s="2">
-        <v>8.44</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5787,22 +5844,22 @@
         <v>44</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C138" s="5">
-        <v>683</v>
+        <v>509</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>47</v>
+        <v>249</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="G138" s="2">
-        <v>0</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5810,42 +5867,42 @@
         <v>44</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C139" s="5">
-        <v>684</v>
+        <v>510</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>47</v>
+        <v>249</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="G139" s="2">
-        <v>1</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>427</v>
+        <v>44</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C140" s="5">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>371</v>
+        <v>291</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>443</v>
+        <v>292</v>
       </c>
       <c r="G140" s="2">
         <v>0</v>
@@ -5853,22 +5910,22 @@
     </row>
     <row r="141" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>428</v>
+        <v>44</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C141" s="5">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>372</v>
+        <v>293</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>444</v>
+        <v>294</v>
       </c>
       <c r="G141" s="2">
         <v>1</v>
@@ -5876,22 +5933,22 @@
     </row>
     <row r="142" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>44</v>
+        <v>427</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C142" s="5">
-        <v>715</v>
+        <v>685</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>296</v>
+        <v>443</v>
       </c>
       <c r="G142" s="2">
         <v>0</v>
@@ -5899,25 +5956,25 @@
     </row>
     <row r="143" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>44</v>
+        <v>428</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C143" s="5">
-        <v>716</v>
+        <v>686</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>297</v>
+        <v>372</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>298</v>
+        <v>444</v>
       </c>
       <c r="G143" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5925,19 +5982,19 @@
         <v>44</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C144" s="5">
-        <v>754</v>
+        <v>715</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>157</v>
+        <v>296</v>
       </c>
       <c r="G144" s="2">
         <v>0</v>
@@ -5948,22 +6005,22 @@
         <v>44</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C145" s="5">
-        <v>755</v>
+        <v>716</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>159</v>
+        <v>298</v>
       </c>
       <c r="G145" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5971,19 +6028,19 @@
         <v>44</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C146" s="5">
-        <v>881</v>
+        <v>754</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>302</v>
+        <v>157</v>
       </c>
       <c r="G146" s="2">
         <v>0</v>
@@ -5994,19 +6051,19 @@
         <v>44</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C147" s="5">
-        <v>882</v>
+        <v>755</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>304</v>
+        <v>159</v>
       </c>
       <c r="G147" s="2">
         <v>1</v>
@@ -6017,19 +6074,19 @@
         <v>44</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C148" s="5">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G148" s="2">
         <v>0</v>
@@ -6040,19 +6097,19 @@
         <v>44</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C149" s="5">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G149" s="2">
         <v>1</v>
@@ -6063,22 +6120,22 @@
         <v>44</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C150" s="5">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G150" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -6086,22 +6143,22 @@
         <v>44</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C151" s="5">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G151" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -6109,19 +6166,19 @@
         <v>44</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C152" s="5">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G152" s="2">
         <v>1</v>
@@ -6132,22 +6189,22 @@
         <v>44</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C153" s="5">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G153" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -6155,19 +6212,19 @@
         <v>44</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C154" s="5">
-        <v>915</v>
+        <v>887</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G154" s="2">
         <v>1</v>
@@ -6178,22 +6235,22 @@
         <v>44</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C155" s="5">
-        <v>916</v>
+        <v>888</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G155" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -6201,22 +6258,22 @@
         <v>44</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C156" s="5">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G156" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -6224,19 +6281,19 @@
         <v>44</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C157" s="5">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G157" s="2">
         <v>0</v>
@@ -6247,22 +6304,22 @@
         <v>44</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C158" s="5">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G158" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -6270,19 +6327,19 @@
         <v>44</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C159" s="5">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G159" s="2">
         <v>0</v>
@@ -6293,22 +6350,22 @@
         <v>44</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C160" s="5">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G160" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -6316,19 +6373,19 @@
         <v>44</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C161" s="5">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G161" s="2">
         <v>0</v>
@@ -6339,22 +6396,22 @@
         <v>44</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C162" s="5">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G162" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -6362,19 +6419,19 @@
         <v>44</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C163" s="5">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G163" s="2">
         <v>0</v>
@@ -6385,19 +6442,19 @@
         <v>44</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C164" s="5">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G164" s="2">
         <v>1</v>
@@ -6405,22 +6462,22 @@
     </row>
     <row r="165" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>427</v>
+        <v>44</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C165" s="5">
-        <v>575</v>
-      </c>
-      <c r="D165" t="s">
-        <v>382</v>
+        <v>924</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F165" t="s">
-        <v>412</v>
+      <c r="F165" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="G165" s="2">
         <v>0</v>
@@ -6428,22 +6485,22 @@
     </row>
     <row r="166" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>428</v>
+        <v>44</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C166" s="5">
-        <v>576</v>
-      </c>
-      <c r="D166" t="s">
-        <v>383</v>
+        <v>925</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F166" t="s">
-        <v>413</v>
+      <c r="F166" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="G166" s="2">
         <v>1</v>
@@ -6451,22 +6508,22 @@
     </row>
     <row r="167" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C167" s="5">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D167" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F167" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G167" s="2">
         <v>0</v>
@@ -6474,22 +6531,22 @@
     </row>
     <row r="168" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C168" s="5">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D168" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F168" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G168" s="2">
         <v>1</v>
@@ -6497,22 +6554,22 @@
     </row>
     <row r="169" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C169" s="5">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D169" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F169" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G169" s="2">
         <v>0</v>
@@ -6520,68 +6577,68 @@
     </row>
     <row r="170" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C170" s="5">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D170" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F170" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G170" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C171" s="5">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D171" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F171" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G171" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C172" s="5">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D172" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F172" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G172" s="2">
         <v>0</v>
@@ -6589,22 +6646,22 @@
     </row>
     <row r="173" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C173" s="5">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D173" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F173" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G173" s="2">
         <v>1</v>
@@ -6612,22 +6669,22 @@
     </row>
     <row r="174" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C174" s="5">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D174" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F174" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G174" s="2">
         <v>0</v>
@@ -6635,22 +6692,22 @@
     </row>
     <row r="175" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C175" s="5">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D175" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F175" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G175" s="2">
         <v>1</v>
@@ -6658,22 +6715,22 @@
     </row>
     <row r="176" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C176" s="5">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D176" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F176" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G176" s="2">
         <v>0</v>
@@ -6681,22 +6738,22 @@
     </row>
     <row r="177" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C177" s="5">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D177" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F177" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G177" s="2">
         <v>1</v>
@@ -6704,22 +6761,22 @@
     </row>
     <row r="178" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C178" s="5">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D178" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F178" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G178" s="2">
         <v>0</v>
@@ -6727,45 +6784,45 @@
     </row>
     <row r="179" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C179" s="5">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D179" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F179" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G179" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C180" s="5">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D180" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F180" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G180" s="2">
         <v>0</v>
@@ -6773,45 +6830,45 @@
     </row>
     <row r="181" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>450</v>
+        <v>53</v>
+      </c>
+      <c r="C181" s="5">
+        <v>589</v>
       </c>
       <c r="D181" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F181" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="G181" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>451</v>
+        <v>56</v>
+      </c>
+      <c r="C182" s="5">
+        <v>590</v>
       </c>
       <c r="D182" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F182" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="G182" s="2">
         <v>0</v>
@@ -6819,22 +6876,22 @@
     </row>
     <row r="183" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D183" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F183" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G183" s="2">
         <v>1</v>
@@ -6842,22 +6899,22 @@
     </row>
     <row r="184" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D184" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F184" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G184" s="2">
         <v>0</v>
@@ -6865,22 +6922,22 @@
     </row>
     <row r="185" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D185" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F185" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G185" s="2">
         <v>1</v>
@@ -6888,98 +6945,147 @@
     </row>
     <row r="186" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C186" s="5">
-        <v>756</v>
+        <v>59</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="D186" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F186" t="s">
-        <v>161</v>
+        <v>448</v>
       </c>
       <c r="G186" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C187" s="5">
-        <v>757</v>
+        <v>62</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="D187" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F187" t="s">
-        <v>163</v>
+        <v>449</v>
       </c>
       <c r="G187" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>457</v>
+        <v>49</v>
+      </c>
+      <c r="C188" s="5">
+        <v>756</v>
       </c>
       <c r="D188" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F188" t="s">
-        <v>455</v>
+        <v>161</v>
       </c>
       <c r="G188" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C189" s="5">
+        <v>757</v>
+      </c>
+      <c r="D189" t="s">
+        <v>379</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F189" t="s">
+        <v>163</v>
+      </c>
+      <c r="G189" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D190" t="s">
+        <v>380</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F190" t="s">
+        <v>455</v>
+      </c>
+      <c r="G190" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B191" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C191" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D191" t="s">
         <v>381</v>
       </c>
-      <c r="E189" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F189" t="s">
+      <c r="E191" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F191" t="s">
         <v>456</v>
       </c>
-      <c r="G189" s="2">
+      <c r="G191" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="3"/>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="3"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C194" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6990,10 +7096,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7118,29 +7224,57 @@
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>474</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>476</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>471</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>348</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>369</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>350</v>
       </c>
     </row>
@@ -7154,7 +7288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>

--- a/prisma/seed/seed_data.xlsx
+++ b/prisma/seed/seed_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafly/Data/Dev/Project/monitoring-welding-body/prisma/seed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7446B423-5E1D-0340-9B83-CACAFEBA100B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DFB717-C100-4024-84B4-757C9B05C1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Permissions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="479">
   <si>
     <t>name</t>
   </si>
@@ -1464,6 +1464,9 @@
   </si>
   <si>
     <t>Cycle SP11</t>
+  </si>
+  <si>
+    <t>EM101E</t>
   </si>
 </sst>
 </file>
@@ -1903,13 +1906,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.35546875" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1917,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1933,7 +1936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1941,7 +1944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1949,7 +1952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1957,7 +1960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1981,7 +1984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1989,7 +1992,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>468</v>
       </c>
@@ -2018,97 +2021,97 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.35546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>369</v>
       </c>
@@ -2126,15 +2129,15 @@
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.35546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2148,7 +2151,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>398</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>399</v>
       </c>
@@ -2176,7 +2179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>400</v>
       </c>
@@ -2190,7 +2193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -2204,7 +2207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>402</v>
       </c>
@@ -2218,7 +2221,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>403</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>404</v>
       </c>
@@ -2246,7 +2249,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>405</v>
       </c>
@@ -2260,7 +2263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>406</v>
       </c>
@@ -2274,7 +2277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>407</v>
       </c>
@@ -2288,7 +2291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>408</v>
       </c>
@@ -2302,7 +2305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>409</v>
       </c>
@@ -2316,7 +2319,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>410</v>
       </c>
@@ -2330,7 +2333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>409</v>
       </c>
@@ -2344,7 +2347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>410</v>
       </c>
@@ -2358,7 +2361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>411</v>
       </c>
@@ -2372,7 +2375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>409</v>
       </c>
@@ -2386,7 +2389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>410</v>
       </c>
@@ -2414,13 +2417,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.640625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2436,7 +2439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2460,7 +2463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2468,7 +2471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2476,7 +2479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2484,7 +2487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2508,7 +2511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2516,7 +2519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2524,7 +2527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2532,7 +2535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2548,7 +2551,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2568,9 +2571,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2578,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2586,7 +2589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2606,16 +2609,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.35546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -2649,7 +2652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2676,19 +2679,19 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="41.83203125" customWidth="1"/>
+    <col min="1" max="1" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.35546875" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2711,7 +2714,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -2780,7 +2783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
@@ -2826,7 +2829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -2849,7 +2852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
@@ -2872,7 +2875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
@@ -2895,7 +2898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
@@ -2918,7 +2921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
@@ -2941,7 +2944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
@@ -2952,7 +2955,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>51</v>
@@ -2964,7 +2967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
@@ -2987,7 +2990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -3010,7 +3013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -3033,7 +3036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -3056,7 +3059,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
@@ -3102,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -3125,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -3148,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
@@ -3171,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
@@ -3194,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -3217,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
@@ -3240,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
@@ -3263,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
@@ -3332,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
@@ -3355,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>44</v>
       </c>
@@ -3378,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>44</v>
       </c>
@@ -3401,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
@@ -3424,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>44</v>
       </c>
@@ -3447,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>44</v>
       </c>
@@ -3493,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -3516,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -3539,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>44</v>
       </c>
@@ -3562,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -3585,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
@@ -3608,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>44</v>
       </c>
@@ -3631,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>44</v>
       </c>
@@ -3654,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
@@ -3677,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>44</v>
       </c>
@@ -3700,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -3723,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
@@ -3746,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
@@ -3769,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>44</v>
       </c>
@@ -3792,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>44</v>
       </c>
@@ -3815,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -3838,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>44</v>
       </c>
@@ -3861,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>44</v>
       </c>
@@ -3884,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>44</v>
       </c>
@@ -3907,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>44</v>
       </c>
@@ -3930,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>44</v>
       </c>
@@ -3953,7 +3956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>44</v>
       </c>
@@ -3976,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>44</v>
       </c>
@@ -3999,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>44</v>
       </c>
@@ -4022,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>44</v>
       </c>
@@ -4045,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>44</v>
       </c>
@@ -4068,7 +4071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>44</v>
       </c>
@@ -4091,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>44</v>
       </c>
@@ -4114,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
@@ -4137,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>44</v>
       </c>
@@ -4160,7 +4163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>44</v>
       </c>
@@ -4183,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>44</v>
       </c>
@@ -4206,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>44</v>
       </c>
@@ -4229,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>44</v>
       </c>
@@ -4252,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>44</v>
       </c>
@@ -4275,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>44</v>
       </c>
@@ -4298,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>44</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>44</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>44</v>
       </c>
@@ -4367,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>44</v>
       </c>
@@ -4390,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>44</v>
       </c>
@@ -4413,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>44</v>
       </c>
@@ -4436,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>44</v>
       </c>
@@ -4459,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>44</v>
       </c>
@@ -4482,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>44</v>
       </c>
@@ -4505,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>44</v>
       </c>
@@ -4528,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>44</v>
       </c>
@@ -4551,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>44</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>44</v>
       </c>
@@ -4597,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>44</v>
       </c>
@@ -4620,7 +4623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>44</v>
       </c>
@@ -4643,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>44</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>44</v>
       </c>
@@ -4689,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>44</v>
       </c>
@@ -4712,7 +4715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>44</v>
       </c>
@@ -4735,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>44</v>
       </c>
@@ -4758,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>44</v>
       </c>
@@ -4781,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>44</v>
       </c>
@@ -4804,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>44</v>
       </c>
@@ -4827,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>44</v>
       </c>
@@ -4850,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>44</v>
       </c>
@@ -4873,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>44</v>
       </c>
@@ -4896,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>44</v>
       </c>
@@ -4919,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>44</v>
       </c>
@@ -4942,7 +4945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>44</v>
       </c>
@@ -4965,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>44</v>
       </c>
@@ -4988,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>44</v>
       </c>
@@ -5011,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>44</v>
       </c>
@@ -5034,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>44</v>
       </c>
@@ -5057,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>44</v>
       </c>
@@ -5080,7 +5083,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>44</v>
       </c>
@@ -5103,7 +5106,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>44</v>
       </c>
@@ -5126,7 +5129,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>44</v>
       </c>
@@ -5149,7 +5152,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>44</v>
       </c>
@@ -5172,7 +5175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>44</v>
       </c>
@@ -5195,7 +5198,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>44</v>
       </c>
@@ -5218,7 +5221,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>44</v>
       </c>
@@ -5241,7 +5244,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>44</v>
       </c>
@@ -5264,7 +5267,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>44</v>
       </c>
@@ -5287,7 +5290,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>44</v>
       </c>
@@ -5310,7 +5313,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>44</v>
       </c>
@@ -5333,7 +5336,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>44</v>
       </c>
@@ -5356,7 +5359,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>44</v>
       </c>
@@ -5379,7 +5382,7 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>44</v>
       </c>
@@ -5402,7 +5405,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>44</v>
       </c>
@@ -5425,7 +5428,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>44</v>
       </c>
@@ -5448,7 +5451,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>44</v>
       </c>
@@ -5471,7 +5474,7 @@
         <v>7.98</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>44</v>
       </c>
@@ -5494,7 +5497,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>44</v>
       </c>
@@ -5517,7 +5520,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>44</v>
       </c>
@@ -5540,7 +5543,7 @@
         <v>9.36</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>44</v>
       </c>
@@ -5563,7 +5566,7 @@
         <v>9.82</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>44</v>
       </c>
@@ -5586,7 +5589,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>44</v>
       </c>
@@ -5609,7 +5612,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>44</v>
       </c>
@@ -5632,7 +5635,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>44</v>
       </c>
@@ -5655,7 +5658,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>44</v>
       </c>
@@ -5678,7 +5681,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>44</v>
       </c>
@@ -5701,7 +5704,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>44</v>
       </c>
@@ -5724,7 +5727,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>44</v>
       </c>
@@ -5747,7 +5750,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>44</v>
       </c>
@@ -5770,7 +5773,7 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>44</v>
       </c>
@@ -5793,7 +5796,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>44</v>
       </c>
@@ -5816,7 +5819,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>44</v>
       </c>
@@ -5839,7 +5842,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>44</v>
       </c>
@@ -5862,7 +5865,7 @@
         <v>7.98</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
         <v>44</v>
       </c>
@@ -5885,7 +5888,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>44</v>
       </c>
@@ -5908,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>44</v>
       </c>
@@ -5931,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>427</v>
       </c>
@@ -5954,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>428</v>
       </c>
@@ -5977,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>44</v>
       </c>
@@ -6000,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>44</v>
       </c>
@@ -6023,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>44</v>
       </c>
@@ -6046,7 +6049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>44</v>
       </c>
@@ -6069,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>44</v>
       </c>
@@ -6092,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
         <v>44</v>
       </c>
@@ -6115,7 +6118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>44</v>
       </c>
@@ -6138,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>44</v>
       </c>
@@ -6161,7 +6164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>44</v>
       </c>
@@ -6184,7 +6187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>44</v>
       </c>
@@ -6207,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>44</v>
       </c>
@@ -6230,7 +6233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>44</v>
       </c>
@@ -6253,7 +6256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>44</v>
       </c>
@@ -6276,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>44</v>
       </c>
@@ -6299,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>44</v>
       </c>
@@ -6322,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
         <v>44</v>
       </c>
@@ -6345,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
         <v>44</v>
       </c>
@@ -6368,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" s="3" t="s">
         <v>44</v>
       </c>
@@ -6391,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
         <v>44</v>
       </c>
@@ -6414,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" s="3" t="s">
         <v>44</v>
       </c>
@@ -6437,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
         <v>44</v>
       </c>
@@ -6460,7 +6463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" s="3" t="s">
         <v>44</v>
       </c>
@@ -6483,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="s">
         <v>44</v>
       </c>
@@ -6506,7 +6509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" s="3" t="s">
         <v>427</v>
       </c>
@@ -6529,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
         <v>428</v>
       </c>
@@ -6552,7 +6555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" s="3" t="s">
         <v>429</v>
       </c>
@@ -6575,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
         <v>430</v>
       </c>
@@ -6598,7 +6601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" s="3" t="s">
         <v>431</v>
       </c>
@@ -6621,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" s="3" t="s">
         <v>432</v>
       </c>
@@ -6644,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" s="3" t="s">
         <v>433</v>
       </c>
@@ -6667,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174" s="3" t="s">
         <v>434</v>
       </c>
@@ -6690,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" s="3" t="s">
         <v>435</v>
       </c>
@@ -6713,7 +6716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176" s="3" t="s">
         <v>436</v>
       </c>
@@ -6736,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177" s="3" t="s">
         <v>437</v>
       </c>
@@ -6759,7 +6762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178" s="3" t="s">
         <v>438</v>
       </c>
@@ -6782,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179" s="3" t="s">
         <v>439</v>
       </c>
@@ -6805,7 +6808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180" s="3" t="s">
         <v>440</v>
       </c>
@@ -6828,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181" s="3" t="s">
         <v>441</v>
       </c>
@@ -6851,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182" s="3" t="s">
         <v>442</v>
       </c>
@@ -6874,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183" s="3" t="s">
         <v>459</v>
       </c>
@@ -6897,7 +6900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184" s="3" t="s">
         <v>460</v>
       </c>
@@ -6920,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185" s="3" t="s">
         <v>461</v>
       </c>
@@ -6943,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186" s="3" t="s">
         <v>462</v>
       </c>
@@ -6966,7 +6969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187" s="3" t="s">
         <v>463</v>
       </c>
@@ -6989,7 +6992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188" s="3" t="s">
         <v>464</v>
       </c>
@@ -7012,7 +7015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189" s="3" t="s">
         <v>465</v>
       </c>
@@ -7035,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190" s="3" t="s">
         <v>466</v>
       </c>
@@ -7058,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191" s="3" t="s">
         <v>467</v>
       </c>
@@ -7081,10 +7084,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192" s="3"/>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C194" s="6"/>
     </row>
   </sheetData>
@@ -7102,15 +7105,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7124,7 +7127,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>340</v>
       </c>
@@ -7138,7 +7141,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>341</v>
       </c>
@@ -7152,7 +7155,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>342</v>
       </c>
@@ -7166,7 +7169,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>343</v>
       </c>
@@ -7180,7 +7183,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>344</v>
       </c>
@@ -7194,7 +7197,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>345</v>
       </c>
@@ -7208,7 +7211,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>346</v>
       </c>
@@ -7222,7 +7225,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>474</v>
       </c>
@@ -7236,7 +7239,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>347</v>
       </c>
@@ -7250,7 +7253,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>475</v>
       </c>
@@ -7264,7 +7267,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>348</v>
       </c>
@@ -7288,17 +7291,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>370</v>
       </c>
@@ -7306,7 +7309,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>340</v>
       </c>
@@ -7314,7 +7317,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>340</v>
       </c>
@@ -7322,7 +7325,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>340</v>
       </c>
@@ -7330,7 +7333,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>340</v>
       </c>
@@ -7338,7 +7341,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>345</v>
       </c>
@@ -7346,7 +7349,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>345</v>
       </c>
@@ -7354,7 +7357,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>345</v>
       </c>
@@ -7362,7 +7365,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>345</v>
       </c>
@@ -7370,7 +7373,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>345</v>
       </c>
@@ -7378,7 +7381,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>345</v>
       </c>
@@ -7386,7 +7389,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>345</v>
       </c>
@@ -7394,7 +7397,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>346</v>
       </c>
@@ -7402,7 +7405,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>346</v>
       </c>
@@ -7410,7 +7413,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>346</v>
       </c>
@@ -7418,7 +7421,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>346</v>
       </c>
@@ -7426,7 +7429,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>346</v>
       </c>
@@ -7434,7 +7437,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>346</v>
       </c>
@@ -7456,12 +7459,12 @@
       <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7469,7 +7472,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>349</v>
       </c>
@@ -7477,7 +7480,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>350</v>
       </c>
@@ -7485,7 +7488,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>351</v>
       </c>
@@ -7493,7 +7496,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>352</v>
       </c>
@@ -7501,7 +7504,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>353</v>
       </c>
@@ -7509,7 +7512,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>354</v>
       </c>
@@ -7531,13 +7534,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>337</v>
       </c>
@@ -7545,7 +7548,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>349</v>
       </c>
@@ -7553,7 +7556,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>349</v>
       </c>
@@ -7561,7 +7564,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>349</v>
       </c>
@@ -7569,7 +7572,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>349</v>
       </c>
@@ -7577,7 +7580,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>349</v>
       </c>
@@ -7585,7 +7588,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>349</v>
       </c>
@@ -7593,7 +7596,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>349</v>
       </c>
@@ -7601,7 +7604,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>349</v>
       </c>
@@ -7609,7 +7612,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>349</v>
       </c>
@@ -7617,7 +7620,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>349</v>
       </c>
@@ -7625,7 +7628,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>349</v>
       </c>
@@ -7633,7 +7636,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>349</v>
       </c>
@@ -7641,7 +7644,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>349</v>
       </c>
@@ -7649,7 +7652,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>349</v>
       </c>
@@ -7657,7 +7660,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>349</v>
       </c>
@@ -7665,7 +7668,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>349</v>
       </c>

--- a/prisma/seed/seed_data.xlsx
+++ b/prisma/seed/seed_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafly/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6150A2-D1AB-2540-BA70-D8CADD86D624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EF07C6-7860-DA46-B68B-C29877DBCF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="500" windowWidth="24900" windowHeight="14920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Permissions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="467">
   <si>
     <t>name</t>
   </si>
@@ -1419,6 +1419,18 @@
   </si>
   <si>
     <t>EIP OHC 6 FAULT</t>
+  </si>
+  <si>
+    <t>currentMotorLifter</t>
+  </si>
+  <si>
+    <t>currentMotorTransfer</t>
+  </si>
+  <si>
+    <t>tempMotorLifter</t>
+  </si>
+  <si>
+    <t>tempMotorTransfer</t>
   </si>
 </sst>
 </file>
@@ -2608,8 +2620,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2686,7 +2698,7 @@
         <v>51</v>
       </c>
       <c r="G3" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2709,7 +2721,7 @@
         <v>54</v>
       </c>
       <c r="G4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2755,7 +2767,7 @@
         <v>60</v>
       </c>
       <c r="G6" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2824,7 +2836,7 @@
         <v>67</v>
       </c>
       <c r="G9" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2847,7 +2859,7 @@
         <v>444</v>
       </c>
       <c r="G10" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2870,7 +2882,7 @@
         <v>69</v>
       </c>
       <c r="G11" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2893,7 +2905,7 @@
         <v>446</v>
       </c>
       <c r="G12" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2916,7 +2928,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2962,7 +2974,7 @@
         <v>458</v>
       </c>
       <c r="G15" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2985,7 +2997,7 @@
         <v>459</v>
       </c>
       <c r="G16" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3008,7 +3020,7 @@
         <v>460</v>
       </c>
       <c r="G17" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3031,7 +3043,7 @@
         <v>461</v>
       </c>
       <c r="G18" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3054,7 +3066,7 @@
         <v>462</v>
       </c>
       <c r="G19" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -4805,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>457</v>
       </c>
@@ -7139,7 +7151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -7491,19 +7503,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7513,8 +7529,20 @@
       <c r="C1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>348</v>
       </c>
@@ -7524,8 +7552,20 @@
       <c r="C2" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>349</v>
       </c>
@@ -7535,8 +7575,20 @@
       <c r="C3" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>350</v>
       </c>
@@ -7546,8 +7598,20 @@
       <c r="C4" s="2" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>351</v>
       </c>
@@ -7557,8 +7621,20 @@
       <c r="C5" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>352</v>
       </c>
@@ -7568,8 +7644,20 @@
       <c r="C6" s="2" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -7578,6 +7666,18 @@
       </c>
       <c r="C7" s="2" t="s">
         <v>456</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/prisma/seed/seed_data.xlsx
+++ b/prisma/seed/seed_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafly/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EF07C6-7860-DA46-B68B-C29877DBCF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9B07A5-19D7-8E4D-9A7A-1651996CEBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Permissions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="473">
   <si>
     <t>name</t>
   </si>
@@ -1049,33 +1049,6 @@
     <t>standardValue</t>
   </si>
   <si>
-    <t>SP1</t>
-  </si>
-  <si>
-    <t>SP2</t>
-  </si>
-  <si>
-    <t>SP3</t>
-  </si>
-  <si>
-    <t>SP4</t>
-  </si>
-  <si>
-    <t>SP6</t>
-  </si>
-  <si>
-    <t>SP7</t>
-  </si>
-  <si>
-    <t>SP8</t>
-  </si>
-  <si>
-    <t>SP10</t>
-  </si>
-  <si>
-    <t>SP0</t>
-  </si>
-  <si>
     <t>OHC1</t>
   </si>
   <si>
@@ -1373,12 +1346,6 @@
     <t>DATA PL ID SP11 STOP</t>
   </si>
   <si>
-    <t>SP9</t>
-  </si>
-  <si>
-    <t>SP11</t>
-  </si>
-  <si>
     <t>Cycle SP9</t>
   </si>
   <si>
@@ -1431,6 +1398,57 @@
   </si>
   <si>
     <t>tempMotorTransfer</t>
+  </si>
+  <si>
+    <t>OHC 1</t>
+  </si>
+  <si>
+    <t>OHC 2</t>
+  </si>
+  <si>
+    <t>OHC 3</t>
+  </si>
+  <si>
+    <t>OHC 4</t>
+  </si>
+  <si>
+    <t>OHC 5</t>
+  </si>
+  <si>
+    <t>OHC 6</t>
+  </si>
+  <si>
+    <t>SP 1</t>
+  </si>
+  <si>
+    <t>SP 2</t>
+  </si>
+  <si>
+    <t>SP 3</t>
+  </si>
+  <si>
+    <t>SP 4</t>
+  </si>
+  <si>
+    <t>SP 6</t>
+  </si>
+  <si>
+    <t>SP 7</t>
+  </si>
+  <si>
+    <t>SP 8</t>
+  </si>
+  <si>
+    <t>SP 9</t>
+  </si>
+  <si>
+    <t>SP 10</t>
+  </si>
+  <si>
+    <t>SP 11</t>
+  </si>
+  <si>
+    <t>SP 0</t>
   </si>
 </sst>
 </file>
@@ -1943,10 +1961,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B12" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -1958,7 +1976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1974,87 +1992,87 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -2094,10 +2112,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2108,10 +2126,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2122,10 +2140,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2136,10 +2154,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2150,10 +2168,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2164,10 +2182,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2178,10 +2196,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2192,10 +2210,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2206,10 +2224,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2220,10 +2238,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2234,10 +2252,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B12" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2248,10 +2266,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B13" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2262,10 +2280,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B14" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2276,10 +2294,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B15" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2290,10 +2308,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B16" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2304,10 +2322,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B17" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2318,10 +2336,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B18" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2332,10 +2350,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B19" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2489,7 +2507,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2497,7 +2515,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -2620,8 +2638,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2657,7 +2675,7 @@
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>44</v>
@@ -2680,7 +2698,7 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>48</v>
@@ -2703,7 +2721,7 @@
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>52</v>
@@ -2726,7 +2744,7 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>55</v>
@@ -2749,7 +2767,7 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>58</v>
@@ -2772,7 +2790,7 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>61</v>
@@ -2795,7 +2813,7 @@
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>44</v>
@@ -2818,7 +2836,7 @@
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>48</v>
@@ -2841,7 +2859,7 @@
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>48</v>
@@ -2850,13 +2868,13 @@
         <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -2864,7 +2882,7 @@
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>52</v>
@@ -2887,7 +2905,7 @@
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>52</v>
@@ -2896,13 +2914,13 @@
         <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -2910,7 +2928,7 @@
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>55</v>
@@ -2933,7 +2951,7 @@
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>58</v>
@@ -2956,7 +2974,7 @@
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>44</v>
@@ -2965,13 +2983,13 @@
         <v>926</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -2979,7 +2997,7 @@
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>48</v>
@@ -2988,13 +3006,13 @@
         <v>927</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -3002,7 +3020,7 @@
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>48</v>
@@ -3011,13 +3029,13 @@
         <v>928</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -3025,7 +3043,7 @@
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>52</v>
@@ -3034,13 +3052,13 @@
         <v>929</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -3048,7 +3066,7 @@
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>52</v>
@@ -3057,13 +3075,13 @@
         <v>930</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -3071,7 +3089,7 @@
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>55</v>
@@ -3094,7 +3112,7 @@
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>58</v>
@@ -3117,7 +3135,7 @@
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>44</v>
@@ -3140,7 +3158,7 @@
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>48</v>
@@ -3163,7 +3181,7 @@
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>48</v>
@@ -3186,7 +3204,7 @@
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>52</v>
@@ -3209,7 +3227,7 @@
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>52</v>
@@ -3232,7 +3250,7 @@
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>44</v>
@@ -3255,7 +3273,7 @@
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>48</v>
@@ -3278,7 +3296,7 @@
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>52</v>
@@ -3301,7 +3319,7 @@
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>55</v>
@@ -3324,7 +3342,7 @@
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>58</v>
@@ -3347,7 +3365,7 @@
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>61</v>
@@ -3370,7 +3388,7 @@
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>44</v>
@@ -3393,7 +3411,7 @@
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>48</v>
@@ -3416,7 +3434,7 @@
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>52</v>
@@ -3439,7 +3457,7 @@
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>55</v>
@@ -3462,7 +3480,7 @@
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>58</v>
@@ -3485,7 +3503,7 @@
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>61</v>
@@ -3508,7 +3526,7 @@
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>44</v>
@@ -3531,7 +3549,7 @@
     </row>
     <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>48</v>
@@ -3554,7 +3572,7 @@
     </row>
     <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>52</v>
@@ -3577,7 +3595,7 @@
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>55</v>
@@ -3600,7 +3618,7 @@
     </row>
     <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>58</v>
@@ -3623,7 +3641,7 @@
     </row>
     <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>61</v>
@@ -3646,7 +3664,7 @@
     </row>
     <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>44</v>
@@ -3669,7 +3687,7 @@
     </row>
     <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>48</v>
@@ -3692,7 +3710,7 @@
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>52</v>
@@ -3715,7 +3733,7 @@
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>55</v>
@@ -3738,7 +3756,7 @@
     </row>
     <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>44</v>
@@ -3761,7 +3779,7 @@
     </row>
     <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>48</v>
@@ -3784,7 +3802,7 @@
     </row>
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>52</v>
@@ -3807,7 +3825,7 @@
     </row>
     <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>55</v>
@@ -3830,7 +3848,7 @@
     </row>
     <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>58</v>
@@ -3853,7 +3871,7 @@
     </row>
     <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>61</v>
@@ -3876,7 +3894,7 @@
     </row>
     <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>44</v>
@@ -3899,7 +3917,7 @@
     </row>
     <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>48</v>
@@ -3922,7 +3940,7 @@
     </row>
     <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>52</v>
@@ -3945,7 +3963,7 @@
     </row>
     <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>55</v>
@@ -3968,7 +3986,7 @@
     </row>
     <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>58</v>
@@ -3991,7 +4009,7 @@
     </row>
     <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>61</v>
@@ -4014,7 +4032,7 @@
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>44</v>
@@ -4037,7 +4055,7 @@
     </row>
     <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>48</v>
@@ -4060,7 +4078,7 @@
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>52</v>
@@ -4083,7 +4101,7 @@
     </row>
     <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>55</v>
@@ -4106,7 +4124,7 @@
     </row>
     <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>58</v>
@@ -4129,7 +4147,7 @@
     </row>
     <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>61</v>
@@ -4152,7 +4170,7 @@
     </row>
     <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>44</v>
@@ -4175,7 +4193,7 @@
     </row>
     <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>48</v>
@@ -4198,7 +4216,7 @@
     </row>
     <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>52</v>
@@ -4221,7 +4239,7 @@
     </row>
     <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>55</v>
@@ -4244,7 +4262,7 @@
     </row>
     <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>58</v>
@@ -4267,7 +4285,7 @@
     </row>
     <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>61</v>
@@ -4290,7 +4308,7 @@
     </row>
     <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>44</v>
@@ -4313,7 +4331,7 @@
     </row>
     <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>48</v>
@@ -4336,7 +4354,7 @@
     </row>
     <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>52</v>
@@ -4359,7 +4377,7 @@
     </row>
     <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>55</v>
@@ -4382,7 +4400,7 @@
     </row>
     <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>58</v>
@@ -4405,7 +4423,7 @@
     </row>
     <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>61</v>
@@ -4428,7 +4446,7 @@
     </row>
     <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>44</v>
@@ -4451,7 +4469,7 @@
     </row>
     <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>48</v>
@@ -4474,7 +4492,7 @@
     </row>
     <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>52</v>
@@ -4497,7 +4515,7 @@
     </row>
     <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>55</v>
@@ -4520,7 +4538,7 @@
     </row>
     <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>58</v>
@@ -4543,7 +4561,7 @@
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>61</v>
@@ -4566,7 +4584,7 @@
     </row>
     <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>44</v>
@@ -4589,7 +4607,7 @@
     </row>
     <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>48</v>
@@ -4612,7 +4630,7 @@
     </row>
     <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>52</v>
@@ -4635,7 +4653,7 @@
     </row>
     <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>55</v>
@@ -4658,7 +4676,7 @@
     </row>
     <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>44</v>
@@ -4681,7 +4699,7 @@
     </row>
     <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>48</v>
@@ -4704,7 +4722,7 @@
     </row>
     <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>52</v>
@@ -4727,7 +4745,7 @@
     </row>
     <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>55</v>
@@ -4750,7 +4768,7 @@
     </row>
     <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>58</v>
@@ -4773,7 +4791,7 @@
     </row>
     <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>61</v>
@@ -4796,7 +4814,7 @@
     </row>
     <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>44</v>
@@ -4819,7 +4837,7 @@
     </row>
     <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>48</v>
@@ -4842,7 +4860,7 @@
     </row>
     <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>52</v>
@@ -4865,7 +4883,7 @@
     </row>
     <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>55</v>
@@ -4888,7 +4906,7 @@
     </row>
     <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>58</v>
@@ -4911,7 +4929,7 @@
     </row>
     <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>61</v>
@@ -4934,7 +4952,7 @@
     </row>
     <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>44</v>
@@ -4957,7 +4975,7 @@
     </row>
     <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>48</v>
@@ -4980,7 +4998,7 @@
     </row>
     <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>52</v>
@@ -5003,7 +5021,7 @@
     </row>
     <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>55</v>
@@ -5026,7 +5044,7 @@
     </row>
     <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>58</v>
@@ -5049,7 +5067,7 @@
     </row>
     <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>61</v>
@@ -5072,7 +5090,7 @@
     </row>
     <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>44</v>
@@ -5095,7 +5113,7 @@
     </row>
     <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>48</v>
@@ -5118,7 +5136,7 @@
     </row>
     <row r="109" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>52</v>
@@ -5141,7 +5159,7 @@
     </row>
     <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>55</v>
@@ -5164,7 +5182,7 @@
     </row>
     <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>58</v>
@@ -5187,7 +5205,7 @@
     </row>
     <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>61</v>
@@ -5210,7 +5228,7 @@
     </row>
     <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>44</v>
@@ -5233,7 +5251,7 @@
     </row>
     <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>48</v>
@@ -5256,7 +5274,7 @@
     </row>
     <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>52</v>
@@ -5279,7 +5297,7 @@
     </row>
     <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>55</v>
@@ -5302,7 +5320,7 @@
     </row>
     <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>58</v>
@@ -5325,7 +5343,7 @@
     </row>
     <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>61</v>
@@ -5348,7 +5366,7 @@
     </row>
     <row r="119" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>44</v>
@@ -5371,7 +5389,7 @@
     </row>
     <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>48</v>
@@ -5394,7 +5412,7 @@
     </row>
     <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>52</v>
@@ -5417,7 +5435,7 @@
     </row>
     <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>55</v>
@@ -5440,7 +5458,7 @@
     </row>
     <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>58</v>
@@ -5463,7 +5481,7 @@
     </row>
     <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>61</v>
@@ -5486,7 +5504,7 @@
     </row>
     <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>44</v>
@@ -5509,7 +5527,7 @@
     </row>
     <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>48</v>
@@ -5532,7 +5550,7 @@
     </row>
     <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>52</v>
@@ -5555,7 +5573,7 @@
     </row>
     <row r="128" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>55</v>
@@ -5578,7 +5596,7 @@
     </row>
     <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>44</v>
@@ -5601,7 +5619,7 @@
     </row>
     <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>48</v>
@@ -5624,7 +5642,7 @@
     </row>
     <row r="131" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>52</v>
@@ -5647,7 +5665,7 @@
     </row>
     <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>55</v>
@@ -5670,7 +5688,7 @@
     </row>
     <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>58</v>
@@ -5693,7 +5711,7 @@
     </row>
     <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>61</v>
@@ -5716,7 +5734,7 @@
     </row>
     <row r="135" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>44</v>
@@ -5739,7 +5757,7 @@
     </row>
     <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>48</v>
@@ -5762,7 +5780,7 @@
     </row>
     <row r="137" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>52</v>
@@ -5785,7 +5803,7 @@
     </row>
     <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>55</v>
@@ -5808,7 +5826,7 @@
     </row>
     <row r="139" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>58</v>
@@ -5831,7 +5849,7 @@
     </row>
     <row r="140" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>61</v>
@@ -5854,7 +5872,7 @@
     </row>
     <row r="141" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>44</v>
@@ -5877,7 +5895,7 @@
     </row>
     <row r="142" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>48</v>
@@ -5900,7 +5918,7 @@
     </row>
     <row r="143" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>52</v>
@@ -5923,7 +5941,7 @@
     </row>
     <row r="144" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>55</v>
@@ -5946,7 +5964,7 @@
     </row>
     <row r="145" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>58</v>
@@ -5969,7 +5987,7 @@
     </row>
     <row r="146" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>61</v>
@@ -5992,7 +6010,7 @@
     </row>
     <row r="147" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>48</v>
@@ -6001,13 +6019,13 @@
         <v>685</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G147" s="2">
         <v>0</v>
@@ -6015,7 +6033,7 @@
     </row>
     <row r="148" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>52</v>
@@ -6024,13 +6042,13 @@
         <v>686</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="G148" s="2">
         <v>1</v>
@@ -6038,7 +6056,7 @@
     </row>
     <row r="149" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>44</v>
@@ -6061,7 +6079,7 @@
     </row>
     <row r="150" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>48</v>
@@ -6084,7 +6102,7 @@
     </row>
     <row r="151" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>52</v>
@@ -6107,7 +6125,7 @@
     </row>
     <row r="152" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>55</v>
@@ -6130,7 +6148,7 @@
     </row>
     <row r="153" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>58</v>
@@ -6153,7 +6171,7 @@
     </row>
     <row r="154" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>61</v>
@@ -6176,7 +6194,7 @@
     </row>
     <row r="155" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>44</v>
@@ -6199,7 +6217,7 @@
     </row>
     <row r="156" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>48</v>
@@ -6222,7 +6240,7 @@
     </row>
     <row r="157" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>52</v>
@@ -6245,7 +6263,7 @@
     </row>
     <row r="158" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>55</v>
@@ -6268,7 +6286,7 @@
     </row>
     <row r="159" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>58</v>
@@ -6291,7 +6309,7 @@
     </row>
     <row r="160" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>61</v>
@@ -6314,7 +6332,7 @@
     </row>
     <row r="161" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>44</v>
@@ -6337,7 +6355,7 @@
     </row>
     <row r="162" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>48</v>
@@ -6360,7 +6378,7 @@
     </row>
     <row r="163" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>52</v>
@@ -6383,7 +6401,7 @@
     </row>
     <row r="164" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>55</v>
@@ -6406,7 +6424,7 @@
     </row>
     <row r="165" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>58</v>
@@ -6429,7 +6447,7 @@
     </row>
     <row r="166" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>61</v>
@@ -6452,7 +6470,7 @@
     </row>
     <row r="167" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>44</v>
@@ -6475,7 +6493,7 @@
     </row>
     <row r="168" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>48</v>
@@ -6498,7 +6516,7 @@
     </row>
     <row r="169" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>52</v>
@@ -6521,7 +6539,7 @@
     </row>
     <row r="170" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>55</v>
@@ -6544,7 +6562,7 @@
     </row>
     <row r="171" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>58</v>
@@ -6567,7 +6585,7 @@
     </row>
     <row r="172" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>44</v>
@@ -6576,13 +6594,13 @@
         <v>575</v>
       </c>
       <c r="D172" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F172" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="G172" s="2">
         <v>0</v>
@@ -6590,7 +6608,7 @@
     </row>
     <row r="173" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>48</v>
@@ -6599,13 +6617,13 @@
         <v>576</v>
       </c>
       <c r="D173" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F173" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G173" s="2">
         <v>1</v>
@@ -6613,7 +6631,7 @@
     </row>
     <row r="174" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>52</v>
@@ -6622,13 +6640,13 @@
         <v>577</v>
       </c>
       <c r="D174" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F174" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G174" s="2">
         <v>0</v>
@@ -6636,7 +6654,7 @@
     </row>
     <row r="175" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>55</v>
@@ -6645,13 +6663,13 @@
         <v>578</v>
       </c>
       <c r="D175" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F175" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G175" s="2">
         <v>1</v>
@@ -6659,7 +6677,7 @@
     </row>
     <row r="176" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>58</v>
@@ -6668,13 +6686,13 @@
         <v>579</v>
       </c>
       <c r="D176" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F176" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G176" s="2">
         <v>0</v>
@@ -6682,7 +6700,7 @@
     </row>
     <row r="177" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>61</v>
@@ -6691,13 +6709,13 @@
         <v>580</v>
       </c>
       <c r="D177" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F177" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G177" s="2">
         <v>0</v>
@@ -6705,7 +6723,7 @@
     </row>
     <row r="178" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>44</v>
@@ -6714,13 +6732,13 @@
         <v>581</v>
       </c>
       <c r="D178" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F178" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="G178" s="2">
         <v>1</v>
@@ -6728,7 +6746,7 @@
     </row>
     <row r="179" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>48</v>
@@ -6737,13 +6755,13 @@
         <v>582</v>
       </c>
       <c r="D179" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F179" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G179" s="2">
         <v>0</v>
@@ -6751,7 +6769,7 @@
     </row>
     <row r="180" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>52</v>
@@ -6760,13 +6778,13 @@
         <v>583</v>
       </c>
       <c r="D180" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F180" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G180" s="2">
         <v>1</v>
@@ -6774,7 +6792,7 @@
     </row>
     <row r="181" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>55</v>
@@ -6783,13 +6801,13 @@
         <v>584</v>
       </c>
       <c r="D181" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F181" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G181" s="2">
         <v>0</v>
@@ -6797,7 +6815,7 @@
     </row>
     <row r="182" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>58</v>
@@ -6806,13 +6824,13 @@
         <v>585</v>
       </c>
       <c r="D182" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F182" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="G182" s="2">
         <v>1</v>
@@ -6820,7 +6838,7 @@
     </row>
     <row r="183" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>61</v>
@@ -6829,13 +6847,13 @@
         <v>586</v>
       </c>
       <c r="D183" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F183" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G183" s="2">
         <v>0</v>
@@ -6843,7 +6861,7 @@
     </row>
     <row r="184" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>44</v>
@@ -6852,13 +6870,13 @@
         <v>587</v>
       </c>
       <c r="D184" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F184" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="G184" s="2">
         <v>1</v>
@@ -6866,7 +6884,7 @@
     </row>
     <row r="185" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>48</v>
@@ -6875,13 +6893,13 @@
         <v>588</v>
       </c>
       <c r="D185" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F185" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G185" s="2">
         <v>0</v>
@@ -6889,7 +6907,7 @@
     </row>
     <row r="186" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>52</v>
@@ -6898,13 +6916,13 @@
         <v>589</v>
       </c>
       <c r="D186" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F186" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="G186" s="2">
         <v>0</v>
@@ -6912,7 +6930,7 @@
     </row>
     <row r="187" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>55</v>
@@ -6921,13 +6939,13 @@
         <v>590</v>
       </c>
       <c r="D187" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F187" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="G187" s="2">
         <v>0</v>
@@ -6935,22 +6953,22 @@
     </row>
     <row r="188" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D188" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F188" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G188" s="2">
         <v>1</v>
@@ -6958,22 +6976,22 @@
     </row>
     <row r="189" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D189" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F189" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="G189" s="2">
         <v>0</v>
@@ -6981,22 +6999,22 @@
     </row>
     <row r="190" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D190" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F190" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G190" s="2">
         <v>1</v>
@@ -7004,22 +7022,22 @@
     </row>
     <row r="191" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D191" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F191" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="G191" s="2">
         <v>0</v>
@@ -7027,22 +7045,22 @@
     </row>
     <row r="192" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D192" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F192" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="G192" s="2">
         <v>1</v>
@@ -7050,7 +7068,7 @@
     </row>
     <row r="193" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>48</v>
@@ -7059,7 +7077,7 @@
         <v>756</v>
       </c>
       <c r="D193" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>46</v>
@@ -7073,7 +7091,7 @@
     </row>
     <row r="194" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>52</v>
@@ -7082,7 +7100,7 @@
         <v>757</v>
       </c>
       <c r="D194" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>46</v>
@@ -7096,22 +7114,22 @@
     </row>
     <row r="195" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D195" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F195" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G195" s="2">
         <v>0</v>
@@ -7119,22 +7137,22 @@
     </row>
     <row r="196" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D196" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F196" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="G196" s="2">
         <v>1</v>
@@ -7151,8 +7169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7179,156 +7197,156 @@
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>462</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>463</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>464</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>465</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>466</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>467</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>468</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="B9" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>346</v>
+        <v>470</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="B11" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>347</v>
+        <v>472</v>
       </c>
       <c r="B12" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -7342,7 +7360,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7353,7 +7371,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B1" t="s">
         <v>334</v>
@@ -7361,7 +7379,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>462</v>
       </c>
       <c r="B2" t="s">
         <v>290</v>
@@ -7369,7 +7387,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>462</v>
       </c>
       <c r="B3" t="s">
         <v>292</v>
@@ -7377,23 +7395,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>462</v>
       </c>
       <c r="B4" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>462</v>
       </c>
       <c r="B5" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>467</v>
       </c>
       <c r="B6" t="s">
         <v>294</v>
@@ -7401,7 +7419,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>467</v>
       </c>
       <c r="B7" t="s">
         <v>296</v>
@@ -7409,47 +7427,47 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>467</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>467</v>
       </c>
       <c r="B9" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>344</v>
+        <v>467</v>
       </c>
       <c r="B10" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>344</v>
+        <v>467</v>
       </c>
       <c r="B11" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>467</v>
       </c>
       <c r="B12" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>468</v>
       </c>
       <c r="B13" t="s">
         <v>298</v>
@@ -7457,7 +7475,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>345</v>
+        <v>468</v>
       </c>
       <c r="B14" t="s">
         <v>299</v>
@@ -7465,34 +7483,34 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>345</v>
+        <v>468</v>
       </c>
       <c r="B15" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>345</v>
+        <v>468</v>
       </c>
       <c r="B16" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>345</v>
+        <v>468</v>
       </c>
       <c r="B17" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>345</v>
+        <v>468</v>
       </c>
       <c r="B18" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -7505,8 +7523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7530,24 +7548,24 @@
         <v>334</v>
       </c>
       <c r="D1" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="F1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="G1" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>72</v>
@@ -7567,13 +7585,13 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>457</v>
       </c>
       <c r="B3" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>263</v>
@@ -7590,13 +7608,13 @@
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>269</v>
@@ -7613,13 +7631,13 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>459</v>
       </c>
       <c r="B5" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>275</v>
@@ -7636,13 +7654,13 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>460</v>
       </c>
       <c r="B6" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>281</v>
@@ -7659,13 +7677,13 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>461</v>
       </c>
       <c r="B7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>287</v>
@@ -7691,7 +7709,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7710,130 +7728,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="B5" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="B6" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="B8" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="B9" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="B11" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="B12" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="B13" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="B14" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="B15" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="B16" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="B17" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/prisma/seed/seed_data.xlsx
+++ b/prisma/seed/seed_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafly/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9B07A5-19D7-8E4D-9A7A-1651996CEBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B47216-E1A2-4449-89A5-99778C333727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="467">
   <si>
     <t>name</t>
   </si>
@@ -1047,24 +1047,6 @@
   </si>
   <si>
     <t>standardValue</t>
-  </si>
-  <si>
-    <t>OHC1</t>
-  </si>
-  <si>
-    <t>OHC2</t>
-  </si>
-  <si>
-    <t>OHC3</t>
-  </si>
-  <si>
-    <t>OHC4</t>
-  </si>
-  <si>
-    <t>OHC5</t>
-  </si>
-  <si>
-    <t>OHC6</t>
   </si>
   <si>
     <t>Cycle OHC1</t>
@@ -1961,10 +1943,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B12" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -1992,87 +1974,87 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -2112,10 +2094,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2126,10 +2108,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2140,10 +2122,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2154,10 +2136,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B5" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2168,10 +2150,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2182,10 +2164,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2196,10 +2178,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B8" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2210,10 +2192,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2224,10 +2206,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2238,10 +2220,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B11" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2252,10 +2234,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B12" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2266,10 +2248,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B13" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2280,10 +2262,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B14" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2294,10 +2276,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B15" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2308,10 +2290,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B16" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2322,10 +2304,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B17" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2336,10 +2318,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B18" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2350,10 +2332,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B19" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2507,7 +2489,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2515,7 +2497,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -2638,8 +2620,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2675,7 +2657,7 @@
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>44</v>
@@ -2698,7 +2680,7 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>48</v>
@@ -2716,12 +2698,12 @@
         <v>51</v>
       </c>
       <c r="G3" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>52</v>
@@ -2739,12 +2721,12 @@
         <v>54</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>55</v>
@@ -2767,7 +2749,7 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>58</v>
@@ -2785,12 +2767,12 @@
         <v>60</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>61</v>
@@ -2813,7 +2795,7 @@
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>44</v>
@@ -2836,7 +2818,7 @@
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>48</v>
@@ -2854,12 +2836,12 @@
         <v>67</v>
       </c>
       <c r="G9" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>48</v>
@@ -2868,13 +2850,13 @@
         <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -2882,7 +2864,7 @@
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>52</v>
@@ -2905,7 +2887,7 @@
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>52</v>
@@ -2914,13 +2896,13 @@
         <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -2928,7 +2910,7 @@
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>55</v>
@@ -2946,12 +2928,12 @@
         <v>71</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>58</v>
@@ -2974,7 +2956,7 @@
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>44</v>
@@ -2983,13 +2965,13 @@
         <v>926</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -2997,7 +2979,7 @@
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>48</v>
@@ -3006,13 +2988,13 @@
         <v>927</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -3020,7 +3002,7 @@
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>48</v>
@@ -3029,13 +3011,13 @@
         <v>928</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -3043,7 +3025,7 @@
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>52</v>
@@ -3052,13 +3034,13 @@
         <v>929</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -3066,7 +3048,7 @@
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>52</v>
@@ -3075,13 +3057,13 @@
         <v>930</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -3089,7 +3071,7 @@
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>55</v>
@@ -3112,7 +3094,7 @@
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>58</v>
@@ -3135,7 +3117,7 @@
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>44</v>
@@ -3158,7 +3140,7 @@
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>48</v>
@@ -3181,7 +3163,7 @@
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>48</v>
@@ -3204,7 +3186,7 @@
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>52</v>
@@ -3227,7 +3209,7 @@
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>52</v>
@@ -3250,7 +3232,7 @@
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>44</v>
@@ -3273,7 +3255,7 @@
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>48</v>
@@ -3296,7 +3278,7 @@
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>52</v>
@@ -3319,7 +3301,7 @@
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>55</v>
@@ -3342,7 +3324,7 @@
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>58</v>
@@ -3365,7 +3347,7 @@
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>61</v>
@@ -3388,7 +3370,7 @@
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>44</v>
@@ -3411,7 +3393,7 @@
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>48</v>
@@ -3434,7 +3416,7 @@
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>52</v>
@@ -3457,7 +3439,7 @@
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>55</v>
@@ -3480,7 +3462,7 @@
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>58</v>
@@ -3503,7 +3485,7 @@
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>61</v>
@@ -3526,7 +3508,7 @@
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>44</v>
@@ -3549,7 +3531,7 @@
     </row>
     <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>48</v>
@@ -3572,7 +3554,7 @@
     </row>
     <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>52</v>
@@ -3595,7 +3577,7 @@
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>55</v>
@@ -3618,7 +3600,7 @@
     </row>
     <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>58</v>
@@ -3641,7 +3623,7 @@
     </row>
     <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>61</v>
@@ -3664,7 +3646,7 @@
     </row>
     <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>44</v>
@@ -3687,7 +3669,7 @@
     </row>
     <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>48</v>
@@ -3710,7 +3692,7 @@
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>52</v>
@@ -3733,7 +3715,7 @@
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>55</v>
@@ -3756,7 +3738,7 @@
     </row>
     <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>44</v>
@@ -3779,7 +3761,7 @@
     </row>
     <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>48</v>
@@ -3802,7 +3784,7 @@
     </row>
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>52</v>
@@ -3825,7 +3807,7 @@
     </row>
     <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>55</v>
@@ -3848,7 +3830,7 @@
     </row>
     <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>58</v>
@@ -3871,7 +3853,7 @@
     </row>
     <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>61</v>
@@ -3894,7 +3876,7 @@
     </row>
     <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>44</v>
@@ -3917,7 +3899,7 @@
     </row>
     <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>48</v>
@@ -3940,7 +3922,7 @@
     </row>
     <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>52</v>
@@ -3963,7 +3945,7 @@
     </row>
     <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>55</v>
@@ -3986,7 +3968,7 @@
     </row>
     <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>58</v>
@@ -4009,7 +3991,7 @@
     </row>
     <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>61</v>
@@ -4032,7 +4014,7 @@
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>44</v>
@@ -4055,7 +4037,7 @@
     </row>
     <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>48</v>
@@ -4078,7 +4060,7 @@
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>52</v>
@@ -4101,7 +4083,7 @@
     </row>
     <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>55</v>
@@ -4124,7 +4106,7 @@
     </row>
     <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>58</v>
@@ -4147,7 +4129,7 @@
     </row>
     <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>61</v>
@@ -4170,7 +4152,7 @@
     </row>
     <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>44</v>
@@ -4193,7 +4175,7 @@
     </row>
     <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>48</v>
@@ -4216,7 +4198,7 @@
     </row>
     <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>52</v>
@@ -4239,7 +4221,7 @@
     </row>
     <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>55</v>
@@ -4262,7 +4244,7 @@
     </row>
     <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>58</v>
@@ -4285,7 +4267,7 @@
     </row>
     <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>61</v>
@@ -4308,7 +4290,7 @@
     </row>
     <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>44</v>
@@ -4331,7 +4313,7 @@
     </row>
     <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>48</v>
@@ -4354,7 +4336,7 @@
     </row>
     <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>52</v>
@@ -4377,7 +4359,7 @@
     </row>
     <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>55</v>
@@ -4400,7 +4382,7 @@
     </row>
     <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>58</v>
@@ -4423,7 +4405,7 @@
     </row>
     <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>61</v>
@@ -4446,7 +4428,7 @@
     </row>
     <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>44</v>
@@ -4469,7 +4451,7 @@
     </row>
     <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>48</v>
@@ -4492,7 +4474,7 @@
     </row>
     <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>52</v>
@@ -4515,7 +4497,7 @@
     </row>
     <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>55</v>
@@ -4538,7 +4520,7 @@
     </row>
     <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>58</v>
@@ -4561,7 +4543,7 @@
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>61</v>
@@ -4584,7 +4566,7 @@
     </row>
     <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>44</v>
@@ -4607,7 +4589,7 @@
     </row>
     <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>48</v>
@@ -4630,7 +4612,7 @@
     </row>
     <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>52</v>
@@ -4653,7 +4635,7 @@
     </row>
     <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>55</v>
@@ -4676,7 +4658,7 @@
     </row>
     <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>44</v>
@@ -4699,7 +4681,7 @@
     </row>
     <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>48</v>
@@ -4722,7 +4704,7 @@
     </row>
     <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>52</v>
@@ -4745,7 +4727,7 @@
     </row>
     <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>55</v>
@@ -4768,7 +4750,7 @@
     </row>
     <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>58</v>
@@ -4791,7 +4773,7 @@
     </row>
     <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>61</v>
@@ -4814,7 +4796,7 @@
     </row>
     <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>44</v>
@@ -4837,7 +4819,7 @@
     </row>
     <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>48</v>
@@ -4860,7 +4842,7 @@
     </row>
     <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>52</v>
@@ -4883,7 +4865,7 @@
     </row>
     <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>55</v>
@@ -4906,7 +4888,7 @@
     </row>
     <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>58</v>
@@ -4929,7 +4911,7 @@
     </row>
     <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>61</v>
@@ -4952,7 +4934,7 @@
     </row>
     <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>44</v>
@@ -4975,7 +4957,7 @@
     </row>
     <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>48</v>
@@ -4998,7 +4980,7 @@
     </row>
     <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>52</v>
@@ -5021,7 +5003,7 @@
     </row>
     <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>55</v>
@@ -5044,7 +5026,7 @@
     </row>
     <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>58</v>
@@ -5067,7 +5049,7 @@
     </row>
     <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>61</v>
@@ -5090,7 +5072,7 @@
     </row>
     <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>44</v>
@@ -5113,7 +5095,7 @@
     </row>
     <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>48</v>
@@ -5136,7 +5118,7 @@
     </row>
     <row r="109" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>52</v>
@@ -5159,7 +5141,7 @@
     </row>
     <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>55</v>
@@ -5182,7 +5164,7 @@
     </row>
     <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>58</v>
@@ -5205,7 +5187,7 @@
     </row>
     <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>61</v>
@@ -5228,7 +5210,7 @@
     </row>
     <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>44</v>
@@ -5251,7 +5233,7 @@
     </row>
     <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>48</v>
@@ -5274,7 +5256,7 @@
     </row>
     <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>52</v>
@@ -5297,7 +5279,7 @@
     </row>
     <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>55</v>
@@ -5320,7 +5302,7 @@
     </row>
     <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>58</v>
@@ -5343,7 +5325,7 @@
     </row>
     <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>61</v>
@@ -5366,7 +5348,7 @@
     </row>
     <row r="119" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>44</v>
@@ -5389,7 +5371,7 @@
     </row>
     <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>48</v>
@@ -5412,7 +5394,7 @@
     </row>
     <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>52</v>
@@ -5435,7 +5417,7 @@
     </row>
     <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>55</v>
@@ -5458,7 +5440,7 @@
     </row>
     <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>58</v>
@@ -5481,7 +5463,7 @@
     </row>
     <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>61</v>
@@ -5504,7 +5486,7 @@
     </row>
     <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>44</v>
@@ -5527,7 +5509,7 @@
     </row>
     <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>48</v>
@@ -5550,7 +5532,7 @@
     </row>
     <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>52</v>
@@ -5573,7 +5555,7 @@
     </row>
     <row r="128" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>55</v>
@@ -5596,7 +5578,7 @@
     </row>
     <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>44</v>
@@ -5619,7 +5601,7 @@
     </row>
     <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>48</v>
@@ -5642,7 +5624,7 @@
     </row>
     <row r="131" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>52</v>
@@ -5665,7 +5647,7 @@
     </row>
     <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>55</v>
@@ -5688,7 +5670,7 @@
     </row>
     <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>58</v>
@@ -5711,7 +5693,7 @@
     </row>
     <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>61</v>
@@ -5734,7 +5716,7 @@
     </row>
     <row r="135" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>44</v>
@@ -5757,7 +5739,7 @@
     </row>
     <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>48</v>
@@ -5780,7 +5762,7 @@
     </row>
     <row r="137" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>52</v>
@@ -5803,7 +5785,7 @@
     </row>
     <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>55</v>
@@ -5826,7 +5808,7 @@
     </row>
     <row r="139" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>58</v>
@@ -5849,7 +5831,7 @@
     </row>
     <row r="140" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>61</v>
@@ -5872,7 +5854,7 @@
     </row>
     <row r="141" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>44</v>
@@ -5895,7 +5877,7 @@
     </row>
     <row r="142" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>48</v>
@@ -5918,7 +5900,7 @@
     </row>
     <row r="143" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>52</v>
@@ -5941,7 +5923,7 @@
     </row>
     <row r="144" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>55</v>
@@ -5964,7 +5946,7 @@
     </row>
     <row r="145" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>58</v>
@@ -5987,7 +5969,7 @@
     </row>
     <row r="146" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>61</v>
@@ -6010,7 +5992,7 @@
     </row>
     <row r="147" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>48</v>
@@ -6019,13 +6001,13 @@
         <v>685</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G147" s="2">
         <v>0</v>
@@ -6033,7 +6015,7 @@
     </row>
     <row r="148" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>52</v>
@@ -6042,13 +6024,13 @@
         <v>686</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G148" s="2">
         <v>1</v>
@@ -6056,7 +6038,7 @@
     </row>
     <row r="149" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>44</v>
@@ -6079,7 +6061,7 @@
     </row>
     <row r="150" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>48</v>
@@ -6102,7 +6084,7 @@
     </row>
     <row r="151" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>52</v>
@@ -6125,7 +6107,7 @@
     </row>
     <row r="152" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>55</v>
@@ -6148,7 +6130,7 @@
     </row>
     <row r="153" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>58</v>
@@ -6171,7 +6153,7 @@
     </row>
     <row r="154" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>61</v>
@@ -6194,7 +6176,7 @@
     </row>
     <row r="155" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>44</v>
@@ -6217,7 +6199,7 @@
     </row>
     <row r="156" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>48</v>
@@ -6240,7 +6222,7 @@
     </row>
     <row r="157" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>52</v>
@@ -6263,7 +6245,7 @@
     </row>
     <row r="158" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>55</v>
@@ -6286,7 +6268,7 @@
     </row>
     <row r="159" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>58</v>
@@ -6309,7 +6291,7 @@
     </row>
     <row r="160" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>61</v>
@@ -6332,7 +6314,7 @@
     </row>
     <row r="161" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>44</v>
@@ -6355,7 +6337,7 @@
     </row>
     <row r="162" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>48</v>
@@ -6378,7 +6360,7 @@
     </row>
     <row r="163" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>52</v>
@@ -6401,7 +6383,7 @@
     </row>
     <row r="164" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>55</v>
@@ -6424,7 +6406,7 @@
     </row>
     <row r="165" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>58</v>
@@ -6447,7 +6429,7 @@
     </row>
     <row r="166" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>61</v>
@@ -6470,7 +6452,7 @@
     </row>
     <row r="167" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>44</v>
@@ -6493,7 +6475,7 @@
     </row>
     <row r="168" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>48</v>
@@ -6516,7 +6498,7 @@
     </row>
     <row r="169" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>52</v>
@@ -6539,7 +6521,7 @@
     </row>
     <row r="170" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>55</v>
@@ -6562,7 +6544,7 @@
     </row>
     <row r="171" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>58</v>
@@ -6585,7 +6567,7 @@
     </row>
     <row r="172" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>44</v>
@@ -6594,13 +6576,13 @@
         <v>575</v>
       </c>
       <c r="D172" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F172" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G172" s="2">
         <v>0</v>
@@ -6608,7 +6590,7 @@
     </row>
     <row r="173" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>48</v>
@@ -6617,13 +6599,13 @@
         <v>576</v>
       </c>
       <c r="D173" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F173" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G173" s="2">
         <v>1</v>
@@ -6631,7 +6613,7 @@
     </row>
     <row r="174" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>52</v>
@@ -6640,13 +6622,13 @@
         <v>577</v>
       </c>
       <c r="D174" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F174" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G174" s="2">
         <v>0</v>
@@ -6654,7 +6636,7 @@
     </row>
     <row r="175" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>55</v>
@@ -6663,13 +6645,13 @@
         <v>578</v>
       </c>
       <c r="D175" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F175" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G175" s="2">
         <v>1</v>
@@ -6677,7 +6659,7 @@
     </row>
     <row r="176" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>58</v>
@@ -6686,13 +6668,13 @@
         <v>579</v>
       </c>
       <c r="D176" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F176" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G176" s="2">
         <v>0</v>
@@ -6700,7 +6682,7 @@
     </row>
     <row r="177" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>61</v>
@@ -6709,13 +6691,13 @@
         <v>580</v>
       </c>
       <c r="D177" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F177" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G177" s="2">
         <v>0</v>
@@ -6723,7 +6705,7 @@
     </row>
     <row r="178" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>44</v>
@@ -6732,13 +6714,13 @@
         <v>581</v>
       </c>
       <c r="D178" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F178" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G178" s="2">
         <v>1</v>
@@ -6746,7 +6728,7 @@
     </row>
     <row r="179" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>48</v>
@@ -6755,13 +6737,13 @@
         <v>582</v>
       </c>
       <c r="D179" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F179" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G179" s="2">
         <v>0</v>
@@ -6769,7 +6751,7 @@
     </row>
     <row r="180" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>52</v>
@@ -6778,13 +6760,13 @@
         <v>583</v>
       </c>
       <c r="D180" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F180" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G180" s="2">
         <v>1</v>
@@ -6792,7 +6774,7 @@
     </row>
     <row r="181" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>55</v>
@@ -6801,13 +6783,13 @@
         <v>584</v>
       </c>
       <c r="D181" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F181" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G181" s="2">
         <v>0</v>
@@ -6815,7 +6797,7 @@
     </row>
     <row r="182" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>58</v>
@@ -6824,13 +6806,13 @@
         <v>585</v>
       </c>
       <c r="D182" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F182" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G182" s="2">
         <v>1</v>
@@ -6838,7 +6820,7 @@
     </row>
     <row r="183" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>61</v>
@@ -6847,13 +6829,13 @@
         <v>586</v>
       </c>
       <c r="D183" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F183" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G183" s="2">
         <v>0</v>
@@ -6861,7 +6843,7 @@
     </row>
     <row r="184" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>44</v>
@@ -6870,13 +6852,13 @@
         <v>587</v>
       </c>
       <c r="D184" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F184" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G184" s="2">
         <v>1</v>
@@ -6884,7 +6866,7 @@
     </row>
     <row r="185" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>48</v>
@@ -6893,13 +6875,13 @@
         <v>588</v>
       </c>
       <c r="D185" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F185" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G185" s="2">
         <v>0</v>
@@ -6907,7 +6889,7 @@
     </row>
     <row r="186" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>52</v>
@@ -6916,13 +6898,13 @@
         <v>589</v>
       </c>
       <c r="D186" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F186" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G186" s="2">
         <v>0</v>
@@ -6930,7 +6912,7 @@
     </row>
     <row r="187" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>55</v>
@@ -6939,13 +6921,13 @@
         <v>590</v>
       </c>
       <c r="D187" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F187" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G187" s="2">
         <v>0</v>
@@ -6953,22 +6935,22 @@
     </row>
     <row r="188" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D188" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F188" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G188" s="2">
         <v>1</v>
@@ -6976,22 +6958,22 @@
     </row>
     <row r="189" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D189" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F189" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G189" s="2">
         <v>0</v>
@@ -6999,22 +6981,22 @@
     </row>
     <row r="190" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D190" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F190" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G190" s="2">
         <v>1</v>
@@ -7022,22 +7004,22 @@
     </row>
     <row r="191" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D191" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F191" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G191" s="2">
         <v>0</v>
@@ -7045,22 +7027,22 @@
     </row>
     <row r="192" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D192" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F192" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G192" s="2">
         <v>1</v>
@@ -7068,7 +7050,7 @@
     </row>
     <row r="193" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>48</v>
@@ -7077,7 +7059,7 @@
         <v>756</v>
       </c>
       <c r="D193" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>46</v>
@@ -7091,7 +7073,7 @@
     </row>
     <row r="194" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>52</v>
@@ -7100,7 +7082,7 @@
         <v>757</v>
       </c>
       <c r="D194" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>46</v>
@@ -7114,22 +7096,22 @@
     </row>
     <row r="195" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D195" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F195" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G195" s="2">
         <v>0</v>
@@ -7137,22 +7119,22 @@
     </row>
     <row r="196" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D196" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F196" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G196" s="2">
         <v>1</v>
@@ -7170,7 +7152,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7197,157 +7179,147 @@
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>339</v>
+      <c r="D2" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>340</v>
+      <c r="D3" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>341</v>
+      <c r="D4" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>342</v>
+      <c r="D5" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>343</v>
+      <c r="D6" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>344</v>
+      <c r="D7" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B8" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>344</v>
-      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>344</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B10" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>341</v>
-      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B11" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>341</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B12" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>340</v>
-      </c>
+      <c r="D12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7371,7 +7343,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B1" t="s">
         <v>334</v>
@@ -7379,7 +7351,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s">
         <v>290</v>
@@ -7387,7 +7359,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s">
         <v>292</v>
@@ -7395,23 +7367,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B5" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B6" t="s">
         <v>294</v>
@@ -7419,7 +7391,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B7" t="s">
         <v>296</v>
@@ -7427,47 +7399,47 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B8" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B10" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B12" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B13" t="s">
         <v>298</v>
@@ -7475,7 +7447,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B14" t="s">
         <v>299</v>
@@ -7483,34 +7455,34 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B15" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B16" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B17" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B18" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -7524,7 +7496,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7548,24 +7520,24 @@
         <v>334</v>
       </c>
       <c r="D1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>72</v>
@@ -7585,13 +7557,13 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>263</v>
@@ -7608,13 +7580,13 @@
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>269</v>
@@ -7631,13 +7603,13 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>275</v>
@@ -7654,13 +7626,13 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>281</v>
@@ -7677,13 +7649,13 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>287</v>
@@ -7728,130 +7700,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B10" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B11" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B13" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B14" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B15" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B16" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B17" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/prisma/seed/seed_data.xlsx
+++ b/prisma/seed/seed_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafly/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B47216-E1A2-4449-89A5-99778C333727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263187F1-9D99-B24F-8222-72810A96034D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Permissions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="450">
   <si>
     <t>name</t>
   </si>
@@ -1049,51 +1049,6 @@
     <t>standardValue</t>
   </si>
   <si>
-    <t>Cycle OHC1</t>
-  </si>
-  <si>
-    <t>Cycle OHC2</t>
-  </si>
-  <si>
-    <t>Cycle OHC3</t>
-  </si>
-  <si>
-    <t>Cycle OHC4</t>
-  </si>
-  <si>
-    <t>Cycle OHC5</t>
-  </si>
-  <si>
-    <t>Cycle OHC6</t>
-  </si>
-  <si>
-    <t>Cycle SP1</t>
-  </si>
-  <si>
-    <t>Cycle SP2</t>
-  </si>
-  <si>
-    <t>Cycle SP3</t>
-  </si>
-  <si>
-    <t>Cycle SP4</t>
-  </si>
-  <si>
-    <t>Cycle SP6</t>
-  </si>
-  <si>
-    <t>Cycle SP7</t>
-  </si>
-  <si>
-    <t>Cycle SP8</t>
-  </si>
-  <si>
-    <t>Cycle SP10</t>
-  </si>
-  <si>
-    <t>Cycle SP0</t>
-  </si>
-  <si>
     <t>spName</t>
   </si>
   <si>
@@ -1326,12 +1281,6 @@
   </si>
   <si>
     <t>DATA PL ID SP11 STOP</t>
-  </si>
-  <si>
-    <t>Cycle SP9</t>
-  </si>
-  <si>
-    <t>Cycle SP11</t>
   </si>
   <si>
     <t>EM101E</t>
@@ -1486,7 +1435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1501,6 +1450,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1943,10 +1893,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B12" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -1958,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1974,87 +1924,87 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>347</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>352</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>353</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -2064,287 +2014,1058 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="A2" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>383</v>
-      </c>
-      <c r="B3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="A3" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="A4" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>385</v>
-      </c>
-      <c r="B5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="A5" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>388</v>
-      </c>
-      <c r="B8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>389</v>
-      </c>
-      <c r="B9" t="s">
-        <v>339</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>390</v>
-      </c>
-      <c r="B10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>391</v>
-      </c>
-      <c r="B11" t="s">
-        <v>339</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>392</v>
-      </c>
-      <c r="B12" t="s">
-        <v>339</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>393</v>
-      </c>
-      <c r="B13" t="s">
-        <v>345</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>394</v>
-      </c>
-      <c r="B14" t="s">
-        <v>345</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>393</v>
-      </c>
-      <c r="B15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>394</v>
-      </c>
-      <c r="B16" t="s">
-        <v>350</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>395</v>
-      </c>
-      <c r="B17" t="s">
-        <v>350</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>393</v>
-      </c>
-      <c r="B18" t="s">
-        <v>351</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>394</v>
-      </c>
-      <c r="B19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
         <v>100</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0</v>
+      </c>
+      <c r="D60" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C61" s="6">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C62" s="6">
+        <v>0</v>
+      </c>
+      <c r="D62" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C63" s="6">
+        <v>0</v>
+      </c>
+      <c r="D63" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C64" s="6">
+        <v>0</v>
+      </c>
+      <c r="D64" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C65" s="6">
+        <v>0</v>
+      </c>
+      <c r="D65" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C66" s="6">
+        <v>0</v>
+      </c>
+      <c r="D66" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C67" s="6">
+        <v>0</v>
+      </c>
+      <c r="D67" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C68" s="6">
+        <v>0</v>
+      </c>
+      <c r="D68" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0</v>
+      </c>
+      <c r="D69" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C70" s="6">
+        <v>0</v>
+      </c>
+      <c r="D70" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C71" s="6">
+        <v>0</v>
+      </c>
+      <c r="D71" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C72" s="6">
+        <v>0</v>
+      </c>
+      <c r="D72" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C73" s="6">
+        <v>0</v>
+      </c>
+      <c r="D73" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C74" s="6">
+        <v>0</v>
+      </c>
+      <c r="D74" s="6">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2489,7 +3210,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2497,7 +3218,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -2618,10 +3339,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G196"/>
+  <dimension ref="A1:G276"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="H156" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2657,7 +3378,7 @@
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>44</v>
@@ -2680,7 +3401,7 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>48</v>
@@ -2703,7 +3424,7 @@
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>52</v>
@@ -2726,7 +3447,7 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>55</v>
@@ -2749,7 +3470,7 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>58</v>
@@ -2772,7 +3493,7 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>61</v>
@@ -2795,7 +3516,7 @@
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>44</v>
@@ -2818,7 +3539,7 @@
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>48</v>
@@ -2841,7 +3562,7 @@
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>48</v>
@@ -2850,13 +3571,13 @@
         <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -2864,7 +3585,7 @@
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>52</v>
@@ -2887,7 +3608,7 @@
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>52</v>
@@ -2896,13 +3617,13 @@
         <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -2910,7 +3631,7 @@
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>55</v>
@@ -2933,7 +3654,7 @@
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>58</v>
@@ -2956,7 +3677,7 @@
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>44</v>
@@ -2965,13 +3686,13 @@
         <v>926</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -2979,7 +3700,7 @@
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>48</v>
@@ -2988,13 +3709,13 @@
         <v>927</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -3002,7 +3723,7 @@
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>48</v>
@@ -3011,13 +3732,13 @@
         <v>928</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -3025,7 +3746,7 @@
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>52</v>
@@ -3034,13 +3755,13 @@
         <v>929</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -3048,7 +3769,7 @@
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>52</v>
@@ -3057,13 +3778,13 @@
         <v>930</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -3071,7 +3792,7 @@
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>55</v>
@@ -3094,7 +3815,7 @@
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>58</v>
@@ -3117,7 +3838,7 @@
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>44</v>
@@ -3140,7 +3861,7 @@
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>48</v>
@@ -3163,7 +3884,7 @@
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>48</v>
@@ -3186,7 +3907,7 @@
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>52</v>
@@ -3209,7 +3930,7 @@
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>52</v>
@@ -3232,7 +3953,7 @@
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>44</v>
@@ -3255,7 +3976,7 @@
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>48</v>
@@ -3278,7 +3999,7 @@
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>52</v>
@@ -3301,7 +4022,7 @@
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>55</v>
@@ -3324,7 +4045,7 @@
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>58</v>
@@ -3347,7 +4068,7 @@
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>61</v>
@@ -3370,7 +4091,7 @@
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>44</v>
@@ -3393,7 +4114,7 @@
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>48</v>
@@ -3416,7 +4137,7 @@
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>52</v>
@@ -3439,7 +4160,7 @@
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>55</v>
@@ -3462,7 +4183,7 @@
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>58</v>
@@ -3485,7 +4206,7 @@
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>61</v>
@@ -3508,7 +4229,7 @@
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>44</v>
@@ -3531,7 +4252,7 @@
     </row>
     <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>48</v>
@@ -3554,7 +4275,7 @@
     </row>
     <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>52</v>
@@ -3577,7 +4298,7 @@
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>55</v>
@@ -3600,7 +4321,7 @@
     </row>
     <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>58</v>
@@ -3623,7 +4344,7 @@
     </row>
     <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>61</v>
@@ -3646,7 +4367,7 @@
     </row>
     <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>44</v>
@@ -3669,7 +4390,7 @@
     </row>
     <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>48</v>
@@ -3692,7 +4413,7 @@
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>52</v>
@@ -3715,7 +4436,7 @@
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>55</v>
@@ -3738,7 +4459,7 @@
     </row>
     <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>44</v>
@@ -3761,7 +4482,7 @@
     </row>
     <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>48</v>
@@ -3784,7 +4505,7 @@
     </row>
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>52</v>
@@ -3807,7 +4528,7 @@
     </row>
     <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>55</v>
@@ -3830,7 +4551,7 @@
     </row>
     <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>58</v>
@@ -3853,7 +4574,7 @@
     </row>
     <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>61</v>
@@ -3876,7 +4597,7 @@
     </row>
     <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>44</v>
@@ -3899,7 +4620,7 @@
     </row>
     <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>48</v>
@@ -3922,7 +4643,7 @@
     </row>
     <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>52</v>
@@ -3945,7 +4666,7 @@
     </row>
     <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>55</v>
@@ -3968,7 +4689,7 @@
     </row>
     <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>58</v>
@@ -3991,7 +4712,7 @@
     </row>
     <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>61</v>
@@ -4014,7 +4735,7 @@
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>44</v>
@@ -4037,7 +4758,7 @@
     </row>
     <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>48</v>
@@ -4060,7 +4781,7 @@
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>52</v>
@@ -4083,7 +4804,7 @@
     </row>
     <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>55</v>
@@ -4106,7 +4827,7 @@
     </row>
     <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>58</v>
@@ -4129,7 +4850,7 @@
     </row>
     <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>61</v>
@@ -4152,7 +4873,7 @@
     </row>
     <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>44</v>
@@ -4175,7 +4896,7 @@
     </row>
     <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>48</v>
@@ -4198,7 +4919,7 @@
     </row>
     <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>52</v>
@@ -4221,7 +4942,7 @@
     </row>
     <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>55</v>
@@ -4244,7 +4965,7 @@
     </row>
     <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>58</v>
@@ -4267,7 +4988,7 @@
     </row>
     <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>61</v>
@@ -4290,7 +5011,7 @@
     </row>
     <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>44</v>
@@ -4313,7 +5034,7 @@
     </row>
     <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>48</v>
@@ -4336,7 +5057,7 @@
     </row>
     <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>52</v>
@@ -4359,7 +5080,7 @@
     </row>
     <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>55</v>
@@ -4382,7 +5103,7 @@
     </row>
     <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>58</v>
@@ -4405,7 +5126,7 @@
     </row>
     <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>61</v>
@@ -4428,7 +5149,7 @@
     </row>
     <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>44</v>
@@ -4451,7 +5172,7 @@
     </row>
     <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>48</v>
@@ -4474,7 +5195,7 @@
     </row>
     <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>52</v>
@@ -4497,7 +5218,7 @@
     </row>
     <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>55</v>
@@ -4520,7 +5241,7 @@
     </row>
     <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>58</v>
@@ -4543,7 +5264,7 @@
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>61</v>
@@ -4566,7 +5287,7 @@
     </row>
     <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>44</v>
@@ -4589,7 +5310,7 @@
     </row>
     <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>48</v>
@@ -4612,7 +5333,7 @@
     </row>
     <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>52</v>
@@ -4635,7 +5356,7 @@
     </row>
     <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>55</v>
@@ -4658,7 +5379,7 @@
     </row>
     <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>44</v>
@@ -4681,7 +5402,7 @@
     </row>
     <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>48</v>
@@ -4704,7 +5425,7 @@
     </row>
     <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>52</v>
@@ -4727,7 +5448,7 @@
     </row>
     <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>55</v>
@@ -4750,7 +5471,7 @@
     </row>
     <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>58</v>
@@ -4773,7 +5494,7 @@
     </row>
     <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>61</v>
@@ -4796,7 +5517,7 @@
     </row>
     <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>44</v>
@@ -4819,7 +5540,7 @@
     </row>
     <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>48</v>
@@ -4842,7 +5563,7 @@
     </row>
     <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>52</v>
@@ -4865,7 +5586,7 @@
     </row>
     <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>55</v>
@@ -4888,7 +5609,7 @@
     </row>
     <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>58</v>
@@ -4911,7 +5632,7 @@
     </row>
     <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>61</v>
@@ -4934,7 +5655,7 @@
     </row>
     <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>44</v>
@@ -4957,7 +5678,7 @@
     </row>
     <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>48</v>
@@ -4980,7 +5701,7 @@
     </row>
     <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>52</v>
@@ -5003,7 +5724,7 @@
     </row>
     <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>55</v>
@@ -5026,7 +5747,7 @@
     </row>
     <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>58</v>
@@ -5049,7 +5770,7 @@
     </row>
     <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>61</v>
@@ -5072,7 +5793,7 @@
     </row>
     <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>44</v>
@@ -5095,7 +5816,7 @@
     </row>
     <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>48</v>
@@ -5118,7 +5839,7 @@
     </row>
     <row r="109" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>52</v>
@@ -5141,7 +5862,7 @@
     </row>
     <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>55</v>
@@ -5164,7 +5885,7 @@
     </row>
     <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>58</v>
@@ -5187,7 +5908,7 @@
     </row>
     <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>61</v>
@@ -5210,7 +5931,7 @@
     </row>
     <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>44</v>
@@ -5233,7 +5954,7 @@
     </row>
     <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>48</v>
@@ -5256,7 +5977,7 @@
     </row>
     <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>52</v>
@@ -5279,7 +6000,7 @@
     </row>
     <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>55</v>
@@ -5302,7 +6023,7 @@
     </row>
     <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>58</v>
@@ -5325,7 +6046,7 @@
     </row>
     <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>61</v>
@@ -5348,7 +6069,7 @@
     </row>
     <row r="119" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>44</v>
@@ -5371,7 +6092,7 @@
     </row>
     <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>48</v>
@@ -5394,7 +6115,7 @@
     </row>
     <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>52</v>
@@ -5417,7 +6138,7 @@
     </row>
     <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>55</v>
@@ -5440,7 +6161,7 @@
     </row>
     <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>58</v>
@@ -5463,7 +6184,7 @@
     </row>
     <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>61</v>
@@ -5486,7 +6207,7 @@
     </row>
     <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>44</v>
@@ -5509,7 +6230,7 @@
     </row>
     <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>48</v>
@@ -5532,7 +6253,7 @@
     </row>
     <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>52</v>
@@ -5555,7 +6276,7 @@
     </row>
     <row r="128" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>55</v>
@@ -5578,7 +6299,7 @@
     </row>
     <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>44</v>
@@ -5601,7 +6322,7 @@
     </row>
     <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>48</v>
@@ -5624,7 +6345,7 @@
     </row>
     <row r="131" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>52</v>
@@ -5647,7 +6368,7 @@
     </row>
     <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>55</v>
@@ -5670,7 +6391,7 @@
     </row>
     <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>58</v>
@@ -5693,7 +6414,7 @@
     </row>
     <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>61</v>
@@ -5716,7 +6437,7 @@
     </row>
     <row r="135" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>44</v>
@@ -5739,7 +6460,7 @@
     </row>
     <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>48</v>
@@ -5762,7 +6483,7 @@
     </row>
     <row r="137" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>52</v>
@@ -5785,7 +6506,7 @@
     </row>
     <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>55</v>
@@ -5808,7 +6529,7 @@
     </row>
     <row r="139" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>58</v>
@@ -5831,7 +6552,7 @@
     </row>
     <row r="140" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>61</v>
@@ -5854,7 +6575,7 @@
     </row>
     <row r="141" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>44</v>
@@ -5877,7 +6598,7 @@
     </row>
     <row r="142" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>48</v>
@@ -5900,7 +6621,7 @@
     </row>
     <row r="143" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>52</v>
@@ -5923,7 +6644,7 @@
     </row>
     <row r="144" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>55</v>
@@ -5946,7 +6667,7 @@
     </row>
     <row r="145" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>58</v>
@@ -5969,7 +6690,7 @@
     </row>
     <row r="146" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>61</v>
@@ -5992,7 +6713,7 @@
     </row>
     <row r="147" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>48</v>
@@ -6001,13 +6722,13 @@
         <v>685</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="G147" s="2">
         <v>0</v>
@@ -6015,7 +6736,7 @@
     </row>
     <row r="148" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>52</v>
@@ -6024,13 +6745,13 @@
         <v>686</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="G148" s="2">
         <v>1</v>
@@ -6038,7 +6759,7 @@
     </row>
     <row r="149" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>44</v>
@@ -6061,7 +6782,7 @@
     </row>
     <row r="150" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>48</v>
@@ -6084,7 +6805,7 @@
     </row>
     <row r="151" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>52</v>
@@ -6107,7 +6828,7 @@
     </row>
     <row r="152" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>55</v>
@@ -6130,7 +6851,7 @@
     </row>
     <row r="153" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>58</v>
@@ -6153,7 +6874,7 @@
     </row>
     <row r="154" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>61</v>
@@ -6176,7 +6897,7 @@
     </row>
     <row r="155" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>44</v>
@@ -6199,7 +6920,7 @@
     </row>
     <row r="156" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>48</v>
@@ -6222,7 +6943,7 @@
     </row>
     <row r="157" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>52</v>
@@ -6245,7 +6966,7 @@
     </row>
     <row r="158" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>55</v>
@@ -6268,7 +6989,7 @@
     </row>
     <row r="159" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>58</v>
@@ -6291,7 +7012,7 @@
     </row>
     <row r="160" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>61</v>
@@ -6314,7 +7035,7 @@
     </row>
     <row r="161" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>44</v>
@@ -6337,7 +7058,7 @@
     </row>
     <row r="162" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>48</v>
@@ -6360,7 +7081,7 @@
     </row>
     <row r="163" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>52</v>
@@ -6383,7 +7104,7 @@
     </row>
     <row r="164" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>55</v>
@@ -6406,7 +7127,7 @@
     </row>
     <row r="165" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>58</v>
@@ -6429,7 +7150,7 @@
     </row>
     <row r="166" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>61</v>
@@ -6452,7 +7173,7 @@
     </row>
     <row r="167" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>44</v>
@@ -6475,7 +7196,7 @@
     </row>
     <row r="168" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>48</v>
@@ -6498,7 +7219,7 @@
     </row>
     <row r="169" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>52</v>
@@ -6521,7 +7242,7 @@
     </row>
     <row r="170" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>55</v>
@@ -6544,7 +7265,7 @@
     </row>
     <row r="171" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>58</v>
@@ -6567,7 +7288,7 @@
     </row>
     <row r="172" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>44</v>
@@ -6576,13 +7297,13 @@
         <v>575</v>
       </c>
       <c r="D172" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F172" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="G172" s="2">
         <v>0</v>
@@ -6590,7 +7311,7 @@
     </row>
     <row r="173" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>48</v>
@@ -6599,13 +7320,13 @@
         <v>576</v>
       </c>
       <c r="D173" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F173" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="G173" s="2">
         <v>1</v>
@@ -6613,7 +7334,7 @@
     </row>
     <row r="174" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>52</v>
@@ -6622,13 +7343,13 @@
         <v>577</v>
       </c>
       <c r="D174" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F174" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="G174" s="2">
         <v>0</v>
@@ -6636,7 +7357,7 @@
     </row>
     <row r="175" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>55</v>
@@ -6645,13 +7366,13 @@
         <v>578</v>
       </c>
       <c r="D175" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F175" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="G175" s="2">
         <v>1</v>
@@ -6659,7 +7380,7 @@
     </row>
     <row r="176" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>58</v>
@@ -6668,13 +7389,13 @@
         <v>579</v>
       </c>
       <c r="D176" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F176" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="G176" s="2">
         <v>0</v>
@@ -6682,7 +7403,7 @@
     </row>
     <row r="177" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>61</v>
@@ -6691,13 +7412,13 @@
         <v>580</v>
       </c>
       <c r="D177" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F177" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="G177" s="2">
         <v>0</v>
@@ -6705,7 +7426,7 @@
     </row>
     <row r="178" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>44</v>
@@ -6714,13 +7435,13 @@
         <v>581</v>
       </c>
       <c r="D178" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F178" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="G178" s="2">
         <v>1</v>
@@ -6728,7 +7449,7 @@
     </row>
     <row r="179" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>48</v>
@@ -6737,13 +7458,13 @@
         <v>582</v>
       </c>
       <c r="D179" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F179" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="G179" s="2">
         <v>0</v>
@@ -6751,7 +7472,7 @@
     </row>
     <row r="180" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>52</v>
@@ -6760,13 +7481,13 @@
         <v>583</v>
       </c>
       <c r="D180" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F180" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="G180" s="2">
         <v>1</v>
@@ -6774,7 +7495,7 @@
     </row>
     <row r="181" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>55</v>
@@ -6783,13 +7504,13 @@
         <v>584</v>
       </c>
       <c r="D181" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F181" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="G181" s="2">
         <v>0</v>
@@ -6797,7 +7518,7 @@
     </row>
     <row r="182" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>58</v>
@@ -6806,13 +7527,13 @@
         <v>585</v>
       </c>
       <c r="D182" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F182" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="G182" s="2">
         <v>1</v>
@@ -6820,7 +7541,7 @@
     </row>
     <row r="183" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>61</v>
@@ -6829,13 +7550,13 @@
         <v>586</v>
       </c>
       <c r="D183" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F183" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="G183" s="2">
         <v>0</v>
@@ -6843,7 +7564,7 @@
     </row>
     <row r="184" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>44</v>
@@ -6852,13 +7573,13 @@
         <v>587</v>
       </c>
       <c r="D184" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F184" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="G184" s="2">
         <v>1</v>
@@ -6866,7 +7587,7 @@
     </row>
     <row r="185" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>48</v>
@@ -6875,13 +7596,13 @@
         <v>588</v>
       </c>
       <c r="D185" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F185" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="G185" s="2">
         <v>0</v>
@@ -6889,7 +7610,7 @@
     </row>
     <row r="186" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>52</v>
@@ -6898,13 +7619,13 @@
         <v>589</v>
       </c>
       <c r="D186" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F186" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="G186" s="2">
         <v>0</v>
@@ -6912,7 +7633,7 @@
     </row>
     <row r="187" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>55</v>
@@ -6921,13 +7642,13 @@
         <v>590</v>
       </c>
       <c r="D187" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F187" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="G187" s="2">
         <v>0</v>
@@ -6935,22 +7656,22 @@
     </row>
     <row r="188" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D188" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F188" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="G188" s="2">
         <v>1</v>
@@ -6958,22 +7679,22 @@
     </row>
     <row r="189" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="D189" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F189" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="G189" s="2">
         <v>0</v>
@@ -6981,22 +7702,22 @@
     </row>
     <row r="190" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D190" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F190" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="G190" s="2">
         <v>1</v>
@@ -7004,22 +7725,22 @@
     </row>
     <row r="191" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D191" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F191" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="G191" s="2">
         <v>0</v>
@@ -7027,22 +7748,22 @@
     </row>
     <row r="192" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D192" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F192" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="G192" s="2">
         <v>1</v>
@@ -7050,7 +7771,7 @@
     </row>
     <row r="193" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>48</v>
@@ -7059,7 +7780,7 @@
         <v>756</v>
       </c>
       <c r="D193" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>46</v>
@@ -7073,7 +7794,7 @@
     </row>
     <row r="194" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>52</v>
@@ -7082,7 +7803,7 @@
         <v>757</v>
       </c>
       <c r="D194" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>46</v>
@@ -7096,22 +7817,22 @@
     </row>
     <row r="195" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="D195" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F195" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="G195" s="2">
         <v>0</v>
@@ -7119,26 +7840,586 @@
     </row>
     <row r="196" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D196" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F196" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="G196" s="2">
         <v>1</v>
       </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="3"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="5"/>
+      <c r="E197" s="2"/>
+      <c r="G197" s="2"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="3"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="5"/>
+      <c r="E198" s="2"/>
+      <c r="G198" s="2"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="3"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="5"/>
+      <c r="E199" s="2"/>
+      <c r="G199" s="2"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="3"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="5"/>
+      <c r="E200" s="2"/>
+      <c r="G200" s="2"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="3"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="5"/>
+      <c r="E201" s="2"/>
+      <c r="G201" s="2"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="3"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="5"/>
+      <c r="E202" s="2"/>
+      <c r="G202" s="2"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="3"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="5"/>
+      <c r="E203" s="2"/>
+      <c r="G203" s="2"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="3"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="5"/>
+      <c r="E204" s="2"/>
+      <c r="G204" s="2"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="3"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="5"/>
+      <c r="E205" s="2"/>
+      <c r="G205" s="2"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="3"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="5"/>
+      <c r="E206" s="2"/>
+      <c r="G206" s="2"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="3"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="5"/>
+      <c r="E207" s="2"/>
+      <c r="G207" s="2"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="3"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="5"/>
+      <c r="E208" s="2"/>
+      <c r="G208" s="2"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="3"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="5"/>
+      <c r="E209" s="2"/>
+      <c r="G209" s="2"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="3"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="5"/>
+      <c r="E210" s="2"/>
+      <c r="G210" s="2"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="3"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="5"/>
+      <c r="E211" s="2"/>
+      <c r="G211" s="2"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="3"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="5"/>
+      <c r="E212" s="2"/>
+      <c r="G212" s="2"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="3"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="5"/>
+      <c r="E213" s="2"/>
+      <c r="G213" s="2"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="3"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="5"/>
+      <c r="E214" s="2"/>
+      <c r="G214" s="2"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="3"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="5"/>
+      <c r="E215" s="2"/>
+      <c r="G215" s="2"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="3"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="5"/>
+      <c r="E216" s="2"/>
+      <c r="G216" s="2"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" s="3"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="5"/>
+      <c r="E217" s="2"/>
+      <c r="G217" s="2"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" s="3"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="5"/>
+      <c r="E218" s="2"/>
+      <c r="G218" s="2"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" s="3"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="5"/>
+      <c r="E219" s="2"/>
+      <c r="G219" s="2"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" s="3"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="5"/>
+      <c r="E220" s="2"/>
+      <c r="G220" s="2"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" s="3"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="5"/>
+      <c r="E221" s="2"/>
+      <c r="G221" s="2"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="3"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="5"/>
+      <c r="E222" s="2"/>
+      <c r="G222" s="2"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="3"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="5"/>
+      <c r="E223" s="2"/>
+      <c r="G223" s="2"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="3"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="5"/>
+      <c r="E224" s="2"/>
+      <c r="G224" s="2"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="3"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="5"/>
+      <c r="E225" s="2"/>
+      <c r="G225" s="2"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="3"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="5"/>
+      <c r="E226" s="2"/>
+      <c r="G226" s="2"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="3"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="5"/>
+      <c r="E227" s="2"/>
+      <c r="G227" s="2"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="3"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="5"/>
+      <c r="E228" s="2"/>
+      <c r="G228" s="2"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" s="3"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="5"/>
+      <c r="E229" s="2"/>
+      <c r="G229" s="2"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="3"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="5"/>
+      <c r="E230" s="2"/>
+      <c r="G230" s="2"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="3"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="5"/>
+      <c r="E231" s="2"/>
+      <c r="G231" s="2"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="3"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="5"/>
+      <c r="E232" s="2"/>
+      <c r="G232" s="2"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" s="3"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="5"/>
+      <c r="E233" s="2"/>
+      <c r="G233" s="2"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="3"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="5"/>
+      <c r="E234" s="2"/>
+      <c r="G234" s="2"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" s="3"/>
+      <c r="B235" s="4"/>
+      <c r="C235" s="5"/>
+      <c r="E235" s="2"/>
+      <c r="G235" s="2"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="3"/>
+      <c r="B236" s="4"/>
+      <c r="C236" s="5"/>
+      <c r="E236" s="2"/>
+      <c r="G236" s="2"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="3"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="5"/>
+      <c r="E237" s="2"/>
+      <c r="G237" s="2"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="3"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="5"/>
+      <c r="E238" s="2"/>
+      <c r="G238" s="2"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="3"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="5"/>
+      <c r="E239" s="2"/>
+      <c r="G239" s="2"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="3"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="5"/>
+      <c r="E240" s="2"/>
+      <c r="G240" s="2"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="3"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="5"/>
+      <c r="E241" s="2"/>
+      <c r="G241" s="2"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" s="3"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="5"/>
+      <c r="E242" s="2"/>
+      <c r="G242" s="2"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" s="3"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="5"/>
+      <c r="E243" s="2"/>
+      <c r="G243" s="2"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" s="3"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="5"/>
+      <c r="E244" s="2"/>
+      <c r="G244" s="2"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" s="3"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="5"/>
+      <c r="E245" s="2"/>
+      <c r="G245" s="2"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="3"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="5"/>
+      <c r="E246" s="2"/>
+      <c r="G246" s="2"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" s="3"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="5"/>
+      <c r="E247" s="2"/>
+      <c r="G247" s="2"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" s="3"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="5"/>
+      <c r="E248" s="2"/>
+      <c r="G248" s="2"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" s="3"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="5"/>
+      <c r="E249" s="2"/>
+      <c r="G249" s="2"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" s="3"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="5"/>
+      <c r="E250" s="2"/>
+      <c r="G250" s="2"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" s="3"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="5"/>
+      <c r="E251" s="2"/>
+      <c r="G251" s="2"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" s="3"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="5"/>
+      <c r="E252" s="2"/>
+      <c r="G252" s="2"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" s="3"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="5"/>
+      <c r="E253" s="2"/>
+      <c r="G253" s="2"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" s="3"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="5"/>
+      <c r="E254" s="2"/>
+      <c r="G254" s="2"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" s="3"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="5"/>
+      <c r="E255" s="2"/>
+      <c r="G255" s="2"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" s="3"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="5"/>
+      <c r="E256" s="2"/>
+      <c r="G256" s="2"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" s="3"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="5"/>
+      <c r="E257" s="2"/>
+      <c r="G257" s="2"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258" s="3"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="5"/>
+      <c r="E258" s="2"/>
+      <c r="G258" s="2"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259" s="3"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="5"/>
+      <c r="E259" s="2"/>
+      <c r="G259" s="2"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260" s="3"/>
+      <c r="B260" s="4"/>
+      <c r="C260" s="5"/>
+      <c r="E260" s="2"/>
+      <c r="G260" s="2"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261" s="3"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="5"/>
+      <c r="E261" s="2"/>
+      <c r="G261" s="2"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262" s="3"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="5"/>
+      <c r="E262" s="2"/>
+      <c r="G262" s="2"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263" s="3"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="5"/>
+      <c r="E263" s="2"/>
+      <c r="G263" s="2"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264" s="3"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="5"/>
+      <c r="E264" s="2"/>
+      <c r="G264" s="2"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265" s="3"/>
+      <c r="B265" s="4"/>
+      <c r="C265" s="5"/>
+      <c r="E265" s="2"/>
+      <c r="G265" s="2"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" s="3"/>
+      <c r="B266" s="4"/>
+      <c r="C266" s="5"/>
+      <c r="E266" s="2"/>
+      <c r="G266" s="2"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267" s="3"/>
+      <c r="B267" s="4"/>
+      <c r="C267" s="5"/>
+      <c r="E267" s="2"/>
+      <c r="G267" s="2"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268" s="3"/>
+      <c r="B268" s="4"/>
+      <c r="C268" s="5"/>
+      <c r="E268" s="2"/>
+      <c r="G268" s="2"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" s="3"/>
+      <c r="B269" s="4"/>
+      <c r="C269" s="5"/>
+      <c r="E269" s="2"/>
+      <c r="G269" s="2"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" s="3"/>
+      <c r="B270" s="4"/>
+      <c r="C270" s="5"/>
+      <c r="E270" s="2"/>
+      <c r="G270" s="2"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" s="3"/>
+      <c r="B271" s="4"/>
+      <c r="C271" s="5"/>
+      <c r="E271" s="2"/>
+      <c r="G271" s="2"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" s="3"/>
+      <c r="B272" s="4"/>
+      <c r="C272" s="5"/>
+      <c r="E272" s="2"/>
+      <c r="G272" s="2"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" s="3"/>
+      <c r="B273" s="4"/>
+      <c r="C273" s="5"/>
+      <c r="E273" s="2"/>
+      <c r="G273" s="2"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" s="3"/>
+      <c r="B274" s="4"/>
+      <c r="C274" s="5"/>
+      <c r="E274" s="2"/>
+      <c r="G274" s="2"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" s="3"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="5"/>
+      <c r="E275" s="2"/>
+      <c r="G275" s="2"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" s="3"/>
+      <c r="B276" s="4"/>
+      <c r="C276" s="5"/>
+      <c r="E276" s="2"/>
+      <c r="G276" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7152,7 +8433,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7179,94 +8460,94 @@
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>439</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>440</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>441</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>442</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="B6" t="s">
-        <v>349</v>
+        <v>443</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>444</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="B8" t="s">
-        <v>351</v>
+        <v>445</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>66</v>
@@ -7275,22 +8556,22 @@
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="B9" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>447</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>68</v>
@@ -7299,22 +8580,22 @@
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="B12" t="s">
-        <v>353</v>
+        <v>449</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>70</v>
@@ -7343,7 +8624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s">
         <v>334</v>
@@ -7351,7 +8632,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s">
         <v>290</v>
@@ -7359,7 +8640,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="B3" t="s">
         <v>292</v>
@@ -7367,23 +8648,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="B5" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="B6" t="s">
         <v>294</v>
@@ -7391,7 +8672,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="B7" t="s">
         <v>296</v>
@@ -7399,47 +8680,47 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="B8" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="B9" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="B10" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="B11" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="B12" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="B13" t="s">
         <v>298</v>
@@ -7447,7 +8728,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="B14" t="s">
         <v>299</v>
@@ -7455,34 +8736,34 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="B15" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="B16" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="B17" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="B18" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -7495,13 +8776,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
@@ -7520,24 +8801,24 @@
         <v>334</v>
       </c>
       <c r="D1" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="E1" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="F1" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="G1" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>433</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>72</v>
@@ -7557,13 +8838,13 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>434</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>263</v>
@@ -7580,13 +8861,13 @@
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="B4" t="s">
-        <v>341</v>
+        <v>435</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>269</v>
@@ -7603,13 +8884,13 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
-        <v>342</v>
+        <v>436</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>275</v>
@@ -7626,13 +8907,13 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="B6" t="s">
-        <v>343</v>
+        <v>437</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>281</v>
@@ -7649,13 +8930,13 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="B7" t="s">
-        <v>344</v>
+        <v>438</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>287</v>
@@ -7678,10 +8959,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7695,135 +8976,775 @@
         <v>336</v>
       </c>
       <c r="B1" t="s">
-        <v>334</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B3" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B5" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B7" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B9" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B10" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B11" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B12" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B13" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B14" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B15" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B16" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B17" t="s">
-        <v>381</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>434</v>
+      </c>
+      <c r="B18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>434</v>
+      </c>
+      <c r="B19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>434</v>
+      </c>
+      <c r="B20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>434</v>
+      </c>
+      <c r="B21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>434</v>
+      </c>
+      <c r="B22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>434</v>
+      </c>
+      <c r="B23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>434</v>
+      </c>
+      <c r="B24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>434</v>
+      </c>
+      <c r="B25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>434</v>
+      </c>
+      <c r="B26" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>434</v>
+      </c>
+      <c r="B27" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>434</v>
+      </c>
+      <c r="B28" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>434</v>
+      </c>
+      <c r="B29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>434</v>
+      </c>
+      <c r="B30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>434</v>
+      </c>
+      <c r="B31" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>434</v>
+      </c>
+      <c r="B32" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>434</v>
+      </c>
+      <c r="B33" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>435</v>
+      </c>
+      <c r="B34" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>435</v>
+      </c>
+      <c r="B35" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>435</v>
+      </c>
+      <c r="B36" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>435</v>
+      </c>
+      <c r="B37" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>435</v>
+      </c>
+      <c r="B38" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>435</v>
+      </c>
+      <c r="B39" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>435</v>
+      </c>
+      <c r="B40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>435</v>
+      </c>
+      <c r="B41" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>435</v>
+      </c>
+      <c r="B42" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>435</v>
+      </c>
+      <c r="B43" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>435</v>
+      </c>
+      <c r="B44" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>435</v>
+      </c>
+      <c r="B45" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>435</v>
+      </c>
+      <c r="B46" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>435</v>
+      </c>
+      <c r="B47" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>435</v>
+      </c>
+      <c r="B48" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>435</v>
+      </c>
+      <c r="B49" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>436</v>
+      </c>
+      <c r="B50" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>436</v>
+      </c>
+      <c r="B51" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>436</v>
+      </c>
+      <c r="B52" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>436</v>
+      </c>
+      <c r="B53" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>436</v>
+      </c>
+      <c r="B54" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>436</v>
+      </c>
+      <c r="B55" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>436</v>
+      </c>
+      <c r="B56" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>436</v>
+      </c>
+      <c r="B57" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>436</v>
+      </c>
+      <c r="B58" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>436</v>
+      </c>
+      <c r="B59" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>436</v>
+      </c>
+      <c r="B60" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>436</v>
+      </c>
+      <c r="B61" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>436</v>
+      </c>
+      <c r="B62" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>436</v>
+      </c>
+      <c r="B63" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>436</v>
+      </c>
+      <c r="B64" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>436</v>
+      </c>
+      <c r="B65" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>437</v>
+      </c>
+      <c r="B66" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>437</v>
+      </c>
+      <c r="B67" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>437</v>
+      </c>
+      <c r="B68" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>437</v>
+      </c>
+      <c r="B69" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>437</v>
+      </c>
+      <c r="B70" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>437</v>
+      </c>
+      <c r="B71" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>437</v>
+      </c>
+      <c r="B72" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>437</v>
+      </c>
+      <c r="B73" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>437</v>
+      </c>
+      <c r="B74" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>437</v>
+      </c>
+      <c r="B75" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>437</v>
+      </c>
+      <c r="B76" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>437</v>
+      </c>
+      <c r="B77" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>437</v>
+      </c>
+      <c r="B78" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>437</v>
+      </c>
+      <c r="B79" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>437</v>
+      </c>
+      <c r="B80" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>437</v>
+      </c>
+      <c r="B81" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>438</v>
+      </c>
+      <c r="B82" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>438</v>
+      </c>
+      <c r="B83" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>438</v>
+      </c>
+      <c r="B84" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>438</v>
+      </c>
+      <c r="B85" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>438</v>
+      </c>
+      <c r="B86" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>438</v>
+      </c>
+      <c r="B87" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>438</v>
+      </c>
+      <c r="B88" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>438</v>
+      </c>
+      <c r="B89" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>438</v>
+      </c>
+      <c r="B90" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>438</v>
+      </c>
+      <c r="B91" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>438</v>
+      </c>
+      <c r="B92" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>438</v>
+      </c>
+      <c r="B93" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>438</v>
+      </c>
+      <c r="B94" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>438</v>
+      </c>
+      <c r="B95" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>438</v>
+      </c>
+      <c r="B96" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>438</v>
+      </c>
+      <c r="B97" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/prisma/seed/seed_data.xlsx
+++ b/prisma/seed/seed_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafly/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263187F1-9D99-B24F-8222-72810A96034D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4E482D-74BC-9245-9B47-5E63F8D739C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Permissions" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,19 @@
     <sheet name="Users" sheetId="4" r:id="rId4"/>
     <sheet name="Assets" sheetId="5" r:id="rId5"/>
     <sheet name="Sp" sheetId="10" r:id="rId6"/>
-    <sheet name="SpDescriptions" sheetId="9" r:id="rId7"/>
+    <sheet name="SpConditions" sheetId="9" r:id="rId7"/>
     <sheet name="Ohc" sheetId="8" r:id="rId8"/>
-    <sheet name="OhcDescriptions" sheetId="7" r:id="rId9"/>
+    <sheet name="OhcConditions" sheetId="7" r:id="rId9"/>
     <sheet name="Cycles" sheetId="6" r:id="rId10"/>
     <sheet name="CycleDescriptions" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="467">
   <si>
     <t>name</t>
   </si>
@@ -1043,9 +1044,6 @@
     <t>ohcName</t>
   </si>
   <si>
-    <t>actualValue</t>
-  </si>
-  <si>
     <t>standardValue</t>
   </si>
   <si>
@@ -1380,6 +1378,60 @@
   </si>
   <si>
     <t>SP 0</t>
+  </si>
+  <si>
+    <t>LIFT_UP_END2</t>
+  </si>
+  <si>
+    <t>LIFT_UP_END 3</t>
+  </si>
+  <si>
+    <t>LIFT_UP_END3</t>
+  </si>
+  <si>
+    <t>LIFT_UP_END 4</t>
+  </si>
+  <si>
+    <t>LIFT_UP_END4</t>
+  </si>
+  <si>
+    <t>LIFT_UP_END 5</t>
+  </si>
+  <si>
+    <t>STOPPER-1 Open END</t>
+  </si>
+  <si>
+    <t>STOPPER-1 Close END</t>
+  </si>
+  <si>
+    <t>POSITIONER-1 forward END</t>
+  </si>
+  <si>
+    <t>POSITIONER-1 reverse END</t>
+  </si>
+  <si>
+    <t>STOPPER-2 Open END</t>
+  </si>
+  <si>
+    <t>STOPPER-2 Close END</t>
+  </si>
+  <si>
+    <t>STOPPER-3 Open END</t>
+  </si>
+  <si>
+    <t>STOPPER-3 Close END</t>
+  </si>
+  <si>
+    <t>POSITIONER-3 forward END</t>
+  </si>
+  <si>
+    <t>POSITIONER-3 reverse END</t>
+  </si>
+  <si>
+    <t>Unloading Down End LH</t>
+  </si>
+  <si>
+    <t>Unloading Down End RH</t>
   </si>
 </sst>
 </file>
@@ -1893,10 +1945,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B12" t="s">
         <v>412</v>
-      </c>
-      <c r="B12" t="s">
-        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -1909,7 +1961,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A18"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1924,87 +1976,87 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -2014,21 +2066,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2038,1035 +2089,825 @@
       <c r="C1" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C3" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C8" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C12" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C13" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C14" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C15" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C16" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C17" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C18" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C19" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C20" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C21" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C22" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C23" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C24" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C25" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C26" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C27" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B28" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C28" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C29" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C30" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C31" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C32" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C33" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C34" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C35" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C36" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C37" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C38" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C39" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="B40" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C40" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="B41" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C41" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="B42" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C42" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="B43" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C43" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C44" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C45" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C46" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C47" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C48" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C49" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C50" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C51" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C52" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C53" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C54" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="B55" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C55" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="B56" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C56" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C57" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C58" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C59" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C60" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C61" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C62" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C63" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C64" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C65" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C66" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C67" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="B68" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C68" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C69" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C70" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C71" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C72" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C73" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0</v>
-      </c>
-      <c r="D32" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C33" s="6">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C34" s="6">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C35" s="6">
-        <v>0</v>
-      </c>
-      <c r="D35" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C37" s="6">
-        <v>0</v>
-      </c>
-      <c r="D37" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C38" s="6">
-        <v>0</v>
-      </c>
-      <c r="D38" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C39" s="6">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C40" s="6">
-        <v>0</v>
-      </c>
-      <c r="D40" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C41" s="6">
-        <v>0</v>
-      </c>
-      <c r="D41" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C42" s="6">
-        <v>0</v>
-      </c>
-      <c r="D42" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C44" s="6">
-        <v>0</v>
-      </c>
-      <c r="D44" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C45" s="6">
-        <v>0</v>
-      </c>
-      <c r="D45" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C46" s="6">
-        <v>0</v>
-      </c>
-      <c r="D46" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C47" s="6">
-        <v>0</v>
-      </c>
-      <c r="D47" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C48" s="6">
-        <v>0</v>
-      </c>
-      <c r="D48" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C49" s="6">
-        <v>0</v>
-      </c>
-      <c r="D49" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C50" s="6">
-        <v>0</v>
-      </c>
-      <c r="D50" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C51" s="6">
-        <v>0</v>
-      </c>
-      <c r="D51" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C52" s="6">
-        <v>0</v>
-      </c>
-      <c r="D52" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C53" s="6">
-        <v>0</v>
-      </c>
-      <c r="D53" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C54" s="6">
-        <v>0</v>
-      </c>
-      <c r="D54" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C55" s="6">
-        <v>0</v>
-      </c>
-      <c r="D55" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C56" s="6">
-        <v>0</v>
-      </c>
-      <c r="D56" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C57" s="6">
-        <v>0</v>
-      </c>
-      <c r="D57" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C58" s="6">
-        <v>0</v>
-      </c>
-      <c r="D58" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C59" s="6">
-        <v>0</v>
-      </c>
-      <c r="D59" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C60" s="6">
-        <v>0</v>
-      </c>
-      <c r="D60" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C61" s="6">
-        <v>0</v>
-      </c>
-      <c r="D61" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C62" s="6">
-        <v>0</v>
-      </c>
-      <c r="D62" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C63" s="6">
-        <v>0</v>
-      </c>
-      <c r="D63" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C64" s="6">
-        <v>0</v>
-      </c>
-      <c r="D64" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C65" s="6">
-        <v>0</v>
-      </c>
-      <c r="D65" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C66" s="6">
-        <v>0</v>
-      </c>
-      <c r="D66" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C67" s="6">
-        <v>0</v>
-      </c>
-      <c r="D67" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="C68" s="6">
-        <v>0</v>
-      </c>
-      <c r="D68" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="C69" s="6">
-        <v>0</v>
-      </c>
-      <c r="D69" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B70" s="6" t="s">
+      <c r="B74" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C70" s="6">
-        <v>0</v>
-      </c>
-      <c r="D70" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C71" s="6">
-        <v>0</v>
-      </c>
-      <c r="D71" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C72" s="6">
-        <v>0</v>
-      </c>
-      <c r="D72" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="C73" s="6">
-        <v>0</v>
-      </c>
-      <c r="D73" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>445</v>
-      </c>
       <c r="C74" s="6">
-        <v>0</v>
-      </c>
-      <c r="D74" s="6">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5CDE69-06CD-BE49-99A6-D367B2513A6B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3210,7 +3051,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3218,7 +3059,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -3341,7 +3182,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+    <sheetView topLeftCell="A156" workbookViewId="0">
       <selection activeCell="H156" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -3378,7 +3219,7 @@
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>44</v>
@@ -3401,7 +3242,7 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>48</v>
@@ -3424,7 +3265,7 @@
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>52</v>
@@ -3447,7 +3288,7 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>55</v>
@@ -3470,7 +3311,7 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>58</v>
@@ -3493,7 +3334,7 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>61</v>
@@ -3516,7 +3357,7 @@
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>44</v>
@@ -3539,7 +3380,7 @@
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>48</v>
@@ -3562,7 +3403,7 @@
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>48</v>
@@ -3571,13 +3412,13 @@
         <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -3585,7 +3426,7 @@
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>52</v>
@@ -3608,7 +3449,7 @@
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>52</v>
@@ -3617,13 +3458,13 @@
         <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -3631,7 +3472,7 @@
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>55</v>
@@ -3654,7 +3495,7 @@
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>58</v>
@@ -3677,7 +3518,7 @@
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>44</v>
@@ -3686,13 +3527,13 @@
         <v>926</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -3700,7 +3541,7 @@
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>48</v>
@@ -3709,13 +3550,13 @@
         <v>927</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -3723,7 +3564,7 @@
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>48</v>
@@ -3732,13 +3573,13 @@
         <v>928</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -3746,7 +3587,7 @@
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>52</v>
@@ -3755,13 +3596,13 @@
         <v>929</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -3769,7 +3610,7 @@
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>52</v>
@@ -3778,13 +3619,13 @@
         <v>930</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -3792,7 +3633,7 @@
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>55</v>
@@ -3815,7 +3656,7 @@
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>58</v>
@@ -3838,7 +3679,7 @@
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>44</v>
@@ -3861,7 +3702,7 @@
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>48</v>
@@ -3884,7 +3725,7 @@
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>48</v>
@@ -3907,7 +3748,7 @@
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>52</v>
@@ -3930,7 +3771,7 @@
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>52</v>
@@ -3953,7 +3794,7 @@
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>44</v>
@@ -3976,7 +3817,7 @@
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>48</v>
@@ -3999,7 +3840,7 @@
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>52</v>
@@ -4022,7 +3863,7 @@
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>55</v>
@@ -4045,7 +3886,7 @@
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>58</v>
@@ -4068,7 +3909,7 @@
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>61</v>
@@ -4091,7 +3932,7 @@
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>44</v>
@@ -4114,7 +3955,7 @@
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>48</v>
@@ -4137,7 +3978,7 @@
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>52</v>
@@ -4160,7 +4001,7 @@
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>55</v>
@@ -4183,7 +4024,7 @@
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>58</v>
@@ -4206,7 +4047,7 @@
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>61</v>
@@ -4229,7 +4070,7 @@
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>44</v>
@@ -4252,7 +4093,7 @@
     </row>
     <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>48</v>
@@ -4275,7 +4116,7 @@
     </row>
     <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>52</v>
@@ -4298,7 +4139,7 @@
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>55</v>
@@ -4321,7 +4162,7 @@
     </row>
     <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>58</v>
@@ -4344,7 +4185,7 @@
     </row>
     <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>61</v>
@@ -4367,7 +4208,7 @@
     </row>
     <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>44</v>
@@ -4390,7 +4231,7 @@
     </row>
     <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>48</v>
@@ -4413,7 +4254,7 @@
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>52</v>
@@ -4436,7 +4277,7 @@
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>55</v>
@@ -4459,7 +4300,7 @@
     </row>
     <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>44</v>
@@ -4482,7 +4323,7 @@
     </row>
     <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>48</v>
@@ -4505,7 +4346,7 @@
     </row>
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>52</v>
@@ -4528,7 +4369,7 @@
     </row>
     <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>55</v>
@@ -4551,7 +4392,7 @@
     </row>
     <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>58</v>
@@ -4574,7 +4415,7 @@
     </row>
     <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>61</v>
@@ -4597,7 +4438,7 @@
     </row>
     <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>44</v>
@@ -4620,7 +4461,7 @@
     </row>
     <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>48</v>
@@ -4643,7 +4484,7 @@
     </row>
     <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>52</v>
@@ -4666,7 +4507,7 @@
     </row>
     <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>55</v>
@@ -4689,7 +4530,7 @@
     </row>
     <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>58</v>
@@ -4712,7 +4553,7 @@
     </row>
     <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>61</v>
@@ -4735,7 +4576,7 @@
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>44</v>
@@ -4758,7 +4599,7 @@
     </row>
     <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>48</v>
@@ -4781,7 +4622,7 @@
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>52</v>
@@ -4804,7 +4645,7 @@
     </row>
     <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>55</v>
@@ -4827,7 +4668,7 @@
     </row>
     <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>58</v>
@@ -4850,7 +4691,7 @@
     </row>
     <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>61</v>
@@ -4873,7 +4714,7 @@
     </row>
     <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>44</v>
@@ -4896,7 +4737,7 @@
     </row>
     <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>48</v>
@@ -4919,7 +4760,7 @@
     </row>
     <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>52</v>
@@ -4942,7 +4783,7 @@
     </row>
     <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>55</v>
@@ -4965,7 +4806,7 @@
     </row>
     <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>58</v>
@@ -4988,7 +4829,7 @@
     </row>
     <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>61</v>
@@ -5011,7 +4852,7 @@
     </row>
     <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>44</v>
@@ -5034,7 +4875,7 @@
     </row>
     <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>48</v>
@@ -5057,7 +4898,7 @@
     </row>
     <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>52</v>
@@ -5080,7 +4921,7 @@
     </row>
     <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>55</v>
@@ -5103,7 +4944,7 @@
     </row>
     <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>58</v>
@@ -5126,7 +4967,7 @@
     </row>
     <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>61</v>
@@ -5149,7 +4990,7 @@
     </row>
     <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>44</v>
@@ -5172,7 +5013,7 @@
     </row>
     <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>48</v>
@@ -5195,7 +5036,7 @@
     </row>
     <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>52</v>
@@ -5218,7 +5059,7 @@
     </row>
     <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>55</v>
@@ -5241,7 +5082,7 @@
     </row>
     <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>58</v>
@@ -5264,7 +5105,7 @@
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>61</v>
@@ -5287,7 +5128,7 @@
     </row>
     <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>44</v>
@@ -5310,7 +5151,7 @@
     </row>
     <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>48</v>
@@ -5333,7 +5174,7 @@
     </row>
     <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>52</v>
@@ -5356,7 +5197,7 @@
     </row>
     <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>55</v>
@@ -5379,7 +5220,7 @@
     </row>
     <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>44</v>
@@ -5402,7 +5243,7 @@
     </row>
     <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>48</v>
@@ -5425,7 +5266,7 @@
     </row>
     <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>52</v>
@@ -5448,7 +5289,7 @@
     </row>
     <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>55</v>
@@ -5471,7 +5312,7 @@
     </row>
     <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>58</v>
@@ -5494,7 +5335,7 @@
     </row>
     <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>61</v>
@@ -5517,7 +5358,7 @@
     </row>
     <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>44</v>
@@ -5540,7 +5381,7 @@
     </row>
     <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>48</v>
@@ -5563,7 +5404,7 @@
     </row>
     <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>52</v>
@@ -5586,7 +5427,7 @@
     </row>
     <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>55</v>
@@ -5609,7 +5450,7 @@
     </row>
     <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>58</v>
@@ -5632,7 +5473,7 @@
     </row>
     <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>61</v>
@@ -5655,7 +5496,7 @@
     </row>
     <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>44</v>
@@ -5678,7 +5519,7 @@
     </row>
     <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>48</v>
@@ -5701,7 +5542,7 @@
     </row>
     <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>52</v>
@@ -5724,7 +5565,7 @@
     </row>
     <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>55</v>
@@ -5747,7 +5588,7 @@
     </row>
     <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>58</v>
@@ -5770,7 +5611,7 @@
     </row>
     <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>61</v>
@@ -5793,7 +5634,7 @@
     </row>
     <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>44</v>
@@ -5816,7 +5657,7 @@
     </row>
     <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>48</v>
@@ -5839,7 +5680,7 @@
     </row>
     <row r="109" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>52</v>
@@ -5862,7 +5703,7 @@
     </row>
     <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>55</v>
@@ -5885,7 +5726,7 @@
     </row>
     <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>58</v>
@@ -5908,7 +5749,7 @@
     </row>
     <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>61</v>
@@ -5931,7 +5772,7 @@
     </row>
     <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>44</v>
@@ -5954,7 +5795,7 @@
     </row>
     <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>48</v>
@@ -5977,7 +5818,7 @@
     </row>
     <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>52</v>
@@ -6000,7 +5841,7 @@
     </row>
     <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>55</v>
@@ -6023,7 +5864,7 @@
     </row>
     <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>58</v>
@@ -6046,7 +5887,7 @@
     </row>
     <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>61</v>
@@ -6069,7 +5910,7 @@
     </row>
     <row r="119" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>44</v>
@@ -6092,7 +5933,7 @@
     </row>
     <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>48</v>
@@ -6115,7 +5956,7 @@
     </row>
     <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>52</v>
@@ -6138,7 +5979,7 @@
     </row>
     <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>55</v>
@@ -6161,7 +6002,7 @@
     </row>
     <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>58</v>
@@ -6184,7 +6025,7 @@
     </row>
     <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>61</v>
@@ -6207,7 +6048,7 @@
     </row>
     <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>44</v>
@@ -6230,7 +6071,7 @@
     </row>
     <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>48</v>
@@ -6253,7 +6094,7 @@
     </row>
     <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>52</v>
@@ -6276,7 +6117,7 @@
     </row>
     <row r="128" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>55</v>
@@ -6299,7 +6140,7 @@
     </row>
     <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>44</v>
@@ -6322,7 +6163,7 @@
     </row>
     <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>48</v>
@@ -6345,7 +6186,7 @@
     </row>
     <row r="131" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>52</v>
@@ -6368,7 +6209,7 @@
     </row>
     <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>55</v>
@@ -6391,7 +6232,7 @@
     </row>
     <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>58</v>
@@ -6414,7 +6255,7 @@
     </row>
     <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>61</v>
@@ -6437,7 +6278,7 @@
     </row>
     <row r="135" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>44</v>
@@ -6460,7 +6301,7 @@
     </row>
     <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>48</v>
@@ -6483,7 +6324,7 @@
     </row>
     <row r="137" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>52</v>
@@ -6506,7 +6347,7 @@
     </row>
     <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>55</v>
@@ -6529,7 +6370,7 @@
     </row>
     <row r="139" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>58</v>
@@ -6552,7 +6393,7 @@
     </row>
     <row r="140" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>61</v>
@@ -6575,7 +6416,7 @@
     </row>
     <row r="141" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>44</v>
@@ -6598,7 +6439,7 @@
     </row>
     <row r="142" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>48</v>
@@ -6621,7 +6462,7 @@
     </row>
     <row r="143" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>52</v>
@@ -6644,7 +6485,7 @@
     </row>
     <row r="144" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>55</v>
@@ -6667,7 +6508,7 @@
     </row>
     <row r="145" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>58</v>
@@ -6690,7 +6531,7 @@
     </row>
     <row r="146" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>61</v>
@@ -6713,7 +6554,7 @@
     </row>
     <row r="147" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>48</v>
@@ -6722,13 +6563,13 @@
         <v>685</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G147" s="2">
         <v>0</v>
@@ -6736,7 +6577,7 @@
     </row>
     <row r="148" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>52</v>
@@ -6745,13 +6586,13 @@
         <v>686</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G148" s="2">
         <v>1</v>
@@ -6759,7 +6600,7 @@
     </row>
     <row r="149" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>44</v>
@@ -6782,7 +6623,7 @@
     </row>
     <row r="150" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>48</v>
@@ -6805,7 +6646,7 @@
     </row>
     <row r="151" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>52</v>
@@ -6828,7 +6669,7 @@
     </row>
     <row r="152" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>55</v>
@@ -6851,7 +6692,7 @@
     </row>
     <row r="153" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>58</v>
@@ -6874,7 +6715,7 @@
     </row>
     <row r="154" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>61</v>
@@ -6897,7 +6738,7 @@
     </row>
     <row r="155" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>44</v>
@@ -6920,7 +6761,7 @@
     </row>
     <row r="156" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>48</v>
@@ -6943,7 +6784,7 @@
     </row>
     <row r="157" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>52</v>
@@ -6966,7 +6807,7 @@
     </row>
     <row r="158" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>55</v>
@@ -6989,7 +6830,7 @@
     </row>
     <row r="159" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>58</v>
@@ -7012,7 +6853,7 @@
     </row>
     <row r="160" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>61</v>
@@ -7035,7 +6876,7 @@
     </row>
     <row r="161" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>44</v>
@@ -7058,7 +6899,7 @@
     </row>
     <row r="162" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>48</v>
@@ -7081,7 +6922,7 @@
     </row>
     <row r="163" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>52</v>
@@ -7104,7 +6945,7 @@
     </row>
     <row r="164" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>55</v>
@@ -7127,7 +6968,7 @@
     </row>
     <row r="165" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>58</v>
@@ -7150,7 +6991,7 @@
     </row>
     <row r="166" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>61</v>
@@ -7173,7 +7014,7 @@
     </row>
     <row r="167" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>44</v>
@@ -7196,7 +7037,7 @@
     </row>
     <row r="168" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>48</v>
@@ -7219,7 +7060,7 @@
     </row>
     <row r="169" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>52</v>
@@ -7242,7 +7083,7 @@
     </row>
     <row r="170" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>55</v>
@@ -7265,7 +7106,7 @@
     </row>
     <row r="171" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>58</v>
@@ -7288,7 +7129,7 @@
     </row>
     <row r="172" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>44</v>
@@ -7297,13 +7138,13 @@
         <v>575</v>
       </c>
       <c r="D172" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F172" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G172" s="2">
         <v>0</v>
@@ -7311,7 +7152,7 @@
     </row>
     <row r="173" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>48</v>
@@ -7320,13 +7161,13 @@
         <v>576</v>
       </c>
       <c r="D173" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F173" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G173" s="2">
         <v>1</v>
@@ -7334,7 +7175,7 @@
     </row>
     <row r="174" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>52</v>
@@ -7343,13 +7184,13 @@
         <v>577</v>
       </c>
       <c r="D174" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F174" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G174" s="2">
         <v>0</v>
@@ -7357,7 +7198,7 @@
     </row>
     <row r="175" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>55</v>
@@ -7366,13 +7207,13 @@
         <v>578</v>
       </c>
       <c r="D175" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F175" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G175" s="2">
         <v>1</v>
@@ -7380,7 +7221,7 @@
     </row>
     <row r="176" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>58</v>
@@ -7389,13 +7230,13 @@
         <v>579</v>
       </c>
       <c r="D176" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F176" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G176" s="2">
         <v>0</v>
@@ -7403,7 +7244,7 @@
     </row>
     <row r="177" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>61</v>
@@ -7412,13 +7253,13 @@
         <v>580</v>
       </c>
       <c r="D177" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F177" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G177" s="2">
         <v>0</v>
@@ -7426,7 +7267,7 @@
     </row>
     <row r="178" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>44</v>
@@ -7435,13 +7276,13 @@
         <v>581</v>
       </c>
       <c r="D178" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F178" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G178" s="2">
         <v>1</v>
@@ -7449,7 +7290,7 @@
     </row>
     <row r="179" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>48</v>
@@ -7458,13 +7299,13 @@
         <v>582</v>
       </c>
       <c r="D179" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F179" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G179" s="2">
         <v>0</v>
@@ -7472,7 +7313,7 @@
     </row>
     <row r="180" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>52</v>
@@ -7481,13 +7322,13 @@
         <v>583</v>
       </c>
       <c r="D180" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F180" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G180" s="2">
         <v>1</v>
@@ -7495,7 +7336,7 @@
     </row>
     <row r="181" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>55</v>
@@ -7504,13 +7345,13 @@
         <v>584</v>
       </c>
       <c r="D181" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F181" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G181" s="2">
         <v>0</v>
@@ -7518,7 +7359,7 @@
     </row>
     <row r="182" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>58</v>
@@ -7527,13 +7368,13 @@
         <v>585</v>
       </c>
       <c r="D182" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F182" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G182" s="2">
         <v>1</v>
@@ -7541,7 +7382,7 @@
     </row>
     <row r="183" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>61</v>
@@ -7550,13 +7391,13 @@
         <v>586</v>
       </c>
       <c r="D183" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F183" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G183" s="2">
         <v>0</v>
@@ -7564,7 +7405,7 @@
     </row>
     <row r="184" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>44</v>
@@ -7573,13 +7414,13 @@
         <v>587</v>
       </c>
       <c r="D184" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F184" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G184" s="2">
         <v>1</v>
@@ -7587,7 +7428,7 @@
     </row>
     <row r="185" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>48</v>
@@ -7596,13 +7437,13 @@
         <v>588</v>
       </c>
       <c r="D185" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F185" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G185" s="2">
         <v>0</v>
@@ -7610,7 +7451,7 @@
     </row>
     <row r="186" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>52</v>
@@ -7619,13 +7460,13 @@
         <v>589</v>
       </c>
       <c r="D186" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F186" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G186" s="2">
         <v>0</v>
@@ -7633,7 +7474,7 @@
     </row>
     <row r="187" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>55</v>
@@ -7642,13 +7483,13 @@
         <v>590</v>
       </c>
       <c r="D187" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F187" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G187" s="2">
         <v>0</v>
@@ -7656,22 +7497,22 @@
     </row>
     <row r="188" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D188" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F188" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G188" s="2">
         <v>1</v>
@@ -7679,22 +7520,22 @@
     </row>
     <row r="189" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D189" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F189" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G189" s="2">
         <v>0</v>
@@ -7702,22 +7543,22 @@
     </row>
     <row r="190" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D190" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F190" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G190" s="2">
         <v>1</v>
@@ -7725,22 +7566,22 @@
     </row>
     <row r="191" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D191" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F191" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G191" s="2">
         <v>0</v>
@@ -7748,22 +7589,22 @@
     </row>
     <row r="192" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D192" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F192" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G192" s="2">
         <v>1</v>
@@ -7771,7 +7612,7 @@
     </row>
     <row r="193" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>48</v>
@@ -7780,7 +7621,7 @@
         <v>756</v>
       </c>
       <c r="D193" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>46</v>
@@ -7794,7 +7635,7 @@
     </row>
     <row r="194" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>52</v>
@@ -7803,7 +7644,7 @@
         <v>757</v>
       </c>
       <c r="D194" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>46</v>
@@ -7817,22 +7658,22 @@
     </row>
     <row r="195" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D195" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F195" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G195" s="2">
         <v>0</v>
@@ -7840,22 +7681,22 @@
     </row>
     <row r="196" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D196" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F196" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G196" s="2">
         <v>1</v>
@@ -8460,94 +8301,94 @@
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>66</v>
@@ -8556,22 +8397,22 @@
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>68</v>
@@ -8580,22 +8421,22 @@
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>70</v>
@@ -8610,160 +8451,270 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B5" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>439</v>
-      </c>
-      <c r="B5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B6" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B7" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" t="s">
+        <v>399</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" t="s">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B12" t="s">
+        <v>345</v>
+      </c>
+      <c r="C12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>444</v>
-      </c>
-      <c r="B8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>444</v>
-      </c>
-      <c r="B9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>444</v>
-      </c>
-      <c r="B10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>444</v>
-      </c>
-      <c r="B12" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>445</v>
       </c>
       <c r="B13" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>461</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B14" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>462</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C15" t="s">
+        <v>463</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>444</v>
+      </c>
+      <c r="B16" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>445</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>464</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>444</v>
+      </c>
+      <c r="B17" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>445</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>465</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>444</v>
+      </c>
+      <c r="B18" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>445</v>
-      </c>
-      <c r="B18" t="s">
-        <v>350</v>
+      <c r="C18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -8801,24 +8752,24 @@
         <v>334</v>
       </c>
       <c r="D1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" t="s">
         <v>429</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>430</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>431</v>
-      </c>
-      <c r="G1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>72</v>
@@ -8838,13 +8789,13 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>263</v>
@@ -8861,13 +8812,13 @@
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>269</v>
@@ -8884,13 +8835,13 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>275</v>
@@ -8907,13 +8858,13 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>281</v>
@@ -8930,13 +8881,13 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>287</v>
@@ -8959,792 +8910,1376 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>336</v>
       </c>
       <c r="B1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" t="s">
+        <v>388</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" t="s">
+        <v>390</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C13" t="s">
+        <v>391</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" t="s">
+        <v>393</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>432</v>
+      </c>
+      <c r="B16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" t="s">
+        <v>394</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>432</v>
+      </c>
+      <c r="B17" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" t="s">
+        <v>394</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>433</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B18" t="s">
+        <v>350</v>
+      </c>
+      <c r="C18" t="s">
+        <v>380</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>433</v>
+      </c>
+      <c r="B19" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C19" t="s">
+        <v>449</v>
+      </c>
+      <c r="D19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>433</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B20" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C20" t="s">
+        <v>382</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>433</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B21" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C21" t="s">
+        <v>383</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>433</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B22" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C22" t="s">
+        <v>450</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>433</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B23" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C23" t="s">
+        <v>385</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>433</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B24" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C24" t="s">
+        <v>386</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>433</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B25" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C25" t="s">
+        <v>387</v>
+      </c>
+      <c r="D25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>433</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B26" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C26" t="s">
+        <v>388</v>
+      </c>
+      <c r="D26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>433</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B27" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C27" t="s">
+        <v>389</v>
+      </c>
+      <c r="D27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>433</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B28" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="C28" t="s">
+        <v>390</v>
+      </c>
+      <c r="D28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>433</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B29" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C29" t="s">
+        <v>391</v>
+      </c>
+      <c r="D29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>433</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B30" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C30" t="s">
+        <v>392</v>
+      </c>
+      <c r="D30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>433</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B31" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="C31" t="s">
+        <v>393</v>
+      </c>
+      <c r="D31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>433</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B32" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C32" t="s">
+        <v>394</v>
+      </c>
+      <c r="D32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>433</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B33" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>433</v>
-      </c>
-      <c r="B17" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C33" t="s">
+        <v>394</v>
+      </c>
+      <c r="D33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>434</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B34" t="s">
+        <v>350</v>
+      </c>
+      <c r="C34" t="s">
+        <v>380</v>
+      </c>
+      <c r="D34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>434</v>
+      </c>
+      <c r="B35" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C35" t="s">
+        <v>449</v>
+      </c>
+      <c r="D35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>434</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B36" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="C36" t="s">
+        <v>382</v>
+      </c>
+      <c r="D36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>434</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B37" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C37" t="s">
+        <v>383</v>
+      </c>
+      <c r="D37">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>434</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B38" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C38" t="s">
+        <v>450</v>
+      </c>
+      <c r="D38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>434</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B39" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="C39" t="s">
+        <v>385</v>
+      </c>
+      <c r="D39">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>434</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B40" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="C40" t="s">
+        <v>386</v>
+      </c>
+      <c r="D40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>434</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B41" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="C41" t="s">
+        <v>387</v>
+      </c>
+      <c r="D41">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>434</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B42" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="C42" t="s">
+        <v>388</v>
+      </c>
+      <c r="D42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>434</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B43" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="C43" t="s">
+        <v>389</v>
+      </c>
+      <c r="D43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>434</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B44" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="C44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>434</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B45" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="C45" t="s">
+        <v>391</v>
+      </c>
+      <c r="D45">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>434</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B46" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="C46" t="s">
+        <v>392</v>
+      </c>
+      <c r="D46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>434</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B47" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="C47" t="s">
+        <v>393</v>
+      </c>
+      <c r="D47">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>434</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B48" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="C48" t="s">
+        <v>394</v>
+      </c>
+      <c r="D48">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>434</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B49" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>434</v>
-      </c>
-      <c r="B33" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="C49" t="s">
+        <v>394</v>
+      </c>
+      <c r="D49">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>435</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B50" t="s">
+        <v>350</v>
+      </c>
+      <c r="C50" t="s">
+        <v>380</v>
+      </c>
+      <c r="D50">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>435</v>
+      </c>
+      <c r="B51" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="C51" t="s">
+        <v>451</v>
+      </c>
+      <c r="D51">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>435</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B52" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="C52" t="s">
+        <v>382</v>
+      </c>
+      <c r="D52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>435</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B53" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="C53" t="s">
+        <v>383</v>
+      </c>
+      <c r="D53">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>435</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B54" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="C54" t="s">
+        <v>452</v>
+      </c>
+      <c r="D54">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>435</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B55" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="C55" t="s">
+        <v>385</v>
+      </c>
+      <c r="D55">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>435</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B56" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="C56" t="s">
+        <v>386</v>
+      </c>
+      <c r="D56">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>435</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B57" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="C57" t="s">
+        <v>387</v>
+      </c>
+      <c r="D57">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>435</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B58" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="C58" t="s">
+        <v>388</v>
+      </c>
+      <c r="D58">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>435</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B59" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="C59" t="s">
+        <v>389</v>
+      </c>
+      <c r="D59">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>435</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B60" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="C60" t="s">
+        <v>390</v>
+      </c>
+      <c r="D60">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>435</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B61" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="C61" t="s">
+        <v>391</v>
+      </c>
+      <c r="D61">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>435</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B62" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="C62" t="s">
+        <v>392</v>
+      </c>
+      <c r="D62">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>435</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B63" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="C63" t="s">
+        <v>393</v>
+      </c>
+      <c r="D63">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>435</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B64" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="C64" t="s">
+        <v>394</v>
+      </c>
+      <c r="D64">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>435</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B65" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>435</v>
-      </c>
-      <c r="B49" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="C65" t="s">
+        <v>394</v>
+      </c>
+      <c r="D65">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>436</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B66" t="s">
+        <v>350</v>
+      </c>
+      <c r="C66" t="s">
+        <v>380</v>
+      </c>
+      <c r="D66">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>436</v>
+      </c>
+      <c r="B67" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="C67" t="s">
+        <v>451</v>
+      </c>
+      <c r="D67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>436</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B68" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="C68" t="s">
+        <v>382</v>
+      </c>
+      <c r="D68">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>436</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B69" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="C69" t="s">
+        <v>383</v>
+      </c>
+      <c r="D69">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>436</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B70" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="C70" t="s">
+        <v>452</v>
+      </c>
+      <c r="D70">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>436</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B71" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="C71" t="s">
+        <v>385</v>
+      </c>
+      <c r="D71">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>436</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B72" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="C72" t="s">
+        <v>386</v>
+      </c>
+      <c r="D72">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>436</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B73" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="C73" t="s">
+        <v>387</v>
+      </c>
+      <c r="D73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>436</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B74" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="C74" t="s">
+        <v>388</v>
+      </c>
+      <c r="D74">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>436</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B75" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="C75" t="s">
+        <v>389</v>
+      </c>
+      <c r="D75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>436</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B76" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="C76" t="s">
+        <v>390</v>
+      </c>
+      <c r="D76">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>436</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B77" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="C77" t="s">
+        <v>391</v>
+      </c>
+      <c r="D77">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>436</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B78" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="C78" t="s">
+        <v>392</v>
+      </c>
+      <c r="D78">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>436</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B79" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="C79" t="s">
+        <v>393</v>
+      </c>
+      <c r="D79">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>436</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B80" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="C80" t="s">
+        <v>394</v>
+      </c>
+      <c r="D80">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>436</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B81" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>436</v>
-      </c>
-      <c r="B65" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="C81" t="s">
+        <v>394</v>
+      </c>
+      <c r="D81">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>437</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B82" t="s">
+        <v>350</v>
+      </c>
+      <c r="C82" t="s">
+        <v>380</v>
+      </c>
+      <c r="D82">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>437</v>
+      </c>
+      <c r="B83" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="C83" t="s">
+        <v>453</v>
+      </c>
+      <c r="D83">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>437</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B84" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="C84" t="s">
+        <v>382</v>
+      </c>
+      <c r="D84">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>437</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B85" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="C85" t="s">
+        <v>383</v>
+      </c>
+      <c r="D85">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>437</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B86" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="C86" t="s">
+        <v>454</v>
+      </c>
+      <c r="D86">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>437</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B87" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="C87" t="s">
+        <v>385</v>
+      </c>
+      <c r="D87">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>437</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B88" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="C88" t="s">
+        <v>386</v>
+      </c>
+      <c r="D88">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>437</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B89" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="C89" t="s">
+        <v>387</v>
+      </c>
+      <c r="D89">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>437</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B90" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="C90" t="s">
+        <v>388</v>
+      </c>
+      <c r="D90">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>437</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B91" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="C91" t="s">
+        <v>389</v>
+      </c>
+      <c r="D91">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>437</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B92" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="C92" t="s">
+        <v>390</v>
+      </c>
+      <c r="D92">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>437</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B93" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="C93" t="s">
+        <v>391</v>
+      </c>
+      <c r="D93">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>437</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B94" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="C94" t="s">
+        <v>392</v>
+      </c>
+      <c r="D94">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>437</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B95" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="C95" t="s">
+        <v>393</v>
+      </c>
+      <c r="D95">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>437</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B96" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="C96" t="s">
+        <v>394</v>
+      </c>
+      <c r="D96">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>437</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B97" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>437</v>
-      </c>
-      <c r="B81" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>438</v>
-      </c>
-      <c r="B82" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>438</v>
-      </c>
-      <c r="B83" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>438</v>
-      </c>
-      <c r="B84" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>438</v>
-      </c>
-      <c r="B85" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>438</v>
-      </c>
-      <c r="B86" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>438</v>
-      </c>
-      <c r="B87" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>438</v>
-      </c>
-      <c r="B88" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>438</v>
-      </c>
-      <c r="B89" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>438</v>
-      </c>
-      <c r="B90" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>438</v>
-      </c>
-      <c r="B91" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>438</v>
-      </c>
-      <c r="B92" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>438</v>
-      </c>
-      <c r="B93" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>438</v>
-      </c>
-      <c r="B94" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>438</v>
-      </c>
-      <c r="B95" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>438</v>
-      </c>
-      <c r="B96" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>438</v>
-      </c>
-      <c r="B97" t="s">
-        <v>366</v>
+      <c r="C97" t="s">
+        <v>394</v>
+      </c>
+      <c r="D97">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
